--- a/FINAL500.xlsx
+++ b/FINAL500.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1361" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="478">
   <si>
     <t xml:space="preserve">Questions for Tech Interview</t>
   </si>
@@ -217,7 +217,19 @@
     <t xml:space="preserve">Reverse a String</t>
   </si>
   <si>
+    <t xml:space="preserve">https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/reverseString.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">can not do better that</t>
+  </si>
+  <si>
     <t xml:space="preserve">Check whether a String is Palindrome or not</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/palindromeString.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Time O(n) space O(1)</t>
   </si>
   <si>
     <t xml:space="preserve">Find Duplicate characters in a string</t>
@@ -1701,11 +1713,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D9" activeCellId="0" sqref="D9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.50390625" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2289,7 +2301,7 @@
       <c r="B55" s="9"/>
       <c r="C55" s="6"/>
     </row>
-    <row r="56" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
         <v>63</v>
       </c>
@@ -2297,18 +2309,30 @@
         <v>64</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>8</v>
+      </c>
+      <c r="D56" s="0" t="s">
+        <v>65</v>
+      </c>
+      <c r="E56" s="0" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D57" s="0" t="s">
+        <v>68</v>
+      </c>
+      <c r="E57" s="0" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2316,7 +2340,7 @@
         <v>63</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>18</v>
@@ -2327,7 +2351,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>18</v>
@@ -2338,7 +2362,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>18</v>
@@ -2349,7 +2373,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>18</v>
@@ -2360,7 +2384,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>18</v>
@@ -2371,7 +2395,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>18</v>
@@ -2382,7 +2406,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>18</v>
@@ -2393,7 +2417,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>18</v>
@@ -2404,7 +2428,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>18</v>
@@ -2415,7 +2439,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>18</v>
@@ -2426,7 +2450,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>18</v>
@@ -2437,7 +2461,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>18</v>
@@ -2448,7 +2472,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>18</v>
@@ -2459,7 +2483,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>18</v>
@@ -2470,7 +2494,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>18</v>
@@ -2481,7 +2505,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>18</v>
@@ -2492,7 +2516,7 @@
         <v>63</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>18</v>
@@ -2503,7 +2527,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>18</v>
@@ -2514,7 +2538,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>18</v>
@@ -2525,7 +2549,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>18</v>
@@ -2536,7 +2560,7 @@
         <v>63</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -2547,7 +2571,7 @@
         <v>63</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>18</v>
@@ -2558,7 +2582,7 @@
         <v>63</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>18</v>
@@ -2569,7 +2593,7 @@
         <v>63</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>18</v>
@@ -2580,7 +2604,7 @@
         <v>63</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>18</v>
@@ -2591,7 +2615,7 @@
         <v>63</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>18</v>
@@ -2602,7 +2626,7 @@
         <v>63</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>18</v>
@@ -2613,7 +2637,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>18</v>
@@ -2624,7 +2648,7 @@
         <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>18</v>
@@ -2635,7 +2659,7 @@
         <v>63</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>18</v>
@@ -2646,7 +2670,7 @@
         <v>63</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>18</v>
@@ -2657,7 +2681,7 @@
         <v>63</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>18</v>
@@ -2668,7 +2692,7 @@
         <v>63</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>18</v>
@@ -2679,7 +2703,7 @@
         <v>63</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>18</v>
@@ -2690,7 +2714,7 @@
         <v>63</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>18</v>
@@ -2701,7 +2725,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>18</v>
@@ -2712,7 +2736,7 @@
         <v>63</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>18</v>
@@ -2723,7 +2747,7 @@
         <v>63</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>18</v>
@@ -2734,7 +2758,7 @@
         <v>63</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>18</v>
@@ -2745,7 +2769,7 @@
         <v>63</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>18</v>
@@ -2756,7 +2780,7 @@
         <v>63</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>18</v>
@@ -2769,10 +2793,10 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>18</v>
@@ -2780,10 +2804,10 @@
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>18</v>
@@ -2791,10 +2815,10 @@
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>18</v>
@@ -2802,10 +2826,10 @@
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>18</v>
@@ -2813,10 +2837,10 @@
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>18</v>
@@ -2824,10 +2848,10 @@
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>18</v>
@@ -2835,10 +2859,10 @@
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>18</v>
@@ -2846,10 +2870,10 @@
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>18</v>
@@ -2857,10 +2881,10 @@
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>18</v>
@@ -2868,10 +2892,10 @@
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>18</v>
@@ -2879,10 +2903,10 @@
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>18</v>
@@ -2890,10 +2914,10 @@
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>18</v>
@@ -2901,10 +2925,10 @@
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>18</v>
@@ -2912,10 +2936,10 @@
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>18</v>
@@ -2923,10 +2947,10 @@
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>18</v>
@@ -2934,10 +2958,10 @@
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>18</v>
@@ -2945,10 +2969,10 @@
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>18</v>
@@ -2956,10 +2980,10 @@
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>18</v>
@@ -2967,10 +2991,10 @@
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>18</v>
@@ -2978,10 +3002,10 @@
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>18</v>
@@ -2989,10 +3013,10 @@
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>18</v>
@@ -3000,10 +3024,10 @@
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>18</v>
@@ -3011,10 +3035,10 @@
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>18</v>
@@ -3022,10 +3046,10 @@
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>18</v>
@@ -3033,10 +3057,10 @@
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>18</v>
@@ -3044,10 +3068,10 @@
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>18</v>
@@ -3055,10 +3079,10 @@
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>18</v>
@@ -3066,10 +3090,10 @@
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>18</v>
@@ -3077,10 +3101,10 @@
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>18</v>
@@ -3088,10 +3112,10 @@
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>18</v>
@@ -3099,10 +3123,10 @@
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>18</v>
@@ -3110,10 +3134,10 @@
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>18</v>
@@ -3121,10 +3145,10 @@
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>18</v>
@@ -3132,10 +3156,10 @@
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>18</v>
@@ -3143,10 +3167,10 @@
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>18</v>
@@ -3154,10 +3178,10 @@
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>18</v>
@@ -3169,10 +3193,10 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>18</v>
@@ -3180,10 +3204,10 @@
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>18</v>
@@ -3191,10 +3215,10 @@
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>18</v>
@@ -3202,10 +3226,10 @@
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>18</v>
@@ -3213,10 +3237,10 @@
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>18</v>
@@ -3224,10 +3248,10 @@
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>18</v>
@@ -3235,10 +3259,10 @@
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>18</v>
@@ -3246,10 +3270,10 @@
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>18</v>
@@ -3257,10 +3281,10 @@
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>18</v>
@@ -3268,10 +3292,10 @@
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>18</v>
@@ -3279,10 +3303,10 @@
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>18</v>
@@ -3290,10 +3314,10 @@
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>18</v>
@@ -3301,10 +3325,10 @@
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>18</v>
@@ -3312,10 +3336,10 @@
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>18</v>
@@ -3323,10 +3347,10 @@
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>18</v>
@@ -3334,10 +3358,10 @@
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>18</v>
@@ -3345,10 +3369,10 @@
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>18</v>
@@ -3356,10 +3380,10 @@
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>18</v>
@@ -3367,10 +3391,10 @@
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>18</v>
@@ -3378,10 +3402,10 @@
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>18</v>
@@ -3389,10 +3413,10 @@
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>18</v>
@@ -3400,10 +3424,10 @@
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>18</v>
@@ -3411,10 +3435,10 @@
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>18</v>
@@ -3422,10 +3446,10 @@
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>18</v>
@@ -3433,10 +3457,10 @@
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>18</v>
@@ -3444,10 +3468,10 @@
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>18</v>
@@ -3455,10 +3479,10 @@
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>18</v>
@@ -3466,10 +3490,10 @@
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>18</v>
@@ -3477,10 +3501,10 @@
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>18</v>
@@ -3488,10 +3512,10 @@
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>18</v>
@@ -3499,10 +3523,10 @@
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>18</v>
@@ -3510,10 +3534,10 @@
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>18</v>
@@ -3521,10 +3545,10 @@
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>18</v>
@@ -3532,10 +3556,10 @@
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>18</v>
@@ -3543,10 +3567,10 @@
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>18</v>
@@ -3554,10 +3578,10 @@
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>18</v>
@@ -3569,10 +3593,10 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>18</v>
@@ -3580,10 +3604,10 @@
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>18</v>
@@ -3591,10 +3615,10 @@
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>18</v>
@@ -3602,10 +3626,10 @@
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>18</v>
@@ -3613,10 +3637,10 @@
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>18</v>
@@ -3624,10 +3648,10 @@
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>18</v>
@@ -3635,10 +3659,10 @@
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>18</v>
@@ -3646,10 +3670,10 @@
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>18</v>
@@ -3657,10 +3681,10 @@
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>18</v>
@@ -3668,10 +3692,10 @@
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>18</v>
@@ -3679,10 +3703,10 @@
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>18</v>
@@ -3690,10 +3714,10 @@
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>18</v>
@@ -3701,10 +3725,10 @@
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>18</v>
@@ -3712,10 +3736,10 @@
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>18</v>
@@ -3723,10 +3747,10 @@
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>18</v>
@@ -3734,10 +3758,10 @@
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>18</v>
@@ -3745,10 +3769,10 @@
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>18</v>
@@ -3756,10 +3780,10 @@
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>18</v>
@@ -3767,10 +3791,10 @@
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>18</v>
@@ -3778,10 +3802,10 @@
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>18</v>
@@ -3789,10 +3813,10 @@
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>18</v>
@@ -3800,10 +3824,10 @@
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>18</v>
@@ -3811,10 +3835,10 @@
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>18</v>
@@ -3822,10 +3846,10 @@
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>18</v>
@@ -3833,10 +3857,10 @@
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>18</v>
@@ -3844,10 +3868,10 @@
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>18</v>
@@ -3855,10 +3879,10 @@
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>18</v>
@@ -3866,10 +3890,10 @@
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>18</v>
@@ -3877,10 +3901,10 @@
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>18</v>
@@ -3888,10 +3912,10 @@
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>18</v>
@@ -3899,10 +3923,10 @@
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>18</v>
@@ -3910,10 +3934,10 @@
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>18</v>
@@ -3921,10 +3945,10 @@
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>18</v>
@@ -3932,10 +3956,10 @@
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>18</v>
@@ -3943,10 +3967,10 @@
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>18</v>
@@ -3964,10 +3988,10 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>18</v>
@@ -3975,10 +3999,10 @@
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>18</v>
@@ -3986,10 +4010,10 @@
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>18</v>
@@ -3997,10 +4021,10 @@
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>18</v>
@@ -4008,10 +4032,10 @@
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>18</v>
@@ -4019,10 +4043,10 @@
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>18</v>
@@ -4030,10 +4054,10 @@
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>18</v>
@@ -4041,10 +4065,10 @@
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>18</v>
@@ -4052,10 +4076,10 @@
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>18</v>
@@ -4063,10 +4087,10 @@
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>18</v>
@@ -4074,10 +4098,10 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>18</v>
@@ -4085,10 +4109,10 @@
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>18</v>
@@ -4096,10 +4120,10 @@
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>18</v>
@@ -4107,10 +4131,10 @@
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>18</v>
@@ -4118,10 +4142,10 @@
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>18</v>
@@ -4129,10 +4153,10 @@
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>18</v>
@@ -4140,10 +4164,10 @@
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>18</v>
@@ -4151,10 +4175,10 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>18</v>
@@ -4162,10 +4186,10 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>18</v>
@@ -4173,10 +4197,10 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>18</v>
@@ -4184,10 +4208,10 @@
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>18</v>
@@ -4195,10 +4219,10 @@
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>18</v>
@@ -4214,10 +4238,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>18</v>
@@ -4225,10 +4249,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>18</v>
@@ -4236,10 +4260,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>18</v>
@@ -4247,10 +4271,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>18</v>
@@ -4258,10 +4282,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>18</v>
@@ -4269,10 +4293,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>18</v>
@@ -4280,10 +4304,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>18</v>
@@ -4291,10 +4315,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>18</v>
@@ -4302,10 +4326,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>18</v>
@@ -4313,10 +4337,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>18</v>
@@ -4324,10 +4348,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>18</v>
@@ -4335,10 +4359,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>18</v>
@@ -4346,10 +4370,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>18</v>
@@ -4357,10 +4381,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>18</v>
@@ -4368,10 +4392,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>18</v>
@@ -4379,10 +4403,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>18</v>
@@ -4390,10 +4414,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>18</v>
@@ -4401,10 +4425,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>18</v>
@@ -4412,10 +4436,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>18</v>
@@ -4423,10 +4447,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>18</v>
@@ -4434,10 +4458,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>18</v>
@@ -4445,10 +4469,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>18</v>
@@ -4456,10 +4480,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>18</v>
@@ -4467,10 +4491,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>18</v>
@@ -4478,10 +4502,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>18</v>
@@ -4489,10 +4513,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>18</v>
@@ -4500,10 +4524,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>18</v>
@@ -4511,10 +4535,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>18</v>
@@ -4522,10 +4546,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>18</v>
@@ -4533,10 +4557,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>18</v>
@@ -4544,10 +4568,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>18</v>
@@ -4555,10 +4579,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>18</v>
@@ -4566,10 +4590,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>18</v>
@@ -4577,10 +4601,10 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>18</v>
@@ -4588,10 +4612,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>18</v>
@@ -4607,10 +4631,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>18</v>
@@ -4618,10 +4642,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>18</v>
@@ -4629,10 +4653,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>18</v>
@@ -4640,10 +4664,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>18</v>
@@ -4651,10 +4675,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>18</v>
@@ -4662,10 +4686,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>18</v>
@@ -4673,10 +4697,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>18</v>
@@ -4684,10 +4708,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>18</v>
@@ -4695,10 +4719,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>18</v>
@@ -4706,10 +4730,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>18</v>
@@ -4717,10 +4741,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>18</v>
@@ -4728,10 +4752,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>18</v>
@@ -4739,10 +4763,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>18</v>
@@ -4750,10 +4774,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>18</v>
@@ -4761,10 +4785,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>18</v>
@@ -4772,10 +4796,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>18</v>
@@ -4783,10 +4807,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>18</v>
@@ -4794,10 +4818,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>18</v>
@@ -4805,10 +4829,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>18</v>
@@ -4824,10 +4848,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>18</v>
@@ -4835,10 +4859,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>18</v>
@@ -4846,10 +4870,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>18</v>
@@ -4857,10 +4881,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>18</v>
@@ -4868,10 +4892,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>18</v>
@@ -4879,10 +4903,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>18</v>
@@ -4890,10 +4914,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>18</v>
@@ -4901,10 +4925,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>18</v>
@@ -4912,10 +4936,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>18</v>
@@ -4923,10 +4947,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>18</v>
@@ -4934,10 +4958,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>18</v>
@@ -4945,10 +4969,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>18</v>
@@ -4956,10 +4980,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>18</v>
@@ -4967,10 +4991,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>18</v>
@@ -4978,10 +5002,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>18</v>
@@ -4989,10 +5013,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>18</v>
@@ -5000,10 +5024,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>18</v>
@@ -5011,10 +5035,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>18</v>
@@ -5022,10 +5046,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>18</v>
@@ -5033,10 +5057,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>18</v>
@@ -5044,10 +5068,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>18</v>
@@ -5055,10 +5079,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>18</v>
@@ -5066,10 +5090,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>18</v>
@@ -5077,10 +5101,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>18</v>
@@ -5088,10 +5112,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>18</v>
@@ -5099,10 +5123,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>18</v>
@@ -5110,10 +5134,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>18</v>
@@ -5121,10 +5145,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>18</v>
@@ -5132,10 +5156,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>18</v>
@@ -5143,10 +5167,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>18</v>
@@ -5154,10 +5178,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>18</v>
@@ -5165,10 +5189,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>18</v>
@@ -5176,10 +5200,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>18</v>
@@ -5187,10 +5211,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>18</v>
@@ -5198,10 +5222,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>18</v>
@@ -5209,10 +5233,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>18</v>
@@ -5220,10 +5244,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>18</v>
@@ -5231,10 +5255,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>18</v>
@@ -5250,10 +5274,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>18</v>
@@ -5261,10 +5285,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>18</v>
@@ -5272,10 +5296,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>18</v>
@@ -5283,10 +5307,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>18</v>
@@ -5294,10 +5318,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>18</v>
@@ -5305,10 +5329,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>18</v>
@@ -5316,10 +5340,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>18</v>
@@ -5327,10 +5351,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>18</v>
@@ -5338,10 +5362,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>18</v>
@@ -5349,10 +5373,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>18</v>
@@ -5360,10 +5384,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>18</v>
@@ -5371,10 +5395,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>18</v>
@@ -5382,10 +5406,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>18</v>
@@ -5393,10 +5417,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>18</v>
@@ -5404,10 +5428,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>18</v>
@@ -5415,10 +5439,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>18</v>
@@ -5426,10 +5450,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>18</v>
@@ -5437,10 +5461,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>18</v>
@@ -5456,10 +5480,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>18</v>
@@ -5467,10 +5491,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>18</v>
@@ -5478,10 +5502,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>18</v>
@@ -5489,10 +5513,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>18</v>
@@ -5500,10 +5524,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>18</v>
@@ -5511,10 +5535,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>18</v>
@@ -5522,10 +5546,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>18</v>
@@ -5533,10 +5557,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>18</v>
@@ -5544,10 +5568,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>18</v>
@@ -5555,10 +5579,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>18</v>
@@ -5566,10 +5590,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>18</v>
@@ -5577,10 +5601,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>18</v>
@@ -5588,10 +5612,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>18</v>
@@ -5599,10 +5623,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>18</v>
@@ -5610,10 +5634,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>18</v>
@@ -5621,10 +5645,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>18</v>
@@ -5632,10 +5656,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>18</v>
@@ -5643,10 +5667,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>18</v>
@@ -5654,10 +5678,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>18</v>
@@ -5665,10 +5689,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>18</v>
@@ -5676,10 +5700,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>18</v>
@@ -5687,10 +5711,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>18</v>
@@ -5698,10 +5722,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>18</v>
@@ -5709,10 +5733,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>18</v>
@@ -5720,10 +5744,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>18</v>
@@ -5731,10 +5755,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>18</v>
@@ -5742,10 +5766,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>18</v>
@@ -5753,10 +5777,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>18</v>
@@ -5764,10 +5788,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>18</v>
@@ -5775,10 +5799,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>18</v>
@@ -5786,10 +5810,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>18</v>
@@ -5797,10 +5821,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>18</v>
@@ -5808,10 +5832,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>18</v>
@@ -5819,10 +5843,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>18</v>
@@ -5830,10 +5854,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>18</v>
@@ -5841,10 +5865,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>18</v>
@@ -5852,10 +5876,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>18</v>
@@ -5863,10 +5887,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>18</v>
@@ -5874,10 +5898,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>18</v>
@@ -5885,10 +5909,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>18</v>
@@ -5896,10 +5920,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>18</v>
@@ -5907,10 +5931,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>18</v>
@@ -5918,10 +5942,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>18</v>
@@ -5929,10 +5953,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>18</v>
@@ -5948,10 +5972,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>18</v>
@@ -5959,10 +5983,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>18</v>
@@ -5970,10 +5994,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>18</v>
@@ -5981,10 +6005,10 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>18</v>
@@ -5992,10 +6016,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>18</v>
@@ -6003,10 +6027,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>18</v>
@@ -6022,10 +6046,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>18</v>
@@ -6033,10 +6057,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>18</v>
@@ -6044,10 +6068,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>18</v>
@@ -6055,10 +6079,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>18</v>
@@ -6066,10 +6090,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>18</v>
@@ -6077,10 +6101,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>18</v>
@@ -6088,10 +6112,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>18</v>
@@ -6099,10 +6123,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>18</v>
@@ -6110,10 +6134,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>18</v>
@@ -6121,10 +6145,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>18</v>
@@ -6132,10 +6156,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>18</v>
@@ -6143,10 +6167,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>18</v>
@@ -6154,10 +6178,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>18</v>
@@ -6165,10 +6189,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>18</v>
@@ -6176,10 +6200,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>18</v>
@@ -6187,10 +6211,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>18</v>
@@ -6198,10 +6222,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>18</v>
@@ -6209,10 +6233,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>18</v>
@@ -6220,10 +6244,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>18</v>
@@ -6231,10 +6255,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>18</v>
@@ -6242,10 +6266,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>18</v>
@@ -6253,10 +6277,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>18</v>
@@ -6264,10 +6288,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>18</v>
@@ -6275,10 +6299,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>18</v>
@@ -6286,10 +6310,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>18</v>
@@ -6297,10 +6321,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>18</v>
@@ -6308,10 +6332,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>18</v>
@@ -6319,10 +6343,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>18</v>
@@ -6330,10 +6354,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>18</v>
@@ -6341,10 +6365,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>18</v>
@@ -6352,10 +6376,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>18</v>
@@ -6363,10 +6387,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>18</v>
@@ -6374,10 +6398,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>18</v>
@@ -6385,10 +6409,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>18</v>
@@ -6396,10 +6420,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>18</v>
@@ -6407,10 +6431,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>18</v>
@@ -6418,10 +6442,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>18</v>
@@ -6429,10 +6453,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>18</v>
@@ -6440,10 +6464,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>18</v>
@@ -6451,10 +6475,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>18</v>
@@ -6462,10 +6486,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>18</v>
@@ -6473,10 +6497,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>18</v>
@@ -6484,10 +6508,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>18</v>
@@ -6495,10 +6519,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>18</v>
@@ -6506,10 +6530,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>18</v>
@@ -6517,10 +6541,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>18</v>
@@ -6528,10 +6552,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>18</v>
@@ -6539,10 +6563,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>18</v>
@@ -6550,10 +6574,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>18</v>
@@ -6561,10 +6585,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>18</v>
@@ -6572,10 +6596,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>18</v>
@@ -6583,10 +6607,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>18</v>
@@ -6594,10 +6618,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>18</v>
@@ -6605,10 +6629,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>18</v>
@@ -6616,10 +6640,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>18</v>
@@ -6627,10 +6651,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>18</v>
@@ -6638,10 +6662,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>18</v>
@@ -6649,10 +6673,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>18</v>
@@ -6660,10 +6684,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>18</v>
@@ -6671,10 +6695,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>18</v>
@@ -6691,10 +6715,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>18</v>
@@ -6702,10 +6726,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>18</v>
@@ -6713,10 +6737,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>18</v>
@@ -6724,10 +6748,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>18</v>
@@ -6735,10 +6759,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>18</v>
@@ -6746,10 +6770,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>18</v>
@@ -6757,10 +6781,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>18</v>
@@ -6768,10 +6792,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>18</v>
@@ -6779,10 +6803,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>18</v>
@@ -6790,10 +6814,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>18</v>
@@ -6851,404 +6875,406 @@
     <hyperlink ref="B52" r:id="rId48" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
     <hyperlink ref="B53" r:id="rId49" display="Common elements in all rows of a given matrix"/>
     <hyperlink ref="B56" r:id="rId50" display="Reverse a String"/>
-    <hyperlink ref="B57" r:id="rId51" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="B58" r:id="rId52" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId53" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId54" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId55" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId56" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId57" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId58" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId59" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId60" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId61" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId62" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId63" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId64" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId65" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId66" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId67" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId68" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId69" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId70" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId71" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId72" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId73" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId74" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId75" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId76" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId77" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId78" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId79" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId80" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId81" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId82" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId83" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId84" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId85" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId86" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId87" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId88" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId89" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId90" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId91" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId92" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId93" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId94" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId95" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId96" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId97" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId98" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId99" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId100" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId101" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId102" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId103" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId104" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId105" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId106" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId107" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId108" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId109" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId110" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId111" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId112" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId113" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId114" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId115" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId116" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId117" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId118" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId119" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId120" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId121" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId122" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId123" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId124" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId125" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId126" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId127" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId128" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId129" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId130" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId131" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId132" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId133" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId134" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId135" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId136" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId137" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId138" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId139" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId140" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId141" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId142" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId143" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId144" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId145" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId146" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId147" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId148" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId149" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId150" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId151" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId152" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId153" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId154" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId155" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId156" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId157" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId158" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId159" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId160" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId161" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId162" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId163" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId164" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId165" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId166" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId167" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId168" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId169" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId170" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId171" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId172" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId173" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId174" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId175" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId176" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId177" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId178" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId179" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId180" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId181" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId182" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId183" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId184" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId185" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId186" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId187" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId188" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId189" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId190" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId191" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId192" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId193" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId194" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId195" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId196" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId197" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId198" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId199" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId200" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId201" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId202" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId203" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId204" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId205" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId206" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId207" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId208" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId209" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId210" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId211" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId212" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId213" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId214" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId215" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId216" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId217" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId218" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId219" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId220" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId221" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId222" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId223" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId224" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId225" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId226" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId227" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId228" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId229" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId230" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId231" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId232" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId233" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId234" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId235" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId236" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId237" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId238" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId239" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId240" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId241" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId242" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId243" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId244" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId245" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId246" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId247" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId248" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId249" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId250" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId251" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId252" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId253" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId254" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId255" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId256" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId257" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId258" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId259" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId260" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId261" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId262" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId263" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId264" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId265" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId266" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId267" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId268" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId269" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId270" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId271" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId272" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId273" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId274" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId275" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId276" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId277" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId278" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId279" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId280" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId281" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId282" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId283" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId284" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId285" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId286" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId287" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId288" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId289" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId290" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId291" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId292" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId293" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId294" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId295" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId296" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId297" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId298" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId299" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId300" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId301" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId302" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId303" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId304" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId305" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId306" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId307" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId308" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId309" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId310" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId311" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId312" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId313" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId314" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId315" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId316" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId317" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId318" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId319" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId320" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId321" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId322" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId323" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId324" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId325" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId326" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId327" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId328" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId329" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId330" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId331" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId332" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId333" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId334" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId335" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId336" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId337" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId338" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId339" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId340" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId341" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId342" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId343" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId344" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId345" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId346" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId347" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId348" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId349" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId350" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId351" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId352" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId353" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId354" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId355" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId356" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId357" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId358" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId359" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId360" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId361" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId362" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId363" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId364" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId365" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId366" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId367" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId368" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId369" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId370" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId371" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId372" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId373" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId374" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId375" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId376" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId377" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId378" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId379" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId380" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId381" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId382" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId383" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId384" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId385" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId386" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId387" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId388" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId389" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId390" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId391" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId392" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId393" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId394" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId395" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId396" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId397" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId398" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId399" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId400" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId401" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId402" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId403" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId404" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId405" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId406" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId407" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId408" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId409" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId410" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId411" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId412" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId413" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId414" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId415" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId416" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId417" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId418" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId419" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId420" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId421" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId422" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId423" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId424" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId425" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId426" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId427" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId428" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId429" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId430" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId431" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId432" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId433" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId434" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId435" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId436" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId437" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId438" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId439" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId440" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId441" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId442" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId443" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId444" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId445" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId446" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId447" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId448" display="Power Set"/>
+    <hyperlink ref="D56" r:id="rId51" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/reverseString.cpp"/>
+    <hyperlink ref="B57" r:id="rId52" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="D57" r:id="rId53" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/palindromeString.cpp"/>
+    <hyperlink ref="B58" r:id="rId54" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="B60" r:id="rId55" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId56" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId57" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId58" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId59" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId60" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId61" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId62" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId63" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId64" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId65" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId66" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId67" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId68" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId69" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId70" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId71" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId72" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId73" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId74" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId75" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId76" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId77" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId78" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId79" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId80" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId81" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId82" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId83" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId84" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId85" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId86" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId87" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId88" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId89" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId90" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId91" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId92" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId93" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId94" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId95" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId96" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId97" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId98" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId99" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId100" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId101" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId102" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId103" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId104" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId105" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId106" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId107" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId108" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId109" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId110" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId111" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId112" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId113" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId114" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId115" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId116" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId117" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId118" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId119" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId120" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId121" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId122" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId123" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId124" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId125" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId126" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId127" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId128" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId129" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId130" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId131" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId132" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId133" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId134" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId135" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId136" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId137" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId138" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId139" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId140" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId141" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId142" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId143" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId144" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId145" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId146" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId147" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId148" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId149" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId150" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId151" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId152" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId153" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId154" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId155" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId156" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId157" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId158" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId159" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId160" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId161" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId162" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId163" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId164" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId165" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId166" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId167" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId168" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId169" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId170" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId171" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId172" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId173" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId174" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId175" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId176" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId177" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId178" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId179" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId180" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId181" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId182" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId183" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId184" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId185" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId186" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId187" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId188" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId189" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId190" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId191" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId192" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId193" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId194" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId195" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId196" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId197" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId198" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId199" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId200" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId201" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId202" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId203" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId204" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId205" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId206" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId207" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId208" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId209" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId210" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId211" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId212" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId213" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId214" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId215" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId216" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId217" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId218" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId219" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId220" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId221" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId222" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId223" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId224" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId225" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId226" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId227" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId228" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId229" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId230" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId231" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId232" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId233" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId234" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId235" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId236" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId237" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId238" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId239" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId240" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId241" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId242" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId243" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId244" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId245" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId246" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId247" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId248" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId249" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId250" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId251" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId252" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId253" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId254" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId255" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId256" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId257" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId258" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId259" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId260" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId261" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId262" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId263" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId264" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId265" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId266" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId267" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId268" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId269" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId270" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId271" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId272" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId273" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId274" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId275" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId276" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId277" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId278" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId279" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId280" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId281" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId282" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId283" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId284" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId285" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId286" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId287" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId288" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId289" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId290" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId291" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId292" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId293" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId294" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId295" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId296" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId297" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId298" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId299" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId300" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId301" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId302" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId303" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId304" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId305" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId306" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId307" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId308" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId309" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId310" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId311" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId312" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId313" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId314" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId315" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId316" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId317" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId318" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId319" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId320" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId321" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId322" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId323" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId324" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId325" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId326" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId327" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId328" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId329" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId330" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId331" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId332" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId333" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId334" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId335" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId336" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId337" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId338" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId339" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId340" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId341" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId342" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId343" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId344" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId345" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId346" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId347" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId348" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId349" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId350" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId351" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId352" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId353" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId354" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId355" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId356" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId357" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId358" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId359" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId360" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId361" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId362" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId363" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId364" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId365" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId366" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId367" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId368" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId369" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId370" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId371" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId372" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId373" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId374" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId375" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId376" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId377" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId378" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId379" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId380" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId381" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId382" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId383" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId384" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId385" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId386" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId387" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId388" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId389" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId390" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId391" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId392" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId393" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId394" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId395" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId396" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId397" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId398" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId399" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId400" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId401" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId402" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId403" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId404" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId405" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId406" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId407" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId408" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId409" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId410" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId411" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId412" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId413" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId414" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId415" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId416" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId417" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId418" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId419" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId420" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId421" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId422" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId423" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId424" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId425" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId426" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId427" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId428" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId429" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId430" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId431" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId432" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId433" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId434" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId435" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId436" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId437" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId438" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId439" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId440" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId441" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId442" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId443" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId444" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId445" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId446" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId447" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId448" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId449" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId450" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FINAL500.xlsx
+++ b/FINAL500.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1365" uniqueCount="478">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="480">
   <si>
     <t xml:space="preserve">Questions for Tech Interview</t>
   </si>
@@ -233,6 +233,12 @@
   </si>
   <si>
     <t xml:space="preserve">Find Duplicate characters in a string</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/noOfDuplicateInString.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">---</t>
   </si>
   <si>
     <t xml:space="preserve">Why strings are immutable in Java?</t>
@@ -1713,16 +1719,16 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A48" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E57" activeCellId="0" sqref="E57"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.51953125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="85.43"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="90.37"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="23.8"/>
   </cols>
   <sheetData>
@@ -2335,7 +2341,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
         <v>63</v>
       </c>
@@ -2343,7 +2349,13 @@
         <v>70</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D58" s="0" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="0" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2351,7 +2363,7 @@
         <v>63</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>18</v>
@@ -2362,7 +2374,7 @@
         <v>63</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>18</v>
@@ -2373,7 +2385,7 @@
         <v>63</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>18</v>
@@ -2384,7 +2396,7 @@
         <v>63</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>18</v>
@@ -2395,7 +2407,7 @@
         <v>63</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>18</v>
@@ -2406,7 +2418,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>18</v>
@@ -2417,7 +2429,7 @@
         <v>63</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>18</v>
@@ -2428,7 +2440,7 @@
         <v>63</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>18</v>
@@ -2439,7 +2451,7 @@
         <v>63</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>18</v>
@@ -2450,7 +2462,7 @@
         <v>63</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>18</v>
@@ -2461,7 +2473,7 @@
         <v>63</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>18</v>
@@ -2472,7 +2484,7 @@
         <v>63</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>18</v>
@@ -2483,7 +2495,7 @@
         <v>63</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>18</v>
@@ -2494,7 +2506,7 @@
         <v>63</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>18</v>
@@ -2505,7 +2517,7 @@
         <v>63</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>18</v>
@@ -2516,7 +2528,7 @@
         <v>63</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>18</v>
@@ -2527,7 +2539,7 @@
         <v>63</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>18</v>
@@ -2538,7 +2550,7 @@
         <v>63</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>18</v>
@@ -2549,7 +2561,7 @@
         <v>63</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>18</v>
@@ -2560,7 +2572,7 @@
         <v>63</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -2571,7 +2583,7 @@
         <v>63</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>18</v>
@@ -2582,7 +2594,7 @@
         <v>63</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>18</v>
@@ -2593,7 +2605,7 @@
         <v>63</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>18</v>
@@ -2604,7 +2616,7 @@
         <v>63</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>18</v>
@@ -2615,7 +2627,7 @@
         <v>63</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>18</v>
@@ -2626,7 +2638,7 @@
         <v>63</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>18</v>
@@ -2637,7 +2649,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>18</v>
@@ -2648,7 +2660,7 @@
         <v>63</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>18</v>
@@ -2659,7 +2671,7 @@
         <v>63</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>18</v>
@@ -2670,7 +2682,7 @@
         <v>63</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>18</v>
@@ -2681,7 +2693,7 @@
         <v>63</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>18</v>
@@ -2692,7 +2704,7 @@
         <v>63</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>18</v>
@@ -2703,7 +2715,7 @@
         <v>63</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>18</v>
@@ -2714,7 +2726,7 @@
         <v>63</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>18</v>
@@ -2725,7 +2737,7 @@
         <v>63</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>18</v>
@@ -2736,7 +2748,7 @@
         <v>63</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>18</v>
@@ -2747,7 +2759,7 @@
         <v>63</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>18</v>
@@ -2758,7 +2770,7 @@
         <v>63</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>18</v>
@@ -2769,7 +2781,7 @@
         <v>63</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>18</v>
@@ -2780,7 +2792,7 @@
         <v>63</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>18</v>
@@ -2793,10 +2805,10 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>18</v>
@@ -2804,10 +2816,10 @@
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>18</v>
@@ -2815,10 +2827,10 @@
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>18</v>
@@ -2826,10 +2838,10 @@
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>18</v>
@@ -2837,10 +2849,10 @@
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>18</v>
@@ -2848,10 +2860,10 @@
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>18</v>
@@ -2859,10 +2871,10 @@
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>18</v>
@@ -2870,10 +2882,10 @@
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>18</v>
@@ -2881,10 +2893,10 @@
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>18</v>
@@ -2892,10 +2904,10 @@
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>18</v>
@@ -2903,10 +2915,10 @@
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>18</v>
@@ -2914,10 +2926,10 @@
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>18</v>
@@ -2925,10 +2937,10 @@
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>18</v>
@@ -2936,10 +2948,10 @@
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>18</v>
@@ -2947,10 +2959,10 @@
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>18</v>
@@ -2958,10 +2970,10 @@
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>18</v>
@@ -2969,10 +2981,10 @@
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>18</v>
@@ -2980,10 +2992,10 @@
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>18</v>
@@ -2991,10 +3003,10 @@
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>18</v>
@@ -3002,10 +3014,10 @@
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>18</v>
@@ -3013,10 +3025,10 @@
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>18</v>
@@ -3024,10 +3036,10 @@
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>18</v>
@@ -3035,10 +3047,10 @@
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>18</v>
@@ -3046,10 +3058,10 @@
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>18</v>
@@ -3057,10 +3069,10 @@
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>18</v>
@@ -3068,10 +3080,10 @@
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>18</v>
@@ -3079,10 +3091,10 @@
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>18</v>
@@ -3090,10 +3102,10 @@
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>18</v>
@@ -3101,10 +3113,10 @@
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>18</v>
@@ -3112,10 +3124,10 @@
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>18</v>
@@ -3123,10 +3135,10 @@
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>18</v>
@@ -3134,10 +3146,10 @@
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>18</v>
@@ -3145,10 +3157,10 @@
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>18</v>
@@ -3156,10 +3168,10 @@
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>18</v>
@@ -3167,10 +3179,10 @@
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>18</v>
@@ -3178,10 +3190,10 @@
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>18</v>
@@ -3193,10 +3205,10 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>18</v>
@@ -3204,10 +3216,10 @@
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>18</v>
@@ -3215,10 +3227,10 @@
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>18</v>
@@ -3226,10 +3238,10 @@
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>18</v>
@@ -3237,10 +3249,10 @@
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>18</v>
@@ -3248,10 +3260,10 @@
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>18</v>
@@ -3259,10 +3271,10 @@
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>18</v>
@@ -3270,10 +3282,10 @@
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>18</v>
@@ -3281,10 +3293,10 @@
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>18</v>
@@ -3292,10 +3304,10 @@
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>18</v>
@@ -3303,10 +3315,10 @@
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>18</v>
@@ -3314,10 +3326,10 @@
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>18</v>
@@ -3325,10 +3337,10 @@
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>18</v>
@@ -3336,10 +3348,10 @@
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>18</v>
@@ -3347,10 +3359,10 @@
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>18</v>
@@ -3358,10 +3370,10 @@
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>18</v>
@@ -3369,10 +3381,10 @@
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>18</v>
@@ -3380,10 +3392,10 @@
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>18</v>
@@ -3391,10 +3403,10 @@
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>18</v>
@@ -3402,10 +3414,10 @@
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>18</v>
@@ -3413,10 +3425,10 @@
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>18</v>
@@ -3424,10 +3436,10 @@
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>18</v>
@@ -3435,10 +3447,10 @@
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>18</v>
@@ -3446,10 +3458,10 @@
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>18</v>
@@ -3457,10 +3469,10 @@
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>18</v>
@@ -3468,10 +3480,10 @@
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>18</v>
@@ -3479,10 +3491,10 @@
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>18</v>
@@ -3490,10 +3502,10 @@
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>18</v>
@@ -3501,10 +3513,10 @@
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>18</v>
@@ -3512,10 +3524,10 @@
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>18</v>
@@ -3523,10 +3535,10 @@
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>18</v>
@@ -3534,10 +3546,10 @@
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>18</v>
@@ -3545,10 +3557,10 @@
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>18</v>
@@ -3556,10 +3568,10 @@
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>18</v>
@@ -3567,10 +3579,10 @@
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>18</v>
@@ -3578,10 +3590,10 @@
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>18</v>
@@ -3593,10 +3605,10 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>18</v>
@@ -3604,10 +3616,10 @@
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>18</v>
@@ -3615,10 +3627,10 @@
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>18</v>
@@ -3626,10 +3638,10 @@
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>18</v>
@@ -3637,10 +3649,10 @@
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>18</v>
@@ -3648,10 +3660,10 @@
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>18</v>
@@ -3659,10 +3671,10 @@
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>18</v>
@@ -3670,10 +3682,10 @@
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>18</v>
@@ -3681,10 +3693,10 @@
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>18</v>
@@ -3692,10 +3704,10 @@
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>18</v>
@@ -3703,10 +3715,10 @@
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>18</v>
@@ -3714,10 +3726,10 @@
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>18</v>
@@ -3725,10 +3737,10 @@
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>18</v>
@@ -3736,10 +3748,10 @@
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>18</v>
@@ -3747,10 +3759,10 @@
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>18</v>
@@ -3758,10 +3770,10 @@
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>18</v>
@@ -3769,10 +3781,10 @@
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>18</v>
@@ -3780,10 +3792,10 @@
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>18</v>
@@ -3791,10 +3803,10 @@
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>18</v>
@@ -3802,10 +3814,10 @@
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>18</v>
@@ -3813,10 +3825,10 @@
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>18</v>
@@ -3824,10 +3836,10 @@
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>18</v>
@@ -3835,10 +3847,10 @@
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>18</v>
@@ -3846,10 +3858,10 @@
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>18</v>
@@ -3857,10 +3869,10 @@
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>18</v>
@@ -3868,10 +3880,10 @@
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>18</v>
@@ -3879,10 +3891,10 @@
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>18</v>
@@ -3890,10 +3902,10 @@
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>18</v>
@@ -3901,10 +3913,10 @@
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>18</v>
@@ -3912,10 +3924,10 @@
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>18</v>
@@ -3923,10 +3935,10 @@
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>18</v>
@@ -3934,10 +3946,10 @@
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>18</v>
@@ -3945,10 +3957,10 @@
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>18</v>
@@ -3956,10 +3968,10 @@
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>18</v>
@@ -3967,10 +3979,10 @@
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>18</v>
@@ -3988,10 +4000,10 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>18</v>
@@ -3999,10 +4011,10 @@
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>18</v>
@@ -4010,10 +4022,10 @@
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>18</v>
@@ -4021,10 +4033,10 @@
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>18</v>
@@ -4032,10 +4044,10 @@
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>18</v>
@@ -4043,10 +4055,10 @@
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>18</v>
@@ -4054,10 +4066,10 @@
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>18</v>
@@ -4065,10 +4077,10 @@
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>18</v>
@@ -4076,10 +4088,10 @@
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>18</v>
@@ -4087,10 +4099,10 @@
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>18</v>
@@ -4098,10 +4110,10 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>18</v>
@@ -4109,10 +4121,10 @@
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>18</v>
@@ -4120,10 +4132,10 @@
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>18</v>
@@ -4131,10 +4143,10 @@
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>18</v>
@@ -4142,10 +4154,10 @@
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>18</v>
@@ -4153,10 +4165,10 @@
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>18</v>
@@ -4164,10 +4176,10 @@
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>18</v>
@@ -4175,10 +4187,10 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>18</v>
@@ -4186,10 +4198,10 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>18</v>
@@ -4197,10 +4209,10 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>18</v>
@@ -4208,10 +4220,10 @@
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>18</v>
@@ -4219,10 +4231,10 @@
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>18</v>
@@ -4238,10 +4250,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>18</v>
@@ -4249,10 +4261,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>18</v>
@@ -4260,10 +4272,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>18</v>
@@ -4271,10 +4283,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>18</v>
@@ -4282,10 +4294,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>18</v>
@@ -4293,10 +4305,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>18</v>
@@ -4304,10 +4316,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>18</v>
@@ -4315,10 +4327,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>18</v>
@@ -4326,10 +4338,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>18</v>
@@ -4337,10 +4349,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>18</v>
@@ -4348,10 +4360,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>18</v>
@@ -4359,10 +4371,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>18</v>
@@ -4370,10 +4382,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>18</v>
@@ -4381,10 +4393,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>18</v>
@@ -4392,10 +4404,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>18</v>
@@ -4403,10 +4415,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>18</v>
@@ -4414,10 +4426,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>18</v>
@@ -4425,10 +4437,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>18</v>
@@ -4436,10 +4448,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>18</v>
@@ -4447,10 +4459,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>18</v>
@@ -4458,10 +4470,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>18</v>
@@ -4469,10 +4481,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>18</v>
@@ -4480,10 +4492,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>18</v>
@@ -4491,10 +4503,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>18</v>
@@ -4502,10 +4514,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>18</v>
@@ -4513,10 +4525,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>18</v>
@@ -4524,10 +4536,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>18</v>
@@ -4535,10 +4547,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>18</v>
@@ -4546,10 +4558,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>18</v>
@@ -4557,10 +4569,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>18</v>
@@ -4568,10 +4580,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>18</v>
@@ -4579,10 +4591,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>18</v>
@@ -4590,10 +4602,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>18</v>
@@ -4601,10 +4613,10 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>18</v>
@@ -4612,10 +4624,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>18</v>
@@ -4631,10 +4643,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>18</v>
@@ -4642,10 +4654,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>18</v>
@@ -4653,10 +4665,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>18</v>
@@ -4664,10 +4676,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>18</v>
@@ -4675,10 +4687,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>18</v>
@@ -4686,10 +4698,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>18</v>
@@ -4697,10 +4709,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>18</v>
@@ -4708,10 +4720,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>18</v>
@@ -4719,10 +4731,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>18</v>
@@ -4730,10 +4742,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>18</v>
@@ -4741,10 +4753,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>18</v>
@@ -4752,10 +4764,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>18</v>
@@ -4763,10 +4775,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>18</v>
@@ -4774,10 +4786,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>18</v>
@@ -4785,10 +4797,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>18</v>
@@ -4796,10 +4808,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>18</v>
@@ -4807,10 +4819,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>18</v>
@@ -4818,10 +4830,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>18</v>
@@ -4829,10 +4841,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>18</v>
@@ -4848,10 +4860,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>18</v>
@@ -4859,10 +4871,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>18</v>
@@ -4870,10 +4882,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>18</v>
@@ -4881,10 +4893,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>18</v>
@@ -4892,10 +4904,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>18</v>
@@ -4903,10 +4915,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>18</v>
@@ -4914,10 +4926,10 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>18</v>
@@ -4925,10 +4937,10 @@
     </row>
     <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C303" s="6" t="s">
         <v>18</v>
@@ -4936,10 +4948,10 @@
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>18</v>
@@ -4947,10 +4959,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>18</v>
@@ -4958,10 +4970,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>18</v>
@@ -4969,10 +4981,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>18</v>
@@ -4980,10 +4992,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>18</v>
@@ -4991,10 +5003,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>18</v>
@@ -5002,10 +5014,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>18</v>
@@ -5013,10 +5025,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>18</v>
@@ -5024,10 +5036,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>18</v>
@@ -5035,10 +5047,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>18</v>
@@ -5046,10 +5058,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>18</v>
@@ -5057,10 +5069,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>18</v>
@@ -5068,10 +5080,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>18</v>
@@ -5079,10 +5091,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>18</v>
@@ -5090,10 +5102,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>18</v>
@@ -5101,10 +5113,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>18</v>
@@ -5112,10 +5124,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>18</v>
@@ -5123,10 +5135,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>18</v>
@@ -5134,10 +5146,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>18</v>
@@ -5145,10 +5157,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>18</v>
@@ -5156,10 +5168,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>18</v>
@@ -5167,10 +5179,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>18</v>
@@ -5178,10 +5190,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>18</v>
@@ -5189,10 +5201,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>18</v>
@@ -5200,10 +5212,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>18</v>
@@ -5211,10 +5223,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>18</v>
@@ -5222,10 +5234,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>18</v>
@@ -5233,10 +5245,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>18</v>
@@ -5244,10 +5256,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>18</v>
@@ -5255,10 +5267,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>18</v>
@@ -5274,10 +5286,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>18</v>
@@ -5285,10 +5297,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>18</v>
@@ -5296,10 +5308,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>18</v>
@@ -5307,10 +5319,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>18</v>
@@ -5318,10 +5330,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>18</v>
@@ -5329,10 +5341,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>18</v>
@@ -5340,10 +5352,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>18</v>
@@ -5351,10 +5363,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>18</v>
@@ -5362,10 +5374,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>18</v>
@@ -5373,10 +5385,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>18</v>
@@ -5384,10 +5396,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>18</v>
@@ -5395,10 +5407,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>18</v>
@@ -5406,10 +5418,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>18</v>
@@ -5417,10 +5429,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>18</v>
@@ -5428,10 +5440,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>18</v>
@@ -5439,10 +5451,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>18</v>
@@ -5450,10 +5462,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>18</v>
@@ -5461,10 +5473,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>18</v>
@@ -5480,10 +5492,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>18</v>
@@ -5491,10 +5503,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>18</v>
@@ -5502,10 +5514,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>18</v>
@@ -5513,10 +5525,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>18</v>
@@ -5524,10 +5536,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>18</v>
@@ -5535,10 +5547,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>18</v>
@@ -5546,10 +5558,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>18</v>
@@ -5557,10 +5569,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>18</v>
@@ -5568,10 +5580,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>18</v>
@@ -5579,10 +5591,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>18</v>
@@ -5590,10 +5602,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>18</v>
@@ -5601,10 +5613,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>18</v>
@@ -5612,10 +5624,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>18</v>
@@ -5623,10 +5635,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>18</v>
@@ -5634,10 +5646,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>18</v>
@@ -5645,10 +5657,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>18</v>
@@ -5656,10 +5668,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>18</v>
@@ -5667,10 +5679,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>18</v>
@@ -5678,10 +5690,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>18</v>
@@ -5689,10 +5701,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>18</v>
@@ -5700,10 +5712,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>18</v>
@@ -5711,10 +5723,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>18</v>
@@ -5722,10 +5734,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>18</v>
@@ -5733,10 +5745,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>18</v>
@@ -5744,10 +5756,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>18</v>
@@ -5755,10 +5767,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>18</v>
@@ -5766,10 +5778,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>18</v>
@@ -5777,10 +5789,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>18</v>
@@ -5788,10 +5800,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>18</v>
@@ -5799,10 +5811,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>18</v>
@@ -5810,10 +5822,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>18</v>
@@ -5821,10 +5833,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>18</v>
@@ -5832,10 +5844,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>18</v>
@@ -5843,10 +5855,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>18</v>
@@ -5854,10 +5866,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>18</v>
@@ -5865,10 +5877,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>18</v>
@@ -5876,10 +5888,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>18</v>
@@ -5887,10 +5899,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>18</v>
@@ -5898,10 +5910,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>18</v>
@@ -5909,10 +5921,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>18</v>
@@ -5920,10 +5932,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>18</v>
@@ -5931,10 +5943,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>18</v>
@@ -5942,10 +5954,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>18</v>
@@ -5953,10 +5965,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>18</v>
@@ -5972,10 +5984,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>18</v>
@@ -5983,10 +5995,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>18</v>
@@ -5994,10 +6006,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>18</v>
@@ -6005,10 +6017,10 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>18</v>
@@ -6016,10 +6028,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>18</v>
@@ -6027,10 +6039,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>18</v>
@@ -6046,10 +6058,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>18</v>
@@ -6057,10 +6069,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>18</v>
@@ -6068,10 +6080,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>18</v>
@@ -6079,10 +6091,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>18</v>
@@ -6090,10 +6102,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>18</v>
@@ -6101,10 +6113,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>18</v>
@@ -6112,10 +6124,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>18</v>
@@ -6123,10 +6135,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>18</v>
@@ -6134,10 +6146,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>18</v>
@@ -6145,10 +6157,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>18</v>
@@ -6156,10 +6168,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>18</v>
@@ -6167,10 +6179,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>18</v>
@@ -6178,10 +6190,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>18</v>
@@ -6189,10 +6201,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>18</v>
@@ -6200,10 +6212,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>18</v>
@@ -6211,10 +6223,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>18</v>
@@ -6222,10 +6234,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>18</v>
@@ -6233,10 +6245,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>18</v>
@@ -6244,10 +6256,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>18</v>
@@ -6255,10 +6267,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>18</v>
@@ -6266,10 +6278,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>18</v>
@@ -6277,10 +6289,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>18</v>
@@ -6288,10 +6300,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>18</v>
@@ -6299,10 +6311,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>18</v>
@@ -6310,10 +6322,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>18</v>
@@ -6321,10 +6333,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>18</v>
@@ -6332,10 +6344,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>18</v>
@@ -6343,10 +6355,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>18</v>
@@ -6354,10 +6366,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>18</v>
@@ -6365,10 +6377,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>18</v>
@@ -6376,10 +6388,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>18</v>
@@ -6387,10 +6399,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>18</v>
@@ -6398,10 +6410,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>18</v>
@@ -6409,10 +6421,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>18</v>
@@ -6420,10 +6432,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>18</v>
@@ -6431,10 +6443,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>18</v>
@@ -6442,10 +6454,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>18</v>
@@ -6453,10 +6465,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>18</v>
@@ -6464,10 +6476,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>18</v>
@@ -6475,10 +6487,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>18</v>
@@ -6486,10 +6498,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>18</v>
@@ -6497,10 +6509,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>18</v>
@@ -6508,10 +6520,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>18</v>
@@ -6519,10 +6531,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>18</v>
@@ -6530,10 +6542,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>18</v>
@@ -6541,10 +6553,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>18</v>
@@ -6552,10 +6564,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>18</v>
@@ -6563,10 +6575,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>18</v>
@@ -6574,10 +6586,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>18</v>
@@ -6585,10 +6597,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>18</v>
@@ -6596,10 +6608,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>18</v>
@@ -6607,10 +6619,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>18</v>
@@ -6618,10 +6630,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>18</v>
@@ -6629,10 +6641,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>18</v>
@@ -6640,10 +6652,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>18</v>
@@ -6651,10 +6663,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>18</v>
@@ -6662,10 +6674,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>18</v>
@@ -6673,10 +6685,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>18</v>
@@ -6684,10 +6696,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>18</v>
@@ -6695,10 +6707,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>18</v>
@@ -6715,10 +6727,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>18</v>
@@ -6726,10 +6738,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>18</v>
@@ -6737,10 +6749,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>18</v>
@@ -6748,10 +6760,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>18</v>
@@ -6759,10 +6771,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>18</v>
@@ -6770,10 +6782,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>18</v>
@@ -6781,10 +6793,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>18</v>
@@ -6792,10 +6804,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>18</v>
@@ -6803,10 +6815,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>18</v>
@@ -6814,10 +6826,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>18</v>
@@ -6879,402 +6891,403 @@
     <hyperlink ref="B57" r:id="rId52" display="Check whether a String is Palindrome or not"/>
     <hyperlink ref="D57" r:id="rId53" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/palindromeString.cpp"/>
     <hyperlink ref="B58" r:id="rId54" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="B60" r:id="rId55" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId56" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId57" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId58" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId59" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId60" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId61" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId62" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId63" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId64" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId65" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId66" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId67" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId68" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId69" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId70" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId71" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId72" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId73" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId74" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId75" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId76" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId77" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId78" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId79" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId80" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId81" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId82" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId83" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId84" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId85" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId86" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId87" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId88" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId89" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId90" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId91" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId92" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId93" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId94" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId95" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId96" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId97" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId98" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId99" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId100" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId101" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId102" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId103" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId104" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId105" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId106" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId107" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId108" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId109" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId110" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId111" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId112" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId113" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId114" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId115" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId116" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId117" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId118" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId119" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId120" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId121" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId122" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId123" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId124" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId125" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId126" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId127" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId128" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId129" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId130" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId131" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId132" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId133" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId134" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId135" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId136" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId137" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId138" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId139" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId140" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId141" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId142" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId143" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId144" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId145" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId146" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId147" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId148" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId149" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId150" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId151" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId152" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId153" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId154" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId155" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId156" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId157" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId158" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId159" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId160" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId161" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId162" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId163" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId164" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId165" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId166" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId167" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId168" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId169" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId170" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId171" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId172" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId173" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId174" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId175" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId176" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId177" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId178" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId179" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId180" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId181" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId182" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId183" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId184" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId185" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId186" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId187" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId188" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId189" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId190" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId191" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId192" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId193" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId194" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId195" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId196" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId197" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId198" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId199" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId200" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId201" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId202" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId203" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId204" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId205" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId206" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId207" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId208" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId209" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId210" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId211" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId212" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId213" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId214" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId215" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId216" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId217" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId218" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId219" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId220" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId221" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId222" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId223" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId224" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId225" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId226" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId227" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId228" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId229" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId230" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId231" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId232" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId233" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId234" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId235" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId236" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId237" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId238" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId239" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId240" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId241" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId242" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId243" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId244" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId245" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId246" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId247" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId248" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId249" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId250" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId251" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId252" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId253" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId254" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId255" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId256" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId257" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId258" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId259" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId260" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId261" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId262" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId263" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId264" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId265" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId266" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId267" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId268" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId269" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId270" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId271" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId272" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId273" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId274" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId275" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId276" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId277" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId278" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId279" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId280" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId281" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId282" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId283" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId284" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId285" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId286" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId287" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId288" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId289" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId290" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId291" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId292" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId293" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId294" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId295" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId296" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId297" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId298" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId299" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId300" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId301" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId302" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId303" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId304" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId305" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId306" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId307" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId308" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId309" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId310" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId311" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId312" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId313" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId314" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId315" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId316" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId317" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId318" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId319" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId320" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId321" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId322" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId323" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId324" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId325" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId326" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId327" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId328" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId329" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId330" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId331" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId332" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId333" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId334" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId335" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId336" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId337" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId338" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId339" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId340" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId341" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId342" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId343" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId344" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId345" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId346" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId347" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId348" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId349" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId350" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId351" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId352" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId353" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId354" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId355" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId356" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId357" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId358" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId359" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId360" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId361" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId362" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId363" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId364" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId365" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId366" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId367" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId368" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId369" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId370" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId371" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId372" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId373" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId374" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId375" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId376" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId377" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId378" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId379" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId380" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId381" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId382" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId383" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId384" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId385" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId386" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId387" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId388" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId389" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId390" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId391" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId392" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId393" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId394" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId395" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId396" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId397" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId398" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId399" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId400" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId401" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId402" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId403" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId404" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId405" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId406" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId407" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId408" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId409" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId410" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId411" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId412" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId413" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId414" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId415" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId416" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId417" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId418" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId419" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId420" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId421" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId422" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId423" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId424" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId425" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId426" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId427" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId428" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId429" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId430" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId431" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId432" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId433" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId434" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId435" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId436" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId437" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId438" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId439" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId440" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId441" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId442" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId443" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId444" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId445" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId446" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId447" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId448" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId449" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId450" display="Power Set"/>
+    <hyperlink ref="D58" r:id="rId55" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/noOfDuplicateInString.cpp"/>
+    <hyperlink ref="B60" r:id="rId56" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId57" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId58" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId59" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId60" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId61" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId62" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId63" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId64" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId65" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId66" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId67" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId68" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId69" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId70" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId71" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId72" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId73" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId74" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId75" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId76" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId77" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId78" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId79" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId80" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId81" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId82" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId83" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId84" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId85" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId86" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId87" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId88" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId89" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId90" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId91" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId92" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId93" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId94" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId95" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId96" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId97" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId98" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId99" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId100" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId101" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId102" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId103" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId104" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId105" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId106" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId107" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId108" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId109" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId110" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId111" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId112" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId113" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId114" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId115" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId116" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId117" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId118" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId119" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId120" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId121" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId122" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId123" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId124" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId125" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId126" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId127" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId128" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId129" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId130" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId131" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId132" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId133" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId134" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId135" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId136" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId137" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId138" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId139" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId140" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId141" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId142" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId143" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId144" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId145" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId146" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId147" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId148" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId149" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId150" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId151" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId152" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId153" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId154" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId155" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId156" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId157" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId158" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId159" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId160" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId161" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId162" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId163" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId164" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId165" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId166" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId167" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId168" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId169" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId170" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId171" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId172" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId173" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId174" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId175" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId176" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId177" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId178" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId179" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId180" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId181" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId182" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId183" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId184" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId185" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId186" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId187" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId188" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId189" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId190" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId191" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId192" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId193" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId194" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId195" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId196" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId197" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId198" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId199" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId200" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId201" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId202" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId203" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId204" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId205" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId206" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId207" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId208" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId209" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId210" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId211" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId212" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId213" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId214" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId215" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId216" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId217" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId218" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId219" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId220" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId221" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId222" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId223" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId224" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId225" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId226" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId227" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId228" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId229" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId230" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId231" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId232" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId233" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId234" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId235" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId236" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId237" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId238" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId239" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId240" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId241" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId242" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId243" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId244" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId245" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId246" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId247" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId248" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId249" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId250" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId251" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId252" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId253" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId254" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId255" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId256" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId257" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId258" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId259" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId260" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId261" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId262" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId263" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId264" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId265" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId266" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId267" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId268" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId269" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId270" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId271" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId272" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId273" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId274" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId275" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId276" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId277" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId278" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId279" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId280" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId281" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId282" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId283" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="B304" r:id="rId284" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId285" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId286" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId287" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId288" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId289" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId290" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId291" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId292" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId293" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId294" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId295" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId296" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId297" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId298" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId299" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId300" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId301" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId302" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId303" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId304" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId305" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId306" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId307" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId308" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId309" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId310" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId311" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId312" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId313" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId314" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId315" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId316" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId317" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId318" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId319" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId320" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId321" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId322" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId323" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId324" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId325" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId326" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId327" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId328" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId329" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId330" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId331" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId332" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId333" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId334" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId335" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId336" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId337" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId338" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId339" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId340" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId341" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId342" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId343" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId344" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId345" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId346" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId347" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId348" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId349" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId350" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId351" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId352" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId353" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId354" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId355" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId356" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId357" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId358" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId359" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId360" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId361" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId362" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId363" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId364" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId365" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId366" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId367" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId368" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId369" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId370" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId371" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId372" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId373" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId374" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId375" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId376" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId377" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId378" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId379" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId380" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId381" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId382" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId383" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId384" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId385" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId386" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId387" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId388" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId389" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId390" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId391" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId392" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId393" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId394" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId395" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId396" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId397" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId398" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId399" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId400" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId401" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId402" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId403" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId404" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId405" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId406" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId407" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId408" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId409" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId410" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId411" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId412" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId413" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId414" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId415" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId416" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId417" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId418" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId419" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId420" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId421" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId422" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId423" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId424" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId425" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId426" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId427" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId428" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId429" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId430" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId431" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId432" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId433" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId434" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId435" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId436" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId437" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId438" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId439" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId440" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId441" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId442" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId443" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId444" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId445" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId446" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId447" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId448" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId449" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId450" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId451" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/FINAL500.xlsx
+++ b/FINAL500.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1367" uniqueCount="480">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="484">
   <si>
     <t xml:space="preserve">Questions for Tech Interview</t>
   </si>
@@ -178,6 +178,15 @@
     <t xml:space="preserve">Median of 2 sorted arrays of different size</t>
   </si>
   <si>
+    <t xml:space="preserve">Find All Duplicates in an Array (leetcode)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/findAllDuplicatesInAnArray.cpp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">space can be reduced to O(1)</t>
+  </si>
+  <si>
     <t xml:space="preserve">Matrix</t>
   </si>
   <si>
@@ -950,6 +959,9 @@
   </si>
   <si>
     <t xml:space="preserve">Design a Stack that supports getMin() in O(1) time and O(1) extra space.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/minStack.cpp</t>
   </si>
   <si>
     <t xml:space="preserve">Find the next Greater element</t>
@@ -1719,11 +1731,11 @@
   </sheetPr>
   <dimension ref="A1:E481"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A46" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E58" activeCellId="0" sqref="E58"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C292" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D300" activeCellId="0" sqref="D300"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5234375" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.53125" defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="28.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="123"/>
@@ -2179,10 +2191,21 @@
         <v>18</v>
       </c>
     </row>
-    <row r="42" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B42" s="9"/>
+    <row r="42" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>52</v>
+      </c>
       <c r="C42" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D42" s="0" t="s">
+        <v>53</v>
+      </c>
+      <c r="E42" s="0" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2194,10 +2217,10 @@
     </row>
     <row r="44" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="C44" s="6" t="s">
         <v>18</v>
@@ -2205,10 +2228,10 @@
     </row>
     <row r="45" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C45" s="6" t="s">
         <v>18</v>
@@ -2216,10 +2239,10 @@
     </row>
     <row r="46" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="C46" s="6" t="s">
         <v>18</v>
@@ -2227,10 +2250,10 @@
     </row>
     <row r="47" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C47" s="6" t="s">
         <v>18</v>
@@ -2238,10 +2261,10 @@
     </row>
     <row r="48" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C48" s="6" t="s">
         <v>18</v>
@@ -2249,10 +2272,10 @@
     </row>
     <row r="49" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C49" s="6" t="s">
         <v>18</v>
@@ -2260,10 +2283,10 @@
     </row>
     <row r="50" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C50" s="6" t="s">
         <v>18</v>
@@ -2271,10 +2294,10 @@
     </row>
     <row r="51" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>18</v>
@@ -2282,10 +2305,10 @@
     </row>
     <row r="52" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>18</v>
@@ -2293,10 +2316,10 @@
     </row>
     <row r="53" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="7" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>18</v>
@@ -2309,61 +2332,61 @@
     </row>
     <row r="56" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D56" s="0" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E56" s="0" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D57" s="0" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="E57" s="0" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C58" s="6" t="s">
         <v>8</v>
       </c>
       <c r="D58" s="0" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="E58" s="0" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B59" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C59" s="6" t="s">
         <v>18</v>
@@ -2371,10 +2394,10 @@
     </row>
     <row r="60" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C60" s="6" t="s">
         <v>18</v>
@@ -2382,10 +2405,10 @@
     </row>
     <row r="61" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C61" s="6" t="s">
         <v>18</v>
@@ -2393,10 +2416,10 @@
     </row>
     <row r="62" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="C62" s="6" t="s">
         <v>18</v>
@@ -2404,10 +2427,10 @@
     </row>
     <row r="63" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>18</v>
@@ -2415,10 +2438,10 @@
     </row>
     <row r="64" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C64" s="6" t="s">
         <v>18</v>
@@ -2426,10 +2449,10 @@
     </row>
     <row r="65" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="C65" s="6" t="s">
         <v>18</v>
@@ -2437,10 +2460,10 @@
     </row>
     <row r="66" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="C66" s="6" t="s">
         <v>18</v>
@@ -2448,10 +2471,10 @@
     </row>
     <row r="67" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>18</v>
@@ -2459,10 +2482,10 @@
     </row>
     <row r="68" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>18</v>
@@ -2470,10 +2493,10 @@
     </row>
     <row r="69" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>18</v>
@@ -2481,10 +2504,10 @@
     </row>
     <row r="70" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>18</v>
@@ -2492,10 +2515,10 @@
     </row>
     <row r="71" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="C71" s="6" t="s">
         <v>18</v>
@@ -2503,10 +2526,10 @@
     </row>
     <row r="72" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C72" s="6" t="s">
         <v>18</v>
@@ -2514,10 +2537,10 @@
     </row>
     <row r="73" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="C73" s="6" t="s">
         <v>18</v>
@@ -2525,10 +2548,10 @@
     </row>
     <row r="74" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C74" s="6" t="s">
         <v>18</v>
@@ -2536,10 +2559,10 @@
     </row>
     <row r="75" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C75" s="6" t="s">
         <v>18</v>
@@ -2547,10 +2570,10 @@
     </row>
     <row r="76" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>18</v>
@@ -2558,10 +2581,10 @@
     </row>
     <row r="77" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A77" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C77" s="6" t="s">
         <v>18</v>
@@ -2569,10 +2592,10 @@
     </row>
     <row r="78" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A78" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C78" s="6" t="s">
         <v>18</v>
@@ -2580,10 +2603,10 @@
     </row>
     <row r="79" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C79" s="6" t="s">
         <v>18</v>
@@ -2591,10 +2614,10 @@
     </row>
     <row r="80" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A80" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C80" s="6" t="s">
         <v>18</v>
@@ -2602,10 +2625,10 @@
     </row>
     <row r="81" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A81" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C81" s="6" t="s">
         <v>18</v>
@@ -2613,10 +2636,10 @@
     </row>
     <row r="82" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A82" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C82" s="6" t="s">
         <v>18</v>
@@ -2624,10 +2647,10 @@
     </row>
     <row r="83" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A83" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C83" s="6" t="s">
         <v>18</v>
@@ -2635,10 +2658,10 @@
     </row>
     <row r="84" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A84" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C84" s="6" t="s">
         <v>18</v>
@@ -2646,10 +2669,10 @@
     </row>
     <row r="85" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A85" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C85" s="6" t="s">
         <v>18</v>
@@ -2657,10 +2680,10 @@
     </row>
     <row r="86" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C86" s="6" t="s">
         <v>18</v>
@@ -2668,10 +2691,10 @@
     </row>
     <row r="87" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>18</v>
@@ -2679,10 +2702,10 @@
     </row>
     <row r="88" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A88" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B88" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="C88" s="6" t="s">
         <v>18</v>
@@ -2690,10 +2713,10 @@
     </row>
     <row r="89" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A89" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C89" s="6" t="s">
         <v>18</v>
@@ -2701,10 +2724,10 @@
     </row>
     <row r="90" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C90" s="6" t="s">
         <v>18</v>
@@ -2712,10 +2735,10 @@
     </row>
     <row r="91" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>18</v>
@@ -2723,10 +2746,10 @@
     </row>
     <row r="92" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A92" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="C92" s="6" t="s">
         <v>18</v>
@@ -2734,10 +2757,10 @@
     </row>
     <row r="93" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A93" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C93" s="6" t="s">
         <v>18</v>
@@ -2745,10 +2768,10 @@
     </row>
     <row r="94" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A94" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="C94" s="6" t="s">
         <v>18</v>
@@ -2756,10 +2779,10 @@
     </row>
     <row r="95" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A95" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C95" s="6" t="s">
         <v>18</v>
@@ -2767,10 +2790,10 @@
     </row>
     <row r="96" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A96" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>18</v>
@@ -2778,10 +2801,10 @@
     </row>
     <row r="97" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A97" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B97" s="8" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>18</v>
@@ -2789,10 +2812,10 @@
     </row>
     <row r="98" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A98" s="7" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B98" s="8" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>18</v>
@@ -2805,10 +2828,10 @@
     </row>
     <row r="101" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A101" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B101" s="8" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C101" s="6" t="s">
         <v>18</v>
@@ -2816,10 +2839,10 @@
     </row>
     <row r="102" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A102" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B102" s="8" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C102" s="6" t="s">
         <v>18</v>
@@ -2827,10 +2850,10 @@
     </row>
     <row r="103" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A103" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B103" s="8" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C103" s="6" t="s">
         <v>18</v>
@@ -2838,10 +2861,10 @@
     </row>
     <row r="104" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A104" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B104" s="8" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C104" s="6" t="s">
         <v>18</v>
@@ -2849,10 +2872,10 @@
     </row>
     <row r="105" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A105" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B105" s="8" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C105" s="6" t="s">
         <v>18</v>
@@ -2860,10 +2883,10 @@
     </row>
     <row r="106" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A106" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B106" s="8" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C106" s="6" t="s">
         <v>18</v>
@@ -2871,10 +2894,10 @@
     </row>
     <row r="107" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A107" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B107" s="8" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C107" s="6" t="s">
         <v>18</v>
@@ -2882,10 +2905,10 @@
     </row>
     <row r="108" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A108" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B108" s="8" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C108" s="6" t="s">
         <v>18</v>
@@ -2893,10 +2916,10 @@
     </row>
     <row r="109" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A109" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B109" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C109" s="6" t="s">
         <v>18</v>
@@ -2904,10 +2927,10 @@
     </row>
     <row r="110" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A110" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B110" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C110" s="6" t="s">
         <v>18</v>
@@ -2915,10 +2938,10 @@
     </row>
     <row r="111" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A111" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B111" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>18</v>
@@ -2926,10 +2949,10 @@
     </row>
     <row r="112" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A112" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B112" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C112" s="6" t="s">
         <v>18</v>
@@ -2937,10 +2960,10 @@
     </row>
     <row r="113" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B113" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C113" s="6" t="s">
         <v>18</v>
@@ -2948,10 +2971,10 @@
     </row>
     <row r="114" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B114" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C114" s="6" t="s">
         <v>18</v>
@@ -2959,10 +2982,10 @@
     </row>
     <row r="115" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A115" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B115" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C115" s="6" t="s">
         <v>18</v>
@@ -2970,10 +2993,10 @@
     </row>
     <row r="116" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A116" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B116" s="8" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C116" s="6" t="s">
         <v>18</v>
@@ -2981,10 +3004,10 @@
     </row>
     <row r="117" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A117" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B117" s="8" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C117" s="6" t="s">
         <v>18</v>
@@ -2992,10 +3015,10 @@
     </row>
     <row r="118" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A118" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B118" s="8" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
         <v>18</v>
@@ -3003,10 +3026,10 @@
     </row>
     <row r="119" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A119" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B119" s="8" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
         <v>18</v>
@@ -3014,10 +3037,10 @@
     </row>
     <row r="120" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A120" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B120" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C120" s="6" t="s">
         <v>18</v>
@@ -3025,10 +3048,10 @@
     </row>
     <row r="121" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A121" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B121" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C121" s="6" t="s">
         <v>18</v>
@@ -3036,10 +3059,10 @@
     </row>
     <row r="122" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A122" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B122" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C122" s="6" t="s">
         <v>18</v>
@@ -3047,10 +3070,10 @@
     </row>
     <row r="123" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A123" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B123" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C123" s="6" t="s">
         <v>18</v>
@@ -3058,10 +3081,10 @@
     </row>
     <row r="124" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A124" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B124" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C124" s="6" t="s">
         <v>18</v>
@@ -3069,10 +3092,10 @@
     </row>
     <row r="125" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A125" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B125" s="8" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C125" s="6" t="s">
         <v>18</v>
@@ -3080,10 +3103,10 @@
     </row>
     <row r="126" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A126" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B126" s="8" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C126" s="6" t="s">
         <v>18</v>
@@ -3091,10 +3114,10 @@
     </row>
     <row r="127" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A127" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B127" s="8" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C127" s="6" t="s">
         <v>18</v>
@@ -3102,10 +3125,10 @@
     </row>
     <row r="128" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A128" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B128" s="8" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C128" s="6" t="s">
         <v>18</v>
@@ -3113,10 +3136,10 @@
     </row>
     <row r="129" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A129" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B129" s="8" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>18</v>
@@ -3124,10 +3147,10 @@
     </row>
     <row r="130" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A130" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B130" s="8" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>18</v>
@@ -3135,10 +3158,10 @@
     </row>
     <row r="131" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A131" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B131" s="8" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>18</v>
@@ -3146,10 +3169,10 @@
     </row>
     <row r="132" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A132" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B132" s="8" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C132" s="6" t="s">
         <v>18</v>
@@ -3157,10 +3180,10 @@
     </row>
     <row r="133" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A133" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B133" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C133" s="6" t="s">
         <v>18</v>
@@ -3168,10 +3191,10 @@
     </row>
     <row r="134" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A134" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B134" s="8" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C134" s="6" t="s">
         <v>18</v>
@@ -3179,10 +3202,10 @@
     </row>
     <row r="135" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A135" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B135" s="8" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>18</v>
@@ -3190,10 +3213,10 @@
     </row>
     <row r="136" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A136" s="7" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B136" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>18</v>
@@ -3205,10 +3228,10 @@
     </row>
     <row r="139" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A139" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B139" s="8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="C139" s="6" t="s">
         <v>18</v>
@@ -3216,10 +3239,10 @@
     </row>
     <row r="140" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A140" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B140" s="8" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C140" s="6" t="s">
         <v>18</v>
@@ -3227,10 +3250,10 @@
     </row>
     <row r="141" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A141" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B141" s="8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C141" s="6" t="s">
         <v>18</v>
@@ -3238,10 +3261,10 @@
     </row>
     <row r="142" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A142" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B142" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>18</v>
@@ -3249,10 +3272,10 @@
     </row>
     <row r="143" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A143" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B143" s="8" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>18</v>
@@ -3260,10 +3283,10 @@
     </row>
     <row r="144" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A144" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B144" s="8" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>18</v>
@@ -3271,10 +3294,10 @@
     </row>
     <row r="145" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A145" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B145" s="8" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C145" s="6" t="s">
         <v>18</v>
@@ -3282,10 +3305,10 @@
     </row>
     <row r="146" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A146" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B146" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C146" s="6" t="s">
         <v>18</v>
@@ -3293,10 +3316,10 @@
     </row>
     <row r="147" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A147" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B147" s="8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C147" s="6" t="s">
         <v>18</v>
@@ -3304,10 +3327,10 @@
     </row>
     <row r="148" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A148" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B148" s="8" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C148" s="6" t="s">
         <v>18</v>
@@ -3315,10 +3338,10 @@
     </row>
     <row r="149" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A149" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B149" s="8" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C149" s="6" t="s">
         <v>18</v>
@@ -3326,10 +3349,10 @@
     </row>
     <row r="150" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A150" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B150" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C150" s="6" t="s">
         <v>18</v>
@@ -3337,10 +3360,10 @@
     </row>
     <row r="151" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A151" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B151" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C151" s="6" t="s">
         <v>18</v>
@@ -3348,10 +3371,10 @@
     </row>
     <row r="152" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A152" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B152" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="C152" s="6" t="s">
         <v>18</v>
@@ -3359,10 +3382,10 @@
     </row>
     <row r="153" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A153" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B153" s="8" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C153" s="6" t="s">
         <v>18</v>
@@ -3370,10 +3393,10 @@
     </row>
     <row r="154" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A154" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B154" s="8" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="C154" s="6" t="s">
         <v>18</v>
@@ -3381,10 +3404,10 @@
     </row>
     <row r="155" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A155" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B155" s="8" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C155" s="6" t="s">
         <v>18</v>
@@ -3392,10 +3415,10 @@
     </row>
     <row r="156" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A156" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B156" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C156" s="6" t="s">
         <v>18</v>
@@ -3403,10 +3426,10 @@
     </row>
     <row r="157" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A157" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B157" s="8" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C157" s="6" t="s">
         <v>18</v>
@@ -3414,10 +3437,10 @@
     </row>
     <row r="158" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A158" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B158" s="8" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C158" s="6" t="s">
         <v>18</v>
@@ -3425,10 +3448,10 @@
     </row>
     <row r="159" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A159" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B159" s="8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C159" s="6" t="s">
         <v>18</v>
@@ -3436,10 +3459,10 @@
     </row>
     <row r="160" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A160" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B160" s="8" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C160" s="6" t="s">
         <v>18</v>
@@ -3447,10 +3470,10 @@
     </row>
     <row r="161" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A161" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B161" s="8" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C161" s="6" t="s">
         <v>18</v>
@@ -3458,10 +3481,10 @@
     </row>
     <row r="162" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A162" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B162" s="8" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C162" s="6" t="s">
         <v>18</v>
@@ -3469,10 +3492,10 @@
     </row>
     <row r="163" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A163" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B163" s="8" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C163" s="6" t="s">
         <v>18</v>
@@ -3480,10 +3503,10 @@
     </row>
     <row r="164" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A164" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B164" s="9" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C164" s="6" t="s">
         <v>18</v>
@@ -3491,10 +3514,10 @@
     </row>
     <row r="165" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A165" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B165" s="9" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>18</v>
@@ -3502,10 +3525,10 @@
     </row>
     <row r="166" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A166" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B166" s="8" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="C166" s="6" t="s">
         <v>18</v>
@@ -3513,10 +3536,10 @@
     </row>
     <row r="167" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A167" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B167" s="8" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C167" s="6" t="s">
         <v>18</v>
@@ -3524,10 +3547,10 @@
     </row>
     <row r="168" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A168" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B168" s="8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="C168" s="6" t="s">
         <v>18</v>
@@ -3535,10 +3558,10 @@
     </row>
     <row r="169" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A169" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B169" s="8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C169" s="6" t="s">
         <v>18</v>
@@ -3546,10 +3569,10 @@
     </row>
     <row r="170" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A170" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B170" s="8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C170" s="6" t="s">
         <v>18</v>
@@ -3557,10 +3580,10 @@
     </row>
     <row r="171" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A171" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B171" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C171" s="6" t="s">
         <v>18</v>
@@ -3568,10 +3591,10 @@
     </row>
     <row r="172" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A172" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B172" s="8" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="C172" s="6" t="s">
         <v>18</v>
@@ -3579,10 +3602,10 @@
     </row>
     <row r="173" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A173" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B173" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C173" s="6" t="s">
         <v>18</v>
@@ -3590,10 +3613,10 @@
     </row>
     <row r="174" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A174" s="7" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B174" s="8" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="C174" s="6" t="s">
         <v>18</v>
@@ -3605,10 +3628,10 @@
     </row>
     <row r="177" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A177" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B177" s="8" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C177" s="6" t="s">
         <v>18</v>
@@ -3616,10 +3639,10 @@
     </row>
     <row r="178" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A178" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B178" s="8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="C178" s="6" t="s">
         <v>18</v>
@@ -3627,10 +3650,10 @@
     </row>
     <row r="179" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A179" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B179" s="8" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C179" s="6" t="s">
         <v>18</v>
@@ -3638,10 +3661,10 @@
     </row>
     <row r="180" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A180" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B180" s="8" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="C180" s="6" t="s">
         <v>18</v>
@@ -3649,10 +3672,10 @@
     </row>
     <row r="181" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A181" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B181" s="8" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C181" s="6" t="s">
         <v>18</v>
@@ -3660,10 +3683,10 @@
     </row>
     <row r="182" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A182" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B182" s="8" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="C182" s="6" t="s">
         <v>18</v>
@@ -3671,10 +3694,10 @@
     </row>
     <row r="183" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A183" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B183" s="8" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C183" s="6" t="s">
         <v>18</v>
@@ -3682,10 +3705,10 @@
     </row>
     <row r="184" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A184" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B184" s="8" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C184" s="6" t="s">
         <v>18</v>
@@ -3693,10 +3716,10 @@
     </row>
     <row r="185" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A185" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B185" s="8" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C185" s="6" t="s">
         <v>18</v>
@@ -3704,10 +3727,10 @@
     </row>
     <row r="186" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A186" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B186" s="8" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="C186" s="6" t="s">
         <v>18</v>
@@ -3715,10 +3738,10 @@
     </row>
     <row r="187" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A187" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B187" s="8" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C187" s="6" t="s">
         <v>18</v>
@@ -3726,10 +3749,10 @@
     </row>
     <row r="188" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A188" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B188" s="8" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="C188" s="6" t="s">
         <v>18</v>
@@ -3737,10 +3760,10 @@
     </row>
     <row r="189" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A189" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B189" s="8" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C189" s="6" t="s">
         <v>18</v>
@@ -3748,10 +3771,10 @@
     </row>
     <row r="190" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A190" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B190" s="8" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="C190" s="6" t="s">
         <v>18</v>
@@ -3759,10 +3782,10 @@
     </row>
     <row r="191" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A191" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B191" s="8" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C191" s="6" t="s">
         <v>18</v>
@@ -3770,10 +3793,10 @@
     </row>
     <row r="192" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A192" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B192" s="8" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="C192" s="6" t="s">
         <v>18</v>
@@ -3781,10 +3804,10 @@
     </row>
     <row r="193" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A193" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B193" s="8" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C193" s="6" t="s">
         <v>18</v>
@@ -3792,10 +3815,10 @@
     </row>
     <row r="194" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A194" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B194" s="8" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="C194" s="6" t="s">
         <v>18</v>
@@ -3803,10 +3826,10 @@
     </row>
     <row r="195" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A195" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B195" s="8" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C195" s="6" t="s">
         <v>18</v>
@@ -3814,10 +3837,10 @@
     </row>
     <row r="196" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A196" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B196" s="8" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C196" s="6" t="s">
         <v>18</v>
@@ -3825,10 +3848,10 @@
     </row>
     <row r="197" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A197" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B197" s="8" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="C197" s="6" t="s">
         <v>18</v>
@@ -3836,10 +3859,10 @@
     </row>
     <row r="198" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A198" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B198" s="8" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C198" s="6" t="s">
         <v>18</v>
@@ -3847,10 +3870,10 @@
     </row>
     <row r="199" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A199" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B199" s="8" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="C199" s="6" t="s">
         <v>18</v>
@@ -3858,10 +3881,10 @@
     </row>
     <row r="200" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A200" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B200" s="8" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C200" s="6" t="s">
         <v>18</v>
@@ -3869,10 +3892,10 @@
     </row>
     <row r="201" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A201" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B201" s="8" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="C201" s="6" t="s">
         <v>18</v>
@@ -3880,10 +3903,10 @@
     </row>
     <row r="202" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A202" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B202" s="8" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>18</v>
@@ -3891,10 +3914,10 @@
     </row>
     <row r="203" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A203" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B203" s="8" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="C203" s="6" t="s">
         <v>18</v>
@@ -3902,10 +3925,10 @@
     </row>
     <row r="204" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A204" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B204" s="8" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C204" s="6" t="s">
         <v>18</v>
@@ -3913,10 +3936,10 @@
     </row>
     <row r="205" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A205" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B205" s="8" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C205" s="6" t="s">
         <v>18</v>
@@ -3924,10 +3947,10 @@
     </row>
     <row r="206" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A206" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B206" s="8" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>18</v>
@@ -3935,10 +3958,10 @@
     </row>
     <row r="207" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A207" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B207" s="8" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>18</v>
@@ -3946,10 +3969,10 @@
     </row>
     <row r="208" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A208" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B208" s="8" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>18</v>
@@ -3957,10 +3980,10 @@
     </row>
     <row r="209" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A209" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B209" s="8" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>18</v>
@@ -3968,10 +3991,10 @@
     </row>
     <row r="210" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A210" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B210" s="8" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>18</v>
@@ -3979,10 +4002,10 @@
     </row>
     <row r="211" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A211" s="7" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="B211" s="8" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C211" s="6" t="s">
         <v>18</v>
@@ -4000,10 +4023,10 @@
     </row>
     <row r="214" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A214" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B214" s="8" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="C214" s="6" t="s">
         <v>18</v>
@@ -4011,10 +4034,10 @@
     </row>
     <row r="215" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A215" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B215" s="8" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="C215" s="6" t="s">
         <v>18</v>
@@ -4022,10 +4045,10 @@
     </row>
     <row r="216" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A216" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B216" s="8" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="C216" s="6" t="s">
         <v>18</v>
@@ -4033,10 +4056,10 @@
     </row>
     <row r="217" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A217" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B217" s="8" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="C217" s="6" t="s">
         <v>18</v>
@@ -4044,10 +4067,10 @@
     </row>
     <row r="218" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A218" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B218" s="8" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="C218" s="6" t="s">
         <v>18</v>
@@ -4055,10 +4078,10 @@
     </row>
     <row r="219" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A219" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B219" s="8" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="C219" s="6" t="s">
         <v>18</v>
@@ -4066,10 +4089,10 @@
     </row>
     <row r="220" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A220" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B220" s="10" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="C220" s="6" t="s">
         <v>18</v>
@@ -4077,10 +4100,10 @@
     </row>
     <row r="221" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A221" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B221" s="8" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="C221" s="6" t="s">
         <v>18</v>
@@ -4088,10 +4111,10 @@
     </row>
     <row r="222" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A222" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B222" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C222" s="6" t="s">
         <v>18</v>
@@ -4099,10 +4122,10 @@
     </row>
     <row r="223" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A223" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B223" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>18</v>
@@ -4110,10 +4133,10 @@
     </row>
     <row r="224" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A224" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B224" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>18</v>
@@ -4121,10 +4144,10 @@
     </row>
     <row r="225" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A225" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B225" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C225" s="6" t="s">
         <v>18</v>
@@ -4132,10 +4155,10 @@
     </row>
     <row r="226" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A226" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B226" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>18</v>
@@ -4143,10 +4166,10 @@
     </row>
     <row r="227" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A227" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B227" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>18</v>
@@ -4154,10 +4177,10 @@
     </row>
     <row r="228" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A228" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B228" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C228" s="6" t="s">
         <v>18</v>
@@ -4165,10 +4188,10 @@
     </row>
     <row r="229" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A229" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B229" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="C229" s="6" t="s">
         <v>18</v>
@@ -4176,10 +4199,10 @@
     </row>
     <row r="230" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A230" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B230" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="C230" s="6" t="s">
         <v>18</v>
@@ -4187,10 +4210,10 @@
     </row>
     <row r="231" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A231" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B231" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C231" s="6" t="s">
         <v>18</v>
@@ -4198,10 +4221,10 @@
     </row>
     <row r="232" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A232" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B232" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="C232" s="6" t="s">
         <v>18</v>
@@ -4209,10 +4232,10 @@
     </row>
     <row r="233" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A233" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B233" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="C233" s="6" t="s">
         <v>18</v>
@@ -4220,10 +4243,10 @@
     </row>
     <row r="234" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A234" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B234" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C234" s="6" t="s">
         <v>18</v>
@@ -4231,10 +4254,10 @@
     </row>
     <row r="235" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A235" s="7" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B235" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="C235" s="6" t="s">
         <v>18</v>
@@ -4250,10 +4273,10 @@
     </row>
     <row r="238" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A238" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B238" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C238" s="6" t="s">
         <v>18</v>
@@ -4261,10 +4284,10 @@
     </row>
     <row r="239" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A239" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B239" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="C239" s="6" t="s">
         <v>18</v>
@@ -4272,10 +4295,10 @@
     </row>
     <row r="240" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A240" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B240" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>18</v>
@@ -4283,10 +4306,10 @@
     </row>
     <row r="241" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A241" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B241" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>18</v>
@@ -4294,10 +4317,10 @@
     </row>
     <row r="242" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A242" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B242" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>18</v>
@@ -4305,10 +4328,10 @@
     </row>
     <row r="243" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A243" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B243" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>18</v>
@@ -4316,10 +4339,10 @@
     </row>
     <row r="244" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A244" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B244" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="C244" s="6" t="s">
         <v>18</v>
@@ -4327,10 +4350,10 @@
     </row>
     <row r="245" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A245" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B245" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C245" s="6" t="s">
         <v>18</v>
@@ -4338,10 +4361,10 @@
     </row>
     <row r="246" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A246" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B246" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="C246" s="6" t="s">
         <v>18</v>
@@ -4349,10 +4372,10 @@
     </row>
     <row r="247" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A247" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B247" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C247" s="6" t="s">
         <v>18</v>
@@ -4360,10 +4383,10 @@
     </row>
     <row r="248" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A248" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B248" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="C248" s="6" t="s">
         <v>18</v>
@@ -4371,10 +4394,10 @@
     </row>
     <row r="249" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A249" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B249" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="C249" s="6" t="s">
         <v>18</v>
@@ -4382,10 +4405,10 @@
     </row>
     <row r="250" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A250" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B250" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C250" s="6" t="s">
         <v>18</v>
@@ -4393,10 +4416,10 @@
     </row>
     <row r="251" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A251" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B251" s="8" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="C251" s="6" t="s">
         <v>18</v>
@@ -4404,10 +4427,10 @@
     </row>
     <row r="252" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A252" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B252" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C252" s="6" t="s">
         <v>18</v>
@@ -4415,10 +4438,10 @@
     </row>
     <row r="253" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A253" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B253" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="C253" s="6" t="s">
         <v>18</v>
@@ -4426,10 +4449,10 @@
     </row>
     <row r="254" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A254" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B254" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>18</v>
@@ -4437,10 +4460,10 @@
     </row>
     <row r="255" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A255" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B255" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C255" s="6" t="s">
         <v>18</v>
@@ -4448,10 +4471,10 @@
     </row>
     <row r="256" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A256" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B256" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="C256" s="6" t="s">
         <v>18</v>
@@ -4459,10 +4482,10 @@
     </row>
     <row r="257" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A257" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B257" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>18</v>
@@ -4470,10 +4493,10 @@
     </row>
     <row r="258" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A258" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B258" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C258" s="6" t="s">
         <v>18</v>
@@ -4481,10 +4504,10 @@
     </row>
     <row r="259" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A259" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B259" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>18</v>
@@ -4492,10 +4515,10 @@
     </row>
     <row r="260" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A260" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B260" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="C260" s="6" t="s">
         <v>18</v>
@@ -4503,10 +4526,10 @@
     </row>
     <row r="261" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A261" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B261" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="C261" s="6" t="s">
         <v>18</v>
@@ -4514,10 +4537,10 @@
     </row>
     <row r="262" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A262" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B262" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C262" s="6" t="s">
         <v>18</v>
@@ -4525,10 +4548,10 @@
     </row>
     <row r="263" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A263" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B263" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C263" s="6" t="s">
         <v>18</v>
@@ -4536,10 +4559,10 @@
     </row>
     <row r="264" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A264" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B264" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="C264" s="6" t="s">
         <v>18</v>
@@ -4547,10 +4570,10 @@
     </row>
     <row r="265" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A265" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B265" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>18</v>
@@ -4558,10 +4581,10 @@
     </row>
     <row r="266" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A266" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B266" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>18</v>
@@ -4569,10 +4592,10 @@
     </row>
     <row r="267" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A267" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B267" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>18</v>
@@ -4580,10 +4603,10 @@
     </row>
     <row r="268" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A268" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B268" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>18</v>
@@ -4591,10 +4614,10 @@
     </row>
     <row r="269" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A269" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B269" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>18</v>
@@ -4602,10 +4625,10 @@
     </row>
     <row r="270" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A270" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B270" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>18</v>
@@ -4613,10 +4636,10 @@
     </row>
     <row r="271" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A271" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B271" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C271" s="6" t="s">
         <v>18</v>
@@ -4624,10 +4647,10 @@
     </row>
     <row r="272" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A272" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="B272" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C272" s="6" t="s">
         <v>18</v>
@@ -4643,10 +4666,10 @@
     </row>
     <row r="275" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A275" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B275" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="C275" s="6" t="s">
         <v>18</v>
@@ -4654,10 +4677,10 @@
     </row>
     <row r="276" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A276" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B276" s="8" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="C276" s="6" t="s">
         <v>18</v>
@@ -4665,10 +4688,10 @@
     </row>
     <row r="277" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A277" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B277" s="8" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="C277" s="6" t="s">
         <v>18</v>
@@ -4676,10 +4699,10 @@
     </row>
     <row r="278" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A278" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B278" s="8" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="C278" s="6" t="s">
         <v>18</v>
@@ -4687,10 +4710,10 @@
     </row>
     <row r="279" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A279" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B279" s="8" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="C279" s="6" t="s">
         <v>18</v>
@@ -4698,10 +4721,10 @@
     </row>
     <row r="280" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A280" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B280" s="8" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="C280" s="6" t="s">
         <v>18</v>
@@ -4709,10 +4732,10 @@
     </row>
     <row r="281" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A281" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B281" s="8" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="C281" s="6" t="s">
         <v>18</v>
@@ -4720,10 +4743,10 @@
     </row>
     <row r="282" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A282" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B282" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C282" s="6" t="s">
         <v>18</v>
@@ -4731,10 +4754,10 @@
     </row>
     <row r="283" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A283" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B283" s="8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="C283" s="6" t="s">
         <v>18</v>
@@ -4742,10 +4765,10 @@
     </row>
     <row r="284" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A284" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B284" s="8" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="C284" s="6" t="s">
         <v>18</v>
@@ -4753,10 +4776,10 @@
     </row>
     <row r="285" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A285" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B285" s="8" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="C285" s="6" t="s">
         <v>18</v>
@@ -4764,10 +4787,10 @@
     </row>
     <row r="286" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A286" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B286" s="8" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="C286" s="6" t="s">
         <v>18</v>
@@ -4775,10 +4798,10 @@
     </row>
     <row r="287" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A287" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B287" s="8" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="C287" s="6" t="s">
         <v>18</v>
@@ -4786,10 +4809,10 @@
     </row>
     <row r="288" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A288" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B288" s="8" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="C288" s="6" t="s">
         <v>18</v>
@@ -4797,10 +4820,10 @@
     </row>
     <row r="289" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A289" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B289" s="8" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="C289" s="6" t="s">
         <v>18</v>
@@ -4808,10 +4831,10 @@
     </row>
     <row r="290" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A290" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B290" s="8" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="C290" s="6" t="s">
         <v>18</v>
@@ -4819,10 +4842,10 @@
     </row>
     <row r="291" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A291" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B291" s="8" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="C291" s="6" t="s">
         <v>18</v>
@@ -4830,10 +4853,10 @@
     </row>
     <row r="292" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A292" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B292" s="8" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="C292" s="6" t="s">
         <v>18</v>
@@ -4841,10 +4864,10 @@
     </row>
     <row r="293" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A293" s="7" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="B293" s="8" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="C293" s="6" t="s">
         <v>18</v>
@@ -4860,10 +4883,10 @@
     </row>
     <row r="296" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A296" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B296" s="8" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="C296" s="6" t="s">
         <v>18</v>
@@ -4871,10 +4894,10 @@
     </row>
     <row r="297" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A297" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B297" s="8" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="C297" s="6" t="s">
         <v>18</v>
@@ -4882,10 +4905,10 @@
     </row>
     <row r="298" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A298" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B298" s="8" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="C298" s="6" t="s">
         <v>18</v>
@@ -4893,10 +4916,10 @@
     </row>
     <row r="299" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A299" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B299" s="8" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="C299" s="6" t="s">
         <v>18</v>
@@ -4904,10 +4927,10 @@
     </row>
     <row r="300" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A300" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B300" s="8" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="C300" s="6" t="s">
         <v>18</v>
@@ -4915,10 +4938,10 @@
     </row>
     <row r="301" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A301" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B301" s="8" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="C301" s="6" t="s">
         <v>18</v>
@@ -4926,32 +4949,39 @@
     </row>
     <row r="302" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A302" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B302" s="8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
       <c r="C302" s="6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="303" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="303" customFormat="false" ht="19.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A303" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B303" s="8" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="C303" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="D303" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="E303" s="0" t="e">
+        <f aca="false">------B303</f>
+        <v>#VALUE!</v>
       </c>
     </row>
     <row r="304" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A304" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B304" s="8" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C304" s="6" t="s">
         <v>18</v>
@@ -4959,10 +4989,10 @@
     </row>
     <row r="305" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A305" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B305" s="8" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C305" s="6" t="s">
         <v>18</v>
@@ -4970,10 +5000,10 @@
     </row>
     <row r="306" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A306" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B306" s="8" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C306" s="6" t="s">
         <v>18</v>
@@ -4981,10 +5011,10 @@
     </row>
     <row r="307" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A307" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B307" s="8" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C307" s="6" t="s">
         <v>18</v>
@@ -4992,10 +5022,10 @@
     </row>
     <row r="308" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A308" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B308" s="8" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="C308" s="6" t="s">
         <v>18</v>
@@ -5003,10 +5033,10 @@
     </row>
     <row r="309" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A309" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B309" s="10" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C309" s="6" t="s">
         <v>18</v>
@@ -5014,10 +5044,10 @@
     </row>
     <row r="310" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A310" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B310" s="8" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="C310" s="6" t="s">
         <v>18</v>
@@ -5025,10 +5055,10 @@
     </row>
     <row r="311" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A311" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B311" s="8" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C311" s="6" t="s">
         <v>18</v>
@@ -5036,10 +5066,10 @@
     </row>
     <row r="312" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A312" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B312" s="8" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="C312" s="6" t="s">
         <v>18</v>
@@ -5047,10 +5077,10 @@
     </row>
     <row r="313" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A313" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B313" s="8" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C313" s="6" t="s">
         <v>18</v>
@@ -5058,10 +5088,10 @@
     </row>
     <row r="314" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A314" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B314" s="8" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C314" s="6" t="s">
         <v>18</v>
@@ -5069,10 +5099,10 @@
     </row>
     <row r="315" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A315" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B315" s="8" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C315" s="6" t="s">
         <v>18</v>
@@ -5080,10 +5110,10 @@
     </row>
     <row r="316" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A316" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B316" s="8" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="C316" s="6" t="s">
         <v>18</v>
@@ -5091,10 +5121,10 @@
     </row>
     <row r="317" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A317" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B317" s="8" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C317" s="6" t="s">
         <v>18</v>
@@ -5102,10 +5132,10 @@
     </row>
     <row r="318" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A318" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B318" s="8" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C318" s="6" t="s">
         <v>18</v>
@@ -5113,10 +5143,10 @@
     </row>
     <row r="319" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A319" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B319" s="8" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C319" s="6" t="s">
         <v>18</v>
@@ -5124,10 +5154,10 @@
     </row>
     <row r="320" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A320" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B320" s="8" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="C320" s="6" t="s">
         <v>18</v>
@@ -5135,10 +5165,10 @@
     </row>
     <row r="321" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A321" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B321" s="8" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C321" s="6" t="s">
         <v>18</v>
@@ -5146,10 +5176,10 @@
     </row>
     <row r="322" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A322" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B322" s="8" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C322" s="6" t="s">
         <v>18</v>
@@ -5157,10 +5187,10 @@
     </row>
     <row r="323" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A323" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B323" s="8" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C323" s="6" t="s">
         <v>18</v>
@@ -5168,10 +5198,10 @@
     </row>
     <row r="324" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A324" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B324" s="8" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="C324" s="6" t="s">
         <v>18</v>
@@ -5179,10 +5209,10 @@
     </row>
     <row r="325" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A325" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B325" s="8" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C325" s="6" t="s">
         <v>18</v>
@@ -5190,10 +5220,10 @@
     </row>
     <row r="326" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A326" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B326" s="8" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C326" s="6" t="s">
         <v>18</v>
@@ -5201,10 +5231,10 @@
     </row>
     <row r="327" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A327" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B327" s="8" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C327" s="6" t="s">
         <v>18</v>
@@ -5212,10 +5242,10 @@
     </row>
     <row r="328" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A328" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B328" s="8" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="C328" s="6" t="s">
         <v>18</v>
@@ -5223,10 +5253,10 @@
     </row>
     <row r="329" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A329" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B329" s="8" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="C329" s="6" t="s">
         <v>18</v>
@@ -5234,10 +5264,10 @@
     </row>
     <row r="330" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A330" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B330" s="8" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C330" s="6" t="s">
         <v>18</v>
@@ -5245,10 +5275,10 @@
     </row>
     <row r="331" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A331" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B331" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="C331" s="6" t="s">
         <v>18</v>
@@ -5256,10 +5286,10 @@
     </row>
     <row r="332" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A332" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B332" s="8" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C332" s="6" t="s">
         <v>18</v>
@@ -5267,10 +5297,10 @@
     </row>
     <row r="333" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A333" s="7" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B333" s="8" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="C333" s="6" t="s">
         <v>18</v>
@@ -5286,10 +5316,10 @@
     </row>
     <row r="336" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A336" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B336" s="8" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C336" s="6" t="s">
         <v>18</v>
@@ -5297,10 +5327,10 @@
     </row>
     <row r="337" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A337" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B337" s="8" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C337" s="6" t="s">
         <v>18</v>
@@ -5308,10 +5338,10 @@
     </row>
     <row r="338" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A338" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B338" s="8" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C338" s="6" t="s">
         <v>18</v>
@@ -5319,10 +5349,10 @@
     </row>
     <row r="339" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A339" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B339" s="8" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C339" s="6" t="s">
         <v>18</v>
@@ -5330,10 +5360,10 @@
     </row>
     <row r="340" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A340" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B340" s="8" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C340" s="6" t="s">
         <v>18</v>
@@ -5341,10 +5371,10 @@
     </row>
     <row r="341" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A341" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B341" s="8" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C341" s="6" t="s">
         <v>18</v>
@@ -5352,10 +5382,10 @@
     </row>
     <row r="342" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A342" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B342" s="8" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="C342" s="6" t="s">
         <v>18</v>
@@ -5363,10 +5393,10 @@
     </row>
     <row r="343" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A343" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B343" s="8" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C343" s="6" t="s">
         <v>18</v>
@@ -5374,10 +5404,10 @@
     </row>
     <row r="344" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A344" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B344" s="10" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C344" s="6" t="s">
         <v>18</v>
@@ -5385,10 +5415,10 @@
     </row>
     <row r="345" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A345" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B345" s="8" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C345" s="6" t="s">
         <v>18</v>
@@ -5396,10 +5426,10 @@
     </row>
     <row r="346" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A346" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B346" s="8" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C346" s="6" t="s">
         <v>18</v>
@@ -5407,10 +5437,10 @@
     </row>
     <row r="347" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A347" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B347" s="8" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C347" s="6" t="s">
         <v>18</v>
@@ -5418,10 +5448,10 @@
     </row>
     <row r="348" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A348" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B348" s="8" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="C348" s="6" t="s">
         <v>18</v>
@@ -5429,10 +5459,10 @@
     </row>
     <row r="349" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A349" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B349" s="8" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C349" s="6" t="s">
         <v>18</v>
@@ -5440,10 +5470,10 @@
     </row>
     <row r="350" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A350" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B350" s="8" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="C350" s="6" t="s">
         <v>18</v>
@@ -5451,10 +5481,10 @@
     </row>
     <row r="351" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A351" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B351" s="8" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C351" s="6" t="s">
         <v>18</v>
@@ -5462,10 +5492,10 @@
     </row>
     <row r="352" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A352" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B352" s="8" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="C352" s="6" t="s">
         <v>18</v>
@@ -5473,10 +5503,10 @@
     </row>
     <row r="353" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A353" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="B353" s="8" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C353" s="6" t="s">
         <v>18</v>
@@ -5492,10 +5522,10 @@
     </row>
     <row r="356" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A356" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B356" s="8" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C356" s="6" t="s">
         <v>18</v>
@@ -5503,10 +5533,10 @@
     </row>
     <row r="357" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A357" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B357" s="8" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="C357" s="6" t="s">
         <v>18</v>
@@ -5514,10 +5544,10 @@
     </row>
     <row r="358" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A358" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B358" s="8" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C358" s="6" t="s">
         <v>18</v>
@@ -5525,10 +5555,10 @@
     </row>
     <row r="359" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A359" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B359" s="8" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="C359" s="6" t="s">
         <v>18</v>
@@ -5536,10 +5566,10 @@
     </row>
     <row r="360" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A360" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B360" s="8" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C360" s="6" t="s">
         <v>18</v>
@@ -5547,10 +5577,10 @@
     </row>
     <row r="361" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A361" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B361" s="8" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="C361" s="6" t="s">
         <v>18</v>
@@ -5558,10 +5588,10 @@
     </row>
     <row r="362" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A362" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B362" s="8" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C362" s="6" t="s">
         <v>18</v>
@@ -5569,10 +5599,10 @@
     </row>
     <row r="363" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A363" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B363" s="8" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="C363" s="6" t="s">
         <v>18</v>
@@ -5580,10 +5610,10 @@
     </row>
     <row r="364" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A364" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B364" s="8" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C364" s="6" t="s">
         <v>18</v>
@@ -5591,10 +5621,10 @@
     </row>
     <row r="365" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A365" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B365" s="8" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="C365" s="6" t="s">
         <v>18</v>
@@ -5602,10 +5632,10 @@
     </row>
     <row r="366" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A366" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B366" s="8" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C366" s="6" t="s">
         <v>18</v>
@@ -5613,10 +5643,10 @@
     </row>
     <row r="367" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A367" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B367" s="8" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="C367" s="6" t="s">
         <v>18</v>
@@ -5624,10 +5654,10 @@
     </row>
     <row r="368" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A368" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B368" s="8" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C368" s="6" t="s">
         <v>18</v>
@@ -5635,10 +5665,10 @@
     </row>
     <row r="369" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A369" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B369" s="8" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="C369" s="6" t="s">
         <v>18</v>
@@ -5646,10 +5676,10 @@
     </row>
     <row r="370" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A370" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B370" s="8" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C370" s="6" t="s">
         <v>18</v>
@@ -5657,10 +5687,10 @@
     </row>
     <row r="371" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A371" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B371" s="8" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="C371" s="6" t="s">
         <v>18</v>
@@ -5668,10 +5698,10 @@
     </row>
     <row r="372" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A372" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B372" s="8" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C372" s="6" t="s">
         <v>18</v>
@@ -5679,10 +5709,10 @@
     </row>
     <row r="373" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A373" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B373" s="8" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="C373" s="6" t="s">
         <v>18</v>
@@ -5690,10 +5720,10 @@
     </row>
     <row r="374" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A374" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B374" s="8" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C374" s="6" t="s">
         <v>18</v>
@@ -5701,10 +5731,10 @@
     </row>
     <row r="375" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A375" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B375" s="8" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="C375" s="6" t="s">
         <v>18</v>
@@ -5712,10 +5742,10 @@
     </row>
     <row r="376" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A376" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B376" s="8" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C376" s="6" t="s">
         <v>18</v>
@@ -5723,10 +5753,10 @@
     </row>
     <row r="377" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A377" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B377" s="8" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="C377" s="6" t="s">
         <v>18</v>
@@ -5734,10 +5764,10 @@
     </row>
     <row r="378" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A378" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B378" s="8" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C378" s="6" t="s">
         <v>18</v>
@@ -5745,10 +5775,10 @@
     </row>
     <row r="379" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A379" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B379" s="8" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="C379" s="6" t="s">
         <v>18</v>
@@ -5756,10 +5786,10 @@
     </row>
     <row r="380" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A380" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B380" s="8" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C380" s="6" t="s">
         <v>18</v>
@@ -5767,10 +5797,10 @@
     </row>
     <row r="381" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A381" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B381" s="8" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="C381" s="6" t="s">
         <v>18</v>
@@ -5778,10 +5808,10 @@
     </row>
     <row r="382" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A382" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B382" s="8" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C382" s="6" t="s">
         <v>18</v>
@@ -5789,10 +5819,10 @@
     </row>
     <row r="383" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A383" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B383" s="8" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="C383" s="6" t="s">
         <v>18</v>
@@ -5800,10 +5830,10 @@
     </row>
     <row r="384" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A384" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B384" s="8" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C384" s="6" t="s">
         <v>18</v>
@@ -5811,10 +5841,10 @@
     </row>
     <row r="385" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A385" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B385" s="8" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="C385" s="6" t="s">
         <v>18</v>
@@ -5822,10 +5852,10 @@
     </row>
     <row r="386" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A386" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B386" s="8" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C386" s="6" t="s">
         <v>18</v>
@@ -5833,10 +5863,10 @@
     </row>
     <row r="387" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A387" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B387" s="8" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="C387" s="6" t="s">
         <v>18</v>
@@ -5844,10 +5874,10 @@
     </row>
     <row r="388" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A388" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B388" s="8" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C388" s="6" t="s">
         <v>18</v>
@@ -5855,10 +5885,10 @@
     </row>
     <row r="389" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A389" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B389" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C389" s="6" t="s">
         <v>18</v>
@@ -5866,10 +5896,10 @@
     </row>
     <row r="390" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A390" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B390" s="8" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="C390" s="6" t="s">
         <v>18</v>
@@ -5877,10 +5907,10 @@
     </row>
     <row r="391" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A391" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B391" s="8" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C391" s="6" t="s">
         <v>18</v>
@@ -5888,10 +5918,10 @@
     </row>
     <row r="392" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A392" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B392" s="8" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="C392" s="6" t="s">
         <v>18</v>
@@ -5899,10 +5929,10 @@
     </row>
     <row r="393" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A393" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B393" s="8" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C393" s="6" t="s">
         <v>18</v>
@@ -5910,10 +5940,10 @@
     </row>
     <row r="394" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A394" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B394" s="8" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="C394" s="6" t="s">
         <v>18</v>
@@ -5921,10 +5951,10 @@
     </row>
     <row r="395" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A395" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B395" s="8" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C395" s="6" t="s">
         <v>18</v>
@@ -5932,10 +5962,10 @@
     </row>
     <row r="396" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A396" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B396" s="8" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="C396" s="6" t="s">
         <v>18</v>
@@ -5943,10 +5973,10 @@
     </row>
     <row r="397" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A397" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B397" s="8" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C397" s="6" t="s">
         <v>18</v>
@@ -5954,10 +5984,10 @@
     </row>
     <row r="398" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A398" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B398" s="8" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="C398" s="6" t="s">
         <v>18</v>
@@ -5965,10 +5995,10 @@
     </row>
     <row r="399" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A399" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B399" s="8" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C399" s="6" t="s">
         <v>18</v>
@@ -5984,10 +6014,10 @@
     </row>
     <row r="402" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A402" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B402" s="8" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C402" s="6" t="s">
         <v>18</v>
@@ -5995,10 +6025,10 @@
     </row>
     <row r="403" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A403" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B403" s="8" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="C403" s="6" t="s">
         <v>18</v>
@@ -6006,10 +6036,10 @@
     </row>
     <row r="404" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A404" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B404" s="8" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C404" s="6" t="s">
         <v>18</v>
@@ -6017,10 +6047,10 @@
     </row>
     <row r="405" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A405" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B405" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C405" s="6" t="s">
         <v>18</v>
@@ -6028,10 +6058,10 @@
     </row>
     <row r="406" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A406" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B406" s="8" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="C406" s="6" t="s">
         <v>18</v>
@@ -6039,10 +6069,10 @@
     </row>
     <row r="407" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A407" s="7" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B407" s="8" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C407" s="6" t="s">
         <v>18</v>
@@ -6058,10 +6088,10 @@
     </row>
     <row r="410" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A410" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B410" s="8" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C410" s="6" t="s">
         <v>18</v>
@@ -6069,10 +6099,10 @@
     </row>
     <row r="411" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A411" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B411" s="8" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="C411" s="6" t="s">
         <v>18</v>
@@ -6080,10 +6110,10 @@
     </row>
     <row r="412" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A412" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B412" s="8" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C412" s="6" t="s">
         <v>18</v>
@@ -6091,10 +6121,10 @@
     </row>
     <row r="413" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A413" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B413" s="8" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="C413" s="6" t="s">
         <v>18</v>
@@ -6102,10 +6132,10 @@
     </row>
     <row r="414" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A414" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B414" s="8" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C414" s="6" t="s">
         <v>18</v>
@@ -6113,10 +6143,10 @@
     </row>
     <row r="415" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A415" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B415" s="8" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="C415" s="6" t="s">
         <v>18</v>
@@ -6124,10 +6154,10 @@
     </row>
     <row r="416" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A416" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B416" s="8" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C416" s="6" t="s">
         <v>18</v>
@@ -6135,10 +6165,10 @@
     </row>
     <row r="417" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A417" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B417" s="8" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="C417" s="6" t="s">
         <v>18</v>
@@ -6146,10 +6176,10 @@
     </row>
     <row r="418" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A418" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B418" s="8" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="C418" s="6" t="s">
         <v>18</v>
@@ -6157,10 +6187,10 @@
     </row>
     <row r="419" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A419" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B419" s="8" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C419" s="6" t="s">
         <v>18</v>
@@ -6168,10 +6198,10 @@
     </row>
     <row r="420" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A420" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B420" s="8" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="C420" s="6" t="s">
         <v>18</v>
@@ -6179,10 +6209,10 @@
     </row>
     <row r="421" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A421" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B421" s="8" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C421" s="6" t="s">
         <v>18</v>
@@ -6190,10 +6220,10 @@
     </row>
     <row r="422" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A422" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B422" s="8" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="C422" s="6" t="s">
         <v>18</v>
@@ -6201,10 +6231,10 @@
     </row>
     <row r="423" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A423" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B423" s="8" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C423" s="6" t="s">
         <v>18</v>
@@ -6212,10 +6242,10 @@
     </row>
     <row r="424" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A424" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B424" s="8" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="C424" s="6" t="s">
         <v>18</v>
@@ -6223,10 +6253,10 @@
     </row>
     <row r="425" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A425" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B425" s="8" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C425" s="6" t="s">
         <v>18</v>
@@ -6234,10 +6264,10 @@
     </row>
     <row r="426" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A426" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B426" s="8" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="C426" s="6" t="s">
         <v>18</v>
@@ -6245,10 +6275,10 @@
     </row>
     <row r="427" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A427" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B427" s="8" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C427" s="6" t="s">
         <v>18</v>
@@ -6256,10 +6286,10 @@
     </row>
     <row r="428" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A428" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B428" s="8" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="C428" s="6" t="s">
         <v>18</v>
@@ -6267,10 +6297,10 @@
     </row>
     <row r="429" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A429" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B429" s="8" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C429" s="6" t="s">
         <v>18</v>
@@ -6278,10 +6308,10 @@
     </row>
     <row r="430" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A430" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B430" s="8" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="C430" s="6" t="s">
         <v>18</v>
@@ -6289,10 +6319,10 @@
     </row>
     <row r="431" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A431" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B431" s="8" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="C431" s="6" t="s">
         <v>18</v>
@@ -6300,10 +6330,10 @@
     </row>
     <row r="432" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A432" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B432" s="8" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C432" s="6" t="s">
         <v>18</v>
@@ -6311,10 +6341,10 @@
     </row>
     <row r="433" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A433" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B433" s="8" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="C433" s="6" t="s">
         <v>18</v>
@@ -6322,10 +6352,10 @@
     </row>
     <row r="434" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A434" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B434" s="8" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C434" s="6" t="s">
         <v>18</v>
@@ -6333,10 +6363,10 @@
     </row>
     <row r="435" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A435" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B435" s="8" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="C435" s="6" t="s">
         <v>18</v>
@@ -6344,10 +6374,10 @@
     </row>
     <row r="436" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A436" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B436" s="8" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="C436" s="6" t="s">
         <v>18</v>
@@ -6355,10 +6385,10 @@
     </row>
     <row r="437" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A437" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B437" s="8" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="C437" s="6" t="s">
         <v>18</v>
@@ -6366,10 +6396,10 @@
     </row>
     <row r="438" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A438" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B438" s="8" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="C438" s="6" t="s">
         <v>18</v>
@@ -6377,10 +6407,10 @@
     </row>
     <row r="439" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A439" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B439" s="8" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C439" s="6" t="s">
         <v>18</v>
@@ -6388,10 +6418,10 @@
     </row>
     <row r="440" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A440" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B440" s="8" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="C440" s="6" t="s">
         <v>18</v>
@@ -6399,10 +6429,10 @@
     </row>
     <row r="441" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A441" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B441" s="8" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="C441" s="6" t="s">
         <v>18</v>
@@ -6410,10 +6440,10 @@
     </row>
     <row r="442" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A442" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B442" s="8" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="C442" s="6" t="s">
         <v>18</v>
@@ -6421,10 +6451,10 @@
     </row>
     <row r="443" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A443" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B443" s="8" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C443" s="6" t="s">
         <v>18</v>
@@ -6432,10 +6462,10 @@
     </row>
     <row r="444" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A444" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B444" s="8" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="C444" s="6" t="s">
         <v>18</v>
@@ -6443,10 +6473,10 @@
     </row>
     <row r="445" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A445" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B445" s="8" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C445" s="6" t="s">
         <v>18</v>
@@ -6454,10 +6484,10 @@
     </row>
     <row r="446" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A446" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B446" s="8" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="C446" s="6" t="s">
         <v>18</v>
@@ -6465,10 +6495,10 @@
     </row>
     <row r="447" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A447" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B447" s="8" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C447" s="6" t="s">
         <v>18</v>
@@ -6476,10 +6506,10 @@
     </row>
     <row r="448" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A448" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B448" s="8" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="C448" s="6" t="s">
         <v>18</v>
@@ -6487,10 +6517,10 @@
     </row>
     <row r="449" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A449" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B449" s="8" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C449" s="6" t="s">
         <v>18</v>
@@ -6498,10 +6528,10 @@
     </row>
     <row r="450" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A450" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B450" s="8" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="C450" s="6" t="s">
         <v>18</v>
@@ -6509,10 +6539,10 @@
     </row>
     <row r="451" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A451" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B451" s="8" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="C451" s="6" t="s">
         <v>18</v>
@@ -6520,10 +6550,10 @@
     </row>
     <row r="452" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A452" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B452" s="8" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C452" s="6" t="s">
         <v>18</v>
@@ -6531,10 +6561,10 @@
     </row>
     <row r="453" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A453" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B453" s="8" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="C453" s="6" t="s">
         <v>18</v>
@@ -6542,10 +6572,10 @@
     </row>
     <row r="454" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A454" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B454" s="8" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C454" s="6" t="s">
         <v>18</v>
@@ -6553,10 +6583,10 @@
     </row>
     <row r="455" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A455" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B455" s="8" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="C455" s="6" t="s">
         <v>18</v>
@@ -6564,10 +6594,10 @@
     </row>
     <row r="456" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A456" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B456" s="8" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C456" s="6" t="s">
         <v>18</v>
@@ -6575,10 +6605,10 @@
     </row>
     <row r="457" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A457" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B457" s="8" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="C457" s="6" t="s">
         <v>18</v>
@@ -6586,10 +6616,10 @@
     </row>
     <row r="458" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A458" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B458" s="8" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C458" s="6" t="s">
         <v>18</v>
@@ -6597,10 +6627,10 @@
     </row>
     <row r="459" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A459" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B459" s="8" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="C459" s="6" t="s">
         <v>18</v>
@@ -6608,10 +6638,10 @@
     </row>
     <row r="460" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A460" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B460" s="8" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C460" s="6" t="s">
         <v>18</v>
@@ -6619,10 +6649,10 @@
     </row>
     <row r="461" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A461" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B461" s="8" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="C461" s="6" t="s">
         <v>18</v>
@@ -6630,10 +6660,10 @@
     </row>
     <row r="462" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A462" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B462" s="8" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C462" s="6" t="s">
         <v>18</v>
@@ -6641,10 +6671,10 @@
     </row>
     <row r="463" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A463" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B463" s="8" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="C463" s="6" t="s">
         <v>18</v>
@@ -6652,10 +6682,10 @@
     </row>
     <row r="464" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A464" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B464" s="8" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C464" s="6" t="s">
         <v>18</v>
@@ -6663,10 +6693,10 @@
     </row>
     <row r="465" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A465" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B465" s="8" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="C465" s="6" t="s">
         <v>18</v>
@@ -6674,10 +6704,10 @@
     </row>
     <row r="466" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A466" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B466" s="8" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C466" s="6" t="s">
         <v>18</v>
@@ -6685,10 +6715,10 @@
     </row>
     <row r="467" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A467" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B467" s="8" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="C467" s="6" t="s">
         <v>18</v>
@@ -6696,10 +6726,10 @@
     </row>
     <row r="468" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A468" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B468" s="8" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C468" s="6" t="s">
         <v>18</v>
@@ -6707,10 +6737,10 @@
     </row>
     <row r="469" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A469" s="7" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B469" s="8" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="C469" s="6" t="s">
         <v>18</v>
@@ -6727,10 +6757,10 @@
     </row>
     <row r="472" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A472" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B472" s="8" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="C472" s="6" t="s">
         <v>18</v>
@@ -6738,10 +6768,10 @@
     </row>
     <row r="473" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A473" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B473" s="8" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C473" s="6" t="s">
         <v>18</v>
@@ -6749,10 +6779,10 @@
     </row>
     <row r="474" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A474" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B474" s="8" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="C474" s="6" t="s">
         <v>18</v>
@@ -6760,10 +6790,10 @@
     </row>
     <row r="475" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A475" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B475" s="8" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C475" s="6" t="s">
         <v>18</v>
@@ -6771,10 +6801,10 @@
     </row>
     <row r="476" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A476" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B476" s="8" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="C476" s="6" t="s">
         <v>18</v>
@@ -6782,10 +6812,10 @@
     </row>
     <row r="477" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A477" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B477" s="8" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C477" s="6" t="s">
         <v>18</v>
@@ -6793,10 +6823,10 @@
     </row>
     <row r="478" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A478" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B478" s="8" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="C478" s="6" t="s">
         <v>18</v>
@@ -6804,10 +6834,10 @@
     </row>
     <row r="479" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A479" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B479" s="8" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C479" s="6" t="s">
         <v>18</v>
@@ -6815,10 +6845,10 @@
     </row>
     <row r="480" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A480" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B480" s="8" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="C480" s="6" t="s">
         <v>18</v>
@@ -6826,10 +6856,10 @@
     </row>
     <row r="481" customFormat="false" ht="21" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A481" s="7" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="B481" s="8" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C481" s="6" t="s">
         <v>18</v>
@@ -6876,418 +6906,420 @@
     <hyperlink ref="B39" r:id="rId37" display="Minimum no. of operations required to make an array palindrome"/>
     <hyperlink ref="B40" r:id="rId38" display="Median of 2 sorted arrays of equal size"/>
     <hyperlink ref="B41" r:id="rId39" display="Median of 2 sorted arrays of different size"/>
-    <hyperlink ref="B44" r:id="rId40" display="Spiral traversal on a Matrix"/>
-    <hyperlink ref="B45" r:id="rId41" display="Search an element in a matriix"/>
-    <hyperlink ref="B46" r:id="rId42" display="Find median in a row wise sorted matrix"/>
-    <hyperlink ref="B47" r:id="rId43" display="Find row with maximum no. of 1's"/>
-    <hyperlink ref="B48" r:id="rId44" display="Print elements in sorted order using row-column wise sorted matrix"/>
-    <hyperlink ref="B49" r:id="rId45" display="Maximum size rectangle"/>
-    <hyperlink ref="B50" r:id="rId46" display="Find a specific pair in matrix"/>
-    <hyperlink ref="B51" r:id="rId47" display="Rotate matrix by 90 degrees"/>
-    <hyperlink ref="B52" r:id="rId48" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
-    <hyperlink ref="B53" r:id="rId49" display="Common elements in all rows of a given matrix"/>
-    <hyperlink ref="B56" r:id="rId50" display="Reverse a String"/>
-    <hyperlink ref="D56" r:id="rId51" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/reverseString.cpp"/>
-    <hyperlink ref="B57" r:id="rId52" display="Check whether a String is Palindrome or not"/>
-    <hyperlink ref="D57" r:id="rId53" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/palindromeString.cpp"/>
-    <hyperlink ref="B58" r:id="rId54" display="Find Duplicate characters in a string"/>
-    <hyperlink ref="D58" r:id="rId55" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/noOfDuplicateInString.cpp"/>
-    <hyperlink ref="B60" r:id="rId56" display="Write a Code to check whether one string is a rotation of another"/>
-    <hyperlink ref="B61" r:id="rId57" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
-    <hyperlink ref="B62" r:id="rId58" display="Count and Say problem"/>
-    <hyperlink ref="B63" r:id="rId59" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
-    <hyperlink ref="B64" r:id="rId60" display="Find Longest Recurring Subsequence in String"/>
-    <hyperlink ref="B65" r:id="rId61" display="Print all Subsequences of a string."/>
-    <hyperlink ref="B66" r:id="rId62" display="Print all the permutations of the given string"/>
-    <hyperlink ref="B67" r:id="rId63" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
-    <hyperlink ref="B68" r:id="rId64" display="Word Wrap Problem [VERY IMP]."/>
-    <hyperlink ref="B69" r:id="rId65" display="EDIT Distance [Very Imp]"/>
-    <hyperlink ref="B70" r:id="rId66" display="Find next greater number with same set of digits. [Very Very IMP]"/>
-    <hyperlink ref="B71" r:id="rId67" display="Balanced Parenthesis problem.[Imp]"/>
-    <hyperlink ref="B72" r:id="rId68" display="Word break Problem[ Very Imp]"/>
-    <hyperlink ref="B73" r:id="rId69" display="Rabin Karp Algo"/>
-    <hyperlink ref="B74" r:id="rId70" display="KMP Algo"/>
-    <hyperlink ref="B75" r:id="rId71" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
-    <hyperlink ref="B76" r:id="rId72" display="Minimum number of bracket reversals needed to make an expression balanced."/>
-    <hyperlink ref="B77" r:id="rId73" display="Count All Palindromic Subsequence in a given String."/>
-    <hyperlink ref="B78" r:id="rId74" display="Count of number of given string in 2D character array"/>
-    <hyperlink ref="B79" r:id="rId75" display="Search a Word in a 2D Grid of characters."/>
-    <hyperlink ref="B80" r:id="rId76" display="Boyer Moore Algorithm for Pattern Searching."/>
-    <hyperlink ref="B81" r:id="rId77" display="Converting Roman Numerals to Decimal"/>
-    <hyperlink ref="B82" r:id="rId78" display="Longest Common Prefix"/>
-    <hyperlink ref="B83" r:id="rId79" display="Number of flips to make binary string alternate"/>
-    <hyperlink ref="B84" r:id="rId80" display="Find the first repeated word in string."/>
-    <hyperlink ref="B85" r:id="rId81" display="Minimum number of swaps for bracket balancing."/>
-    <hyperlink ref="B86" r:id="rId82" display="Find the longest common subsequence between two strings."/>
-    <hyperlink ref="B87" r:id="rId83" display="Program to generate all possible valid IP addresses from given  string."/>
-    <hyperlink ref="B88" r:id="rId84" display="Write a program tofind the smallest window that contains all characters of string itself."/>
-    <hyperlink ref="B89" r:id="rId85" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B90" r:id="rId86" display="Minimum characters to be added at front to make string palindrome"/>
-    <hyperlink ref="B91" r:id="rId87" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B92" r:id="rId88" display="Find the smallest window in a string containing all characters of another string"/>
-    <hyperlink ref="B93" r:id="rId89" display="Recursively remove all adjacent duplicates"/>
-    <hyperlink ref="B94" r:id="rId90" display="String matching where one string contains wildcard characters"/>
-    <hyperlink ref="B95" r:id="rId91" display="Function to find Number of customers who could not get a computer"/>
-    <hyperlink ref="B96" r:id="rId92" display="Transform One String to Another using Minimum Number of Given Operation"/>
-    <hyperlink ref="B97" r:id="rId93" display="Check if two given strings are isomorphic to each other"/>
-    <hyperlink ref="B98" r:id="rId94" display="Recursively print all sentences that can be formed from list of word lists"/>
-    <hyperlink ref="B101" r:id="rId95" display="Find first and last positions of an element in a sorted array"/>
-    <hyperlink ref="B102" r:id="rId96" display="Find a Fixed Point (Value equal to index) in a given array"/>
-    <hyperlink ref="B103" r:id="rId97" display="Search in a rotated sorted array"/>
-    <hyperlink ref="B104" r:id="rId98" display="square root of an integer"/>
-    <hyperlink ref="B105" r:id="rId99" display="Maximum and minimum of an array using minimum number of comparisons"/>
-    <hyperlink ref="B106" r:id="rId100" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
-    <hyperlink ref="B107" r:id="rId101" display="Find the repeating and the missing"/>
-    <hyperlink ref="B108" r:id="rId102" display="find majority element"/>
-    <hyperlink ref="B109" r:id="rId103" display="Searching in an array where adjacent differ by at most k"/>
-    <hyperlink ref="B110" r:id="rId104" display="find a pair with a given difference"/>
-    <hyperlink ref="B111" r:id="rId105" display="find four elements that sum to a given value"/>
-    <hyperlink ref="B112" r:id="rId106" display="maximum sum such that no 2 elements are adjacent"/>
-    <hyperlink ref="B113" r:id="rId107" display="Count triplet with sum smaller than a given value"/>
-    <hyperlink ref="B114" r:id="rId108" display="merge 2 sorted arrays"/>
-    <hyperlink ref="B115" r:id="rId109" display="print all subarrays with 0 sum"/>
-    <hyperlink ref="B116" r:id="rId110" display="Product array Puzzle"/>
-    <hyperlink ref="B117" r:id="rId111" display="Sort array according to count of set bits"/>
-    <hyperlink ref="B118" r:id="rId112" display="minimum no. of swaps required to sort the array"/>
-    <hyperlink ref="B119" r:id="rId113" display="Bishu and Soldiers"/>
-    <hyperlink ref="B120" r:id="rId114" display="Rasta and Kheshtak"/>
-    <hyperlink ref="B121" r:id="rId115" display="Kth smallest number again"/>
-    <hyperlink ref="B122" r:id="rId116" display="Find pivot element in a sorted array"/>
-    <hyperlink ref="B123" r:id="rId117" display="K-th Element of Two Sorted Arrays"/>
-    <hyperlink ref="B124" r:id="rId118" display="Aggressive cows"/>
-    <hyperlink ref="B125" r:id="rId119" display="Book Allocation Problem"/>
-    <hyperlink ref="B126" r:id="rId120" display="EKOSPOJ:"/>
-    <hyperlink ref="B127" r:id="rId121" display="Job Scheduling Algo"/>
-    <hyperlink ref="B128" r:id="rId122" display="Missing Number in AP"/>
-    <hyperlink ref="B129" r:id="rId123" display="Smallest number with atleastn trailing zeroes infactorial"/>
-    <hyperlink ref="B130" r:id="rId124" display="Painters Partition Problem:"/>
-    <hyperlink ref="B131" r:id="rId125" display="ROTI-Prata SPOJ"/>
-    <hyperlink ref="B132" r:id="rId126" display="DoubleHelix SPOJ"/>
-    <hyperlink ref="B133" r:id="rId127" display="Subset Sums"/>
-    <hyperlink ref="B134" r:id="rId128" display="Findthe inversion count"/>
-    <hyperlink ref="B135" r:id="rId129" display="Implement Merge-sort in-place"/>
-    <hyperlink ref="B136" r:id="rId130" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
-    <hyperlink ref="B139" r:id="rId131" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
-    <hyperlink ref="B140" r:id="rId132" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
-    <hyperlink ref="B141" r:id="rId133" display="Write a program to Detect loop in a linked list."/>
-    <hyperlink ref="B142" r:id="rId134" display="Write a program to Delete loop in a linked list."/>
-    <hyperlink ref="B143" r:id="rId135" display="Find the starting point of the loop. "/>
-    <hyperlink ref="B144" r:id="rId136" display="Remove Duplicates in a sorted Linked List."/>
-    <hyperlink ref="B145" r:id="rId137" display="Remove Duplicates in a Un-sorted Linked List."/>
-    <hyperlink ref="B146" r:id="rId138" display="Write a Program to Move the last element to Front in a Linked List."/>
-    <hyperlink ref="B147" r:id="rId139" display="Add “1” to a number represented as a Linked List."/>
-    <hyperlink ref="B148" r:id="rId140" display="Add two numbers represented by linked lists."/>
-    <hyperlink ref="B149" r:id="rId141" display="Intersection of two Sorted Linked List."/>
-    <hyperlink ref="B150" r:id="rId142" display="Intersection Point of two Linked Lists."/>
-    <hyperlink ref="B151" r:id="rId143" display="Merge Sort For Linked lists.[Very Important]"/>
-    <hyperlink ref="B152" r:id="rId144" display="Quicksort for Linked Lists.[Very Important]"/>
-    <hyperlink ref="B153" r:id="rId145" display="Find the middle Element of a linked list."/>
-    <hyperlink ref="B154" r:id="rId146" display="Check if a linked list is a circular linked list."/>
-    <hyperlink ref="B155" r:id="rId147" display="Split a Circular linked list into two halves."/>
-    <hyperlink ref="B156" r:id="rId148" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
-    <hyperlink ref="B157" r:id="rId149" display="Deletion from a Circular Linked List."/>
-    <hyperlink ref="B158" r:id="rId150" display="Reverse a Doubly Linked list."/>
-    <hyperlink ref="B159" r:id="rId151" display="Find pairs with a given sum in a DLL."/>
-    <hyperlink ref="B160" r:id="rId152" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
-    <hyperlink ref="B161" r:id="rId153" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
-    <hyperlink ref="B162" r:id="rId154" display="Rotate DoublyLinked list by N nodes."/>
-    <hyperlink ref="B163" r:id="rId155" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
-    <hyperlink ref="B166" r:id="rId156" display="Flatten a Linked List"/>
-    <hyperlink ref="B167" r:id="rId157" display="Sort a LL of 0's, 1's and 2's"/>
-    <hyperlink ref="B168" r:id="rId158" display="Clone a linked list with next and random pointer"/>
-    <hyperlink ref="B169" r:id="rId159" display="Merge K sorted Linked list"/>
-    <hyperlink ref="B170" r:id="rId160" display="Multiply 2 no. represented by LL"/>
-    <hyperlink ref="B171" r:id="rId161" display="Delete nodes which have a greater value on right side"/>
-    <hyperlink ref="B172" r:id="rId162" display="Segregate even and odd nodes in a Linked List"/>
-    <hyperlink ref="B173" r:id="rId163" display="Program for n’th node from the end of a Linked List"/>
-    <hyperlink ref="B174" r:id="rId164" display="Find the first non-repeating character from a stream of characters"/>
-    <hyperlink ref="B177" r:id="rId165" display="level order traversal"/>
-    <hyperlink ref="B178" r:id="rId166" display="Reverse Level Order traversal"/>
-    <hyperlink ref="B179" r:id="rId167" display="Height of a tree"/>
-    <hyperlink ref="B180" r:id="rId168" display="Diameter of a tree"/>
-    <hyperlink ref="B181" r:id="rId169" display="Mirror of a tree"/>
-    <hyperlink ref="B182" r:id="rId170" display="Inorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B183" r:id="rId171" display="Preorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B184" r:id="rId172" display="Postorder Traversal of a tree both using recursion and Iteration"/>
-    <hyperlink ref="B185" r:id="rId173" display="Left View of a tree"/>
-    <hyperlink ref="B186" r:id="rId174" display="Right View of Tree"/>
-    <hyperlink ref="B187" r:id="rId175" display="Top View of a tree"/>
-    <hyperlink ref="B188" r:id="rId176" display="Bottom View of a tree"/>
-    <hyperlink ref="B189" r:id="rId177" display="Zig-Zag traversal of a binary tree"/>
-    <hyperlink ref="B190" r:id="rId178" display="Check if a tree is balanced or not"/>
-    <hyperlink ref="B191" r:id="rId179" display="Diagnol Traversal of a Binary tree"/>
-    <hyperlink ref="B192" r:id="rId180" display="Boundary traversal of a Binary tree"/>
-    <hyperlink ref="B193" r:id="rId181" display="Construct Binary Tree from String with Bracket Representation"/>
-    <hyperlink ref="B194" r:id="rId182" display="Convert Binary tree into Doubly Linked List"/>
-    <hyperlink ref="B195" r:id="rId183" display="Convert Binary tree into Sum tree"/>
-    <hyperlink ref="B196" r:id="rId184" display="Construct Binary tree from Inorder and preorder traversal"/>
-    <hyperlink ref="B197" r:id="rId185" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
-    <hyperlink ref="B198" r:id="rId186" display="Check if Binary tree is Sum tree or not"/>
-    <hyperlink ref="B199" r:id="rId187" display="Check if all leaf nodes are at same level or not"/>
-    <hyperlink ref="B200" r:id="rId188" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
-    <hyperlink ref="B201" r:id="rId189" display="Check if 2 trees are mirror or not"/>
-    <hyperlink ref="B202" r:id="rId190" display="Sum of Nodes on the Longest path from root to leaf node "/>
-    <hyperlink ref="B203" r:id="rId191" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
-    <hyperlink ref="B204" r:id="rId192" display="Find Largest subtree sum in a tree"/>
-    <hyperlink ref="B205" r:id="rId193" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
-    <hyperlink ref="B206" r:id="rId194" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
-    <hyperlink ref="B207" r:id="rId195" display="Find LCA in a Binary tree"/>
-    <hyperlink ref="B208" r:id="rId196" display="Find distance between 2 nodes in a Binary tree"/>
-    <hyperlink ref="B209" r:id="rId197" display="Kth Ancestor of node in a Binary tree"/>
-    <hyperlink ref="B210" r:id="rId198" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
-    <hyperlink ref="B211" r:id="rId199" display="Tree Isomorphism Problem"/>
-    <hyperlink ref="B214" r:id="rId200" display="Fina a value in a BST"/>
-    <hyperlink ref="B215" r:id="rId201" display="Deletion of a node in a BST"/>
-    <hyperlink ref="B216" r:id="rId202" display="Find min and max value in a BST"/>
-    <hyperlink ref="B217" r:id="rId203" display="Find inorder successor and inorder predecessor in a BST"/>
-    <hyperlink ref="B218" r:id="rId204" display="Check if a tree is a BST or not "/>
-    <hyperlink ref="B219" r:id="rId205" display="Populate Inorder successor of all nodes"/>
-    <hyperlink ref="B220" r:id="rId206" display="Find LCA  of 2 nodes in a BST"/>
-    <hyperlink ref="B221" r:id="rId207" display="Construct BST from preorder traversal"/>
-    <hyperlink ref="B222" r:id="rId208" display="Convert Binary tree into BST"/>
-    <hyperlink ref="B223" r:id="rId209" display="Convert a normal BST into a Balanced BST"/>
-    <hyperlink ref="B224" r:id="rId210" display="Merge two BST [ V.V.V&gt;IMP ]"/>
-    <hyperlink ref="B225" r:id="rId211" display="Find Kth largest element in a BST"/>
-    <hyperlink ref="B226" r:id="rId212" display="Find Kth smallest element in a BST"/>
-    <hyperlink ref="B227" r:id="rId213" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
-    <hyperlink ref="B228" r:id="rId214" display="Find the median of BST in O(n) time and O(1) space"/>
-    <hyperlink ref="B229" r:id="rId215" display="Count BST ndoes that lie in a given range"/>
-    <hyperlink ref="B230" r:id="rId216" display="Replace every element with the least greater element on its right"/>
-    <hyperlink ref="B231" r:id="rId217" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
-    <hyperlink ref="B232" r:id="rId218" display="Check preorder is valid or not"/>
-    <hyperlink ref="B233" r:id="rId219" display="Check whether BST contains Dead end"/>
-    <hyperlink ref="B234" r:id="rId220" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
-    <hyperlink ref="B235" r:id="rId221" display="Flatten BST to sorted list"/>
-    <hyperlink ref="B238" r:id="rId222" display="Activity Selection Problem"/>
-    <hyperlink ref="B239" r:id="rId223" display="Job SequencingProblem"/>
-    <hyperlink ref="B240" r:id="rId224" display="Huffman Coding"/>
-    <hyperlink ref="B241" r:id="rId225" display="Water Connection Problem"/>
-    <hyperlink ref="B242" r:id="rId226" display="Fractional Knapsack Problem"/>
-    <hyperlink ref="B243" r:id="rId227" display="Greedy Algorithm to find Minimum number of Coins"/>
-    <hyperlink ref="B244" r:id="rId228" display="Maximum trains for which stoppage can be provided"/>
-    <hyperlink ref="B245" r:id="rId229" display="Minimum Platforms Problem"/>
-    <hyperlink ref="B246" r:id="rId230" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
-    <hyperlink ref="B247" r:id="rId231" display="Find the minimum and maximum amount to buy all N candies"/>
-    <hyperlink ref="B248" r:id="rId232" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B249" r:id="rId233" display="Minimum Cost to cut a board into squares"/>
-    <hyperlink ref="B250" r:id="rId234" display="Check if it is possible to survive on Island"/>
-    <hyperlink ref="B251" r:id="rId235" display="Find maximum meetings in one room"/>
-    <hyperlink ref="B252" r:id="rId236" display="Maximum product subset of an array"/>
-    <hyperlink ref="B253" r:id="rId237" display="Maximize array sum after K negations"/>
-    <hyperlink ref="B254" r:id="rId238" display="Maximize the sum of arr[i]*i"/>
-    <hyperlink ref="B255" r:id="rId239" display="Maximum sum of absolute difference of an array"/>
-    <hyperlink ref="B256" r:id="rId240" display="Maximize sum of consecutive differences in a circular array"/>
-    <hyperlink ref="B257" r:id="rId241" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
-    <hyperlink ref="B258" r:id="rId242" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
-    <hyperlink ref="B259" r:id="rId243" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
-    <hyperlink ref="B260" r:id="rId244" display="Smallest subset with sum greater than all other elements"/>
-    <hyperlink ref="B261" r:id="rId245" display="Chocolate Distribution Problem"/>
-    <hyperlink ref="B262" r:id="rId246" display="DEFKIN -Defense of a Kingdom"/>
-    <hyperlink ref="B263" r:id="rId247" display="DIEHARD -DIE HARD"/>
-    <hyperlink ref="B264" r:id="rId248" display="GERGOVIA -Wine trading in Gergovia"/>
-    <hyperlink ref="B265" r:id="rId249" display="Picking Up Chicks"/>
-    <hyperlink ref="B266" r:id="rId250" display="CHOCOLA –Chocolate"/>
-    <hyperlink ref="B267" r:id="rId251" display="ARRANGE -Arranging Amplifiers"/>
-    <hyperlink ref="B268" r:id="rId252" display="K Centers Problem"/>
-    <hyperlink ref="B269" r:id="rId253" display="Minimum Cost of ropes"/>
-    <hyperlink ref="B270" r:id="rId254" display="Find smallest number with given number of digits and sum of digits"/>
-    <hyperlink ref="B271" r:id="rId255" display="Rearrange characters in a string such that no two adjacent are same"/>
-    <hyperlink ref="B272" r:id="rId256" display="Find maximum sum possible equal sum of three stacks"/>
-    <hyperlink ref="B275" r:id="rId257" display="Rat in a maze Problem"/>
-    <hyperlink ref="B276" r:id="rId258" display="Printing all solutions in N-Queen Problem"/>
-    <hyperlink ref="B277" r:id="rId259" display="Word Break Problem using Backtracking"/>
-    <hyperlink ref="B278" r:id="rId260" display="Remove Invalid Parentheses"/>
-    <hyperlink ref="B279" r:id="rId261" display="Sudoku Solver"/>
-    <hyperlink ref="B280" r:id="rId262" display="m Coloring Problem"/>
-    <hyperlink ref="B281" r:id="rId263" display="Print all palindromic partitions of a string"/>
-    <hyperlink ref="B282" r:id="rId264" display="Subset Sum Problem"/>
-    <hyperlink ref="B283" r:id="rId265" display="The Knight’s tour problem"/>
-    <hyperlink ref="B284" r:id="rId266" display="Tug of War"/>
-    <hyperlink ref="B285" r:id="rId267" display="Find shortest safe route in a path with landmines"/>
-    <hyperlink ref="B286" r:id="rId268" display="Combinational Sum"/>
-    <hyperlink ref="B287" r:id="rId269" display="Find Maximum number possible by doing at-most K swaps"/>
-    <hyperlink ref="B288" r:id="rId270" display="Print all permutations of a string "/>
-    <hyperlink ref="B289" r:id="rId271" display="Find if there is a path of more than k length from a source"/>
-    <hyperlink ref="B290" r:id="rId272" display="Longest Possible Route in a Matrix with Hurdles"/>
-    <hyperlink ref="B291" r:id="rId273" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
-    <hyperlink ref="B292" r:id="rId274" display="Partition of a set intoK subsets with equal sum"/>
-    <hyperlink ref="B293" r:id="rId275" display="Find the K-th Permutation Sequence of first N natural numbers"/>
-    <hyperlink ref="B296" r:id="rId276" display=" Implement Stack from Scratch"/>
-    <hyperlink ref="B297" r:id="rId277" display=" Implement Queue from Scratch"/>
-    <hyperlink ref="B298" r:id="rId278" display="Implement 2 stack in an array"/>
-    <hyperlink ref="B299" r:id="rId279" display="find the middle element of a stack"/>
-    <hyperlink ref="B300" r:id="rId280" display="Implement &quot;N&quot; stacks in an Array"/>
-    <hyperlink ref="B301" r:id="rId281" display="Check the expression has valid or Balanced parenthesis or not."/>
-    <hyperlink ref="B302" r:id="rId282" display="Reverse a String using Stack"/>
-    <hyperlink ref="B303" r:id="rId283" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
-    <hyperlink ref="B304" r:id="rId284" display="Find the next Greater element"/>
-    <hyperlink ref="B305" r:id="rId285" display="The celebrity Problem"/>
-    <hyperlink ref="B306" r:id="rId286" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
-    <hyperlink ref="B307" r:id="rId287" display="Evaluation of Postfix expression"/>
-    <hyperlink ref="B308" r:id="rId288" display="Implement a method to insert an element at its bottom without using any other data structure."/>
-    <hyperlink ref="B309" r:id="rId289" display="Reverse a stack using recursion"/>
-    <hyperlink ref="B310" r:id="rId290" display="Sort a Stack using recursion"/>
-    <hyperlink ref="B311" r:id="rId291" display="Merge Overlapping Intervals"/>
-    <hyperlink ref="B312" r:id="rId292" display="Largest rectangular Area in Histogram"/>
-    <hyperlink ref="B313" r:id="rId293" display="Length of the Longest Valid Substring"/>
-    <hyperlink ref="B314" r:id="rId294" display="Expression contains redundant bracket or not"/>
-    <hyperlink ref="B315" r:id="rId295" display="Implement Stack using Queue"/>
-    <hyperlink ref="B316" r:id="rId296" display="Implement Stack using Deque"/>
-    <hyperlink ref="B317" r:id="rId297" display="Stack Permutations (Check if an array is stack permutation of other)"/>
-    <hyperlink ref="B318" r:id="rId298" display="Implement Queue using Stack  "/>
-    <hyperlink ref="B319" r:id="rId299" display="Implement &quot;n&quot; queue in an array"/>
-    <hyperlink ref="B320" r:id="rId300" display="Implement a Circular queue"/>
-    <hyperlink ref="B321" r:id="rId301" display="LRU Cache Implementationa"/>
-    <hyperlink ref="B322" r:id="rId302" display="Reverse a Queue using recursion"/>
-    <hyperlink ref="B323" r:id="rId303" display="Reverse the first “K” elements of a queue"/>
-    <hyperlink ref="B324" r:id="rId304" display="Interleave the first half of the queue with second half"/>
-    <hyperlink ref="B325" r:id="rId305" display="Find the first circular tour that visits all Petrol Pumps"/>
-    <hyperlink ref="B326" r:id="rId306" display="Minimum time required to rot all oranges"/>
-    <hyperlink ref="B327" r:id="rId307" display="Distance of nearest cell having 1 in a binary matrix"/>
-    <hyperlink ref="B328" r:id="rId308" display="First negative integer in every window of size “k”"/>
-    <hyperlink ref="B329" r:id="rId309" display="Check if all levels of two trees are anagrams or not."/>
-    <hyperlink ref="B330" r:id="rId310" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
-    <hyperlink ref="B331" r:id="rId311" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
-    <hyperlink ref="B332" r:id="rId312" display="Queue based approach or first non-repeating character in a stream."/>
-    <hyperlink ref="B333" r:id="rId313" display="Next Smaller Element"/>
-    <hyperlink ref="B336" r:id="rId314" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
-    <hyperlink ref="B337" r:id="rId315" display="Sort an Array using heap. (HeapSort)"/>
-    <hyperlink ref="B338" r:id="rId316" display="Maximum of all subarrays of size k."/>
-    <hyperlink ref="B339" r:id="rId317" display="“k” largest element in an array"/>
-    <hyperlink ref="B340" r:id="rId318" display="Kth smallest and largest element in an unsorted array"/>
-    <hyperlink ref="B341" r:id="rId319" display="Merge “K” sorted arrays. [ IMP ]"/>
-    <hyperlink ref="B342" r:id="rId320" display="Merge 2 Binary Max Heaps"/>
-    <hyperlink ref="B343" r:id="rId321" display="Kth largest sum continuous subarrays"/>
-    <hyperlink ref="B344" r:id="rId322" display="Leetcode- reorganize strings"/>
-    <hyperlink ref="B345" r:id="rId323" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
-    <hyperlink ref="B346" r:id="rId324" display="Smallest range in “K” Lists"/>
-    <hyperlink ref="B347" r:id="rId325" display="Median in a stream of Integers"/>
-    <hyperlink ref="B348" r:id="rId326" display="Check if a Binary Tree is Heap"/>
-    <hyperlink ref="B349" r:id="rId327" display="Connect “n” ropes with minimum cost"/>
-    <hyperlink ref="B350" r:id="rId328" display="Convert BST to Min Heap"/>
-    <hyperlink ref="B351" r:id="rId329" display="Convert min heap to max heap"/>
-    <hyperlink ref="B352" r:id="rId330" display="Rearrange characters in a string such that no two adjacent are same."/>
-    <hyperlink ref="B353" r:id="rId331" display="Minimum sum of two numbers formed from digits of an array"/>
-    <hyperlink ref="B356" r:id="rId332" display="Create a Graph, print it"/>
-    <hyperlink ref="B357" r:id="rId333" display="Implement BFS algorithm "/>
-    <hyperlink ref="B358" r:id="rId334" display="Implement DFS Algo "/>
-    <hyperlink ref="B359" r:id="rId335" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B360" r:id="rId336" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
-    <hyperlink ref="B361" r:id="rId337" display="Search in a Maze"/>
-    <hyperlink ref="B362" r:id="rId338" display="Minimum Step by Knight"/>
-    <hyperlink ref="B363" r:id="rId339" display="flood fill algo"/>
-    <hyperlink ref="B364" r:id="rId340" display="Clone a graph"/>
-    <hyperlink ref="B365" r:id="rId341" display="Making wired Connections"/>
-    <hyperlink ref="B366" r:id="rId342" display="word Ladder "/>
-    <hyperlink ref="B367" r:id="rId343" display="Dijkstra algo"/>
-    <hyperlink ref="B368" r:id="rId344" display="Implement Topological Sort "/>
-    <hyperlink ref="B369" r:id="rId345" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
-    <hyperlink ref="B370" r:id="rId346" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
-    <hyperlink ref="B371" r:id="rId347" display="Find the no. of Isalnds"/>
-    <hyperlink ref="B372" r:id="rId348" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
-    <hyperlink ref="B373" r:id="rId349" display="Implement Kruksal’sAlgorithm"/>
-    <hyperlink ref="B374" r:id="rId350" display="Implement Prim’s Algorithm"/>
-    <hyperlink ref="B375" r:id="rId351" display="Total no. of Spanning tree in a graph"/>
-    <hyperlink ref="B376" r:id="rId352" display="Implement Bellman Ford Algorithm"/>
-    <hyperlink ref="B377" r:id="rId353" display="Implement Floyd warshallAlgorithm"/>
-    <hyperlink ref="B378" r:id="rId354" display="Travelling Salesman Problem"/>
-    <hyperlink ref="B379" r:id="rId355" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
-    <hyperlink ref="B380" r:id="rId356" display="Snake and Ladders Problem"/>
-    <hyperlink ref="B381" r:id="rId357" display="Find bridge in a graph"/>
-    <hyperlink ref="B382" r:id="rId358" display="Count Strongly connected Components(Kosaraju Algo)"/>
-    <hyperlink ref="B383" r:id="rId359" display="Check whether a graph is Bipartite or Not"/>
-    <hyperlink ref="B384" r:id="rId360" display="Detect Negative cycle in a graph"/>
-    <hyperlink ref="B385" r:id="rId361" display="Longest path in a Directed Acyclic Graph"/>
-    <hyperlink ref="B386" r:id="rId362" display="Journey to the Moon"/>
-    <hyperlink ref="B387" r:id="rId363" display="Cheapest Flights Within K Stops"/>
-    <hyperlink ref="B388" r:id="rId364" display="Oliver and the Game"/>
-    <hyperlink ref="B389" r:id="rId365" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B390" r:id="rId366" display="Water Jug problem using BFS"/>
-    <hyperlink ref="B391" r:id="rId367" display="Find if there is a path of more thank length from a source"/>
-    <hyperlink ref="B392" r:id="rId368" display="M-ColouringProblem"/>
-    <hyperlink ref="B393" r:id="rId369" display="Minimum edges to reverse o make path from source to destination"/>
-    <hyperlink ref="B394" r:id="rId370" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
-    <hyperlink ref="B395" r:id="rId371" display="Vertex Cover Problem"/>
-    <hyperlink ref="B396" r:id="rId372" display="Chinese Postman or Route Inspection"/>
-    <hyperlink ref="B397" r:id="rId373" display="Number of Triangles in a Directed and Undirected Graph"/>
-    <hyperlink ref="B398" r:id="rId374" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
-    <hyperlink ref="B399" r:id="rId375" display="Two Clique Problem"/>
-    <hyperlink ref="B402" r:id="rId376" display="Construct a trie from scratch"/>
-    <hyperlink ref="B403" r:id="rId377" display="Find shortest unique prefix for every word in a given list"/>
-    <hyperlink ref="B404" r:id="rId378" display="Word Break Problem | (Trie solution)"/>
-    <hyperlink ref="B405" r:id="rId379" display="Given a sequence of words, print all anagrams together"/>
-    <hyperlink ref="B406" r:id="rId380" display="Implement a Phone Directory"/>
-    <hyperlink ref="B407" r:id="rId381" display="Print unique rows in a given boolean matrix"/>
-    <hyperlink ref="B410" r:id="rId382" display="Coin ChangeProblem"/>
-    <hyperlink ref="B411" r:id="rId383" display="Knapsack Problem"/>
-    <hyperlink ref="B412" r:id="rId384" display="Binomial CoefficientProblem"/>
-    <hyperlink ref="B413" r:id="rId385" display="Permutation CoefficientProblem"/>
-    <hyperlink ref="B414" r:id="rId386" display="Program for nth Catalan Number"/>
-    <hyperlink ref="B415" r:id="rId387" display="Matrix Chain Multiplication "/>
-    <hyperlink ref="B416" r:id="rId388" display="Edit Distance"/>
-    <hyperlink ref="B417" r:id="rId389" display="Subset Sum Problem"/>
-    <hyperlink ref="B418" r:id="rId390" display="Friends Pairing Problem"/>
-    <hyperlink ref="B419" r:id="rId391" display="Gold Mine Problem"/>
-    <hyperlink ref="B420" r:id="rId392" display="Assembly Line SchedulingProblem"/>
-    <hyperlink ref="B421" r:id="rId393" display="Painting the Fenceproblem"/>
-    <hyperlink ref="B422" r:id="rId394" display="Maximize The Cut Segments"/>
-    <hyperlink ref="B423" r:id="rId395" display="Longest Common Subsequence"/>
-    <hyperlink ref="B424" r:id="rId396" display="Longest Repeated Subsequence"/>
-    <hyperlink ref="B425" r:id="rId397" display="Longest Increasing Subsequence"/>
-    <hyperlink ref="B426" r:id="rId398" display="Space Optimized Solution of LCS"/>
-    <hyperlink ref="B427" r:id="rId399" display="LCS (Longest Common Subsequence) of three strings"/>
-    <hyperlink ref="B428" r:id="rId400" display="Maximum Sum Increasing Subsequence"/>
-    <hyperlink ref="B429" r:id="rId401" display="Count all subsequences having product less than K"/>
-    <hyperlink ref="B430" r:id="rId402" display="Longest subsequence such that difference between adjacent is one"/>
-    <hyperlink ref="B431" r:id="rId403" display="Maximum subsequence sum such that no three are consecutive"/>
-    <hyperlink ref="B432" r:id="rId404" display="Egg Dropping Problem"/>
-    <hyperlink ref="B433" r:id="rId405" display="Maximum Length Chain of Pairs"/>
-    <hyperlink ref="B434" r:id="rId406" display="Maximum size square sub-matrix with all 1s"/>
-    <hyperlink ref="B435" r:id="rId407" display="Maximum sum of pairs with specific difference"/>
-    <hyperlink ref="B436" r:id="rId408" display="Min Cost PathProblem"/>
-    <hyperlink ref="B437" r:id="rId409" display="Maximum difference of zeros and ones in binary string"/>
-    <hyperlink ref="B438" r:id="rId410" display="Minimum number of jumps to reach end"/>
-    <hyperlink ref="B439" r:id="rId411" display="Minimum cost to fill given weight in a bag"/>
-    <hyperlink ref="B440" r:id="rId412" display="Minimum removals from array to make max –min &lt;= K"/>
-    <hyperlink ref="B441" r:id="rId413" display="Longest Common Substring"/>
-    <hyperlink ref="B442" r:id="rId414" display="Count number of ways to reacha given score in a game"/>
-    <hyperlink ref="B443" r:id="rId415" display="Count Balanced Binary Trees of Height h"/>
-    <hyperlink ref="B444" r:id="rId416" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
-    <hyperlink ref="B445" r:id="rId417" display="Smallest sum contiguous subarray"/>
-    <hyperlink ref="B446" r:id="rId418" display="Unbounded Knapsack (Repetition of items allowed)"/>
-    <hyperlink ref="B447" r:id="rId419" display="Word Break Problem"/>
-    <hyperlink ref="B448" r:id="rId420" display="Largest Independent Set Problem"/>
-    <hyperlink ref="B449" r:id="rId421" display="Partition problem"/>
-    <hyperlink ref="B450" r:id="rId422" display="Longest Palindromic Subsequence"/>
-    <hyperlink ref="B451" r:id="rId423" display="Count All Palindromic Subsequence in a given String"/>
-    <hyperlink ref="B452" r:id="rId424" display="Longest Palindromic Substring"/>
-    <hyperlink ref="B453" r:id="rId425" display="Longest alternating subsequence"/>
-    <hyperlink ref="B454" r:id="rId426" display="Weighted Job Scheduling"/>
-    <hyperlink ref="B455" r:id="rId427" display="Coin game winner where every player has three choices"/>
-    <hyperlink ref="B456" r:id="rId428" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
-    <hyperlink ref="B457" r:id="rId429" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
-    <hyperlink ref="B458" r:id="rId430" display="Optimal Strategy for a Game"/>
-    <hyperlink ref="B459" r:id="rId431" display="Optimal Binary Search Tree"/>
-    <hyperlink ref="B460" r:id="rId432" display="Palindrome PartitioningProblem"/>
-    <hyperlink ref="B461" r:id="rId433" display="Word Wrap Problem"/>
-    <hyperlink ref="B462" r:id="rId434" display="Mobile Numeric Keypad Problem [ IMP ]"/>
-    <hyperlink ref="B463" r:id="rId435" display="Boolean Parenthesization Problem"/>
-    <hyperlink ref="B464" r:id="rId436" display="Largest rectangular sub-matrix whose sum is 0"/>
-    <hyperlink ref="B465" r:id="rId437" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
-    <hyperlink ref="B466" r:id="rId438" display="Maximum sum rectangle in a 2D matrix"/>
-    <hyperlink ref="B467" r:id="rId439" display="Maximum profit by buying and selling a share at most k times"/>
-    <hyperlink ref="B468" r:id="rId440" display="Find if a string is interleaved of two other strings"/>
-    <hyperlink ref="B469" r:id="rId441" display="Maximum Length of Pair Chain"/>
-    <hyperlink ref="B472" r:id="rId442" display="Count set bits in an integer"/>
-    <hyperlink ref="B473" r:id="rId443" display="Find the two non-repeating elements in an array of repeating elements"/>
-    <hyperlink ref="B474" r:id="rId444" display="Count number of bits to be flipped to convert A to B"/>
-    <hyperlink ref="B475" r:id="rId445" display="Count total set bits in all numbers from 1 to n"/>
-    <hyperlink ref="B476" r:id="rId446" display="Program to find whether a no is power of two"/>
-    <hyperlink ref="B477" r:id="rId447" display="Find position of the only set bit"/>
-    <hyperlink ref="B478" r:id="rId448" display="Copy set bits in a range"/>
-    <hyperlink ref="B479" r:id="rId449" display="Divide two integers without using multiplication, division and mod operator"/>
-    <hyperlink ref="B480" r:id="rId450" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
-    <hyperlink ref="B481" r:id="rId451" display="Power Set"/>
+    <hyperlink ref="D42" r:id="rId40" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/findAllDuplicatesInAnArray.cpp"/>
+    <hyperlink ref="B44" r:id="rId41" display="Spiral traversal on a Matrix"/>
+    <hyperlink ref="B45" r:id="rId42" display="Search an element in a matriix"/>
+    <hyperlink ref="B46" r:id="rId43" display="Find median in a row wise sorted matrix"/>
+    <hyperlink ref="B47" r:id="rId44" display="Find row with maximum no. of 1's"/>
+    <hyperlink ref="B48" r:id="rId45" display="Print elements in sorted order using row-column wise sorted matrix"/>
+    <hyperlink ref="B49" r:id="rId46" display="Maximum size rectangle"/>
+    <hyperlink ref="B50" r:id="rId47" display="Find a specific pair in matrix"/>
+    <hyperlink ref="B51" r:id="rId48" display="Rotate matrix by 90 degrees"/>
+    <hyperlink ref="B52" r:id="rId49" display="Kth smallest element in a row-cpumn wise sorted matrix"/>
+    <hyperlink ref="B53" r:id="rId50" display="Common elements in all rows of a given matrix"/>
+    <hyperlink ref="B56" r:id="rId51" display="Reverse a String"/>
+    <hyperlink ref="D56" r:id="rId52" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/reverseString.cpp"/>
+    <hyperlink ref="B57" r:id="rId53" display="Check whether a String is Palindrome or not"/>
+    <hyperlink ref="D57" r:id="rId54" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/palindromeString.cpp"/>
+    <hyperlink ref="B58" r:id="rId55" display="Find Duplicate characters in a string"/>
+    <hyperlink ref="D58" r:id="rId56" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/noOfDuplicateInString.cpp"/>
+    <hyperlink ref="B60" r:id="rId57" display="Write a Code to check whether one string is a rotation of another"/>
+    <hyperlink ref="B61" r:id="rId58" display="Write a Program to check whether a string is a valid shuffle of two strings or not"/>
+    <hyperlink ref="B62" r:id="rId59" display="Count and Say problem"/>
+    <hyperlink ref="B63" r:id="rId60" display="Write a program to find the longest Palindrome in a string.[ Longest palindromic Substring]"/>
+    <hyperlink ref="B64" r:id="rId61" display="Find Longest Recurring Subsequence in String"/>
+    <hyperlink ref="B65" r:id="rId62" display="Print all Subsequences of a string."/>
+    <hyperlink ref="B66" r:id="rId63" display="Print all the permutations of the given string"/>
+    <hyperlink ref="B67" r:id="rId64" display="Split the Binary string into two substring with equal 0’s and 1’s"/>
+    <hyperlink ref="B68" r:id="rId65" display="Word Wrap Problem [VERY IMP]."/>
+    <hyperlink ref="B69" r:id="rId66" display="EDIT Distance [Very Imp]"/>
+    <hyperlink ref="B70" r:id="rId67" display="Find next greater number with same set of digits. [Very Very IMP]"/>
+    <hyperlink ref="B71" r:id="rId68" display="Balanced Parenthesis problem.[Imp]"/>
+    <hyperlink ref="B72" r:id="rId69" display="Word break Problem[ Very Imp]"/>
+    <hyperlink ref="B73" r:id="rId70" display="Rabin Karp Algo"/>
+    <hyperlink ref="B74" r:id="rId71" display="KMP Algo"/>
+    <hyperlink ref="B75" r:id="rId72" display="Convert a Sentence into its equivalent mobile numeric keypad sequence."/>
+    <hyperlink ref="B76" r:id="rId73" display="Minimum number of bracket reversals needed to make an expression balanced."/>
+    <hyperlink ref="B77" r:id="rId74" display="Count All Palindromic Subsequence in a given String."/>
+    <hyperlink ref="B78" r:id="rId75" display="Count of number of given string in 2D character array"/>
+    <hyperlink ref="B79" r:id="rId76" display="Search a Word in a 2D Grid of characters."/>
+    <hyperlink ref="B80" r:id="rId77" display="Boyer Moore Algorithm for Pattern Searching."/>
+    <hyperlink ref="B81" r:id="rId78" display="Converting Roman Numerals to Decimal"/>
+    <hyperlink ref="B82" r:id="rId79" display="Longest Common Prefix"/>
+    <hyperlink ref="B83" r:id="rId80" display="Number of flips to make binary string alternate"/>
+    <hyperlink ref="B84" r:id="rId81" display="Find the first repeated word in string."/>
+    <hyperlink ref="B85" r:id="rId82" display="Minimum number of swaps for bracket balancing."/>
+    <hyperlink ref="B86" r:id="rId83" display="Find the longest common subsequence between two strings."/>
+    <hyperlink ref="B87" r:id="rId84" display="Program to generate all possible valid IP addresses from given  string."/>
+    <hyperlink ref="B88" r:id="rId85" display="Write a program tofind the smallest window that contains all characters of string itself."/>
+    <hyperlink ref="B89" r:id="rId86" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B90" r:id="rId87" display="Minimum characters to be added at front to make string palindrome"/>
+    <hyperlink ref="B91" r:id="rId88" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B92" r:id="rId89" display="Find the smallest window in a string containing all characters of another string"/>
+    <hyperlink ref="B93" r:id="rId90" display="Recursively remove all adjacent duplicates"/>
+    <hyperlink ref="B94" r:id="rId91" display="String matching where one string contains wildcard characters"/>
+    <hyperlink ref="B95" r:id="rId92" display="Function to find Number of customers who could not get a computer"/>
+    <hyperlink ref="B96" r:id="rId93" display="Transform One String to Another using Minimum Number of Given Operation"/>
+    <hyperlink ref="B97" r:id="rId94" display="Check if two given strings are isomorphic to each other"/>
+    <hyperlink ref="B98" r:id="rId95" display="Recursively print all sentences that can be formed from list of word lists"/>
+    <hyperlink ref="B101" r:id="rId96" display="Find first and last positions of an element in a sorted array"/>
+    <hyperlink ref="B102" r:id="rId97" display="Find a Fixed Point (Value equal to index) in a given array"/>
+    <hyperlink ref="B103" r:id="rId98" display="Search in a rotated sorted array"/>
+    <hyperlink ref="B104" r:id="rId99" display="square root of an integer"/>
+    <hyperlink ref="B105" r:id="rId100" display="Maximum and minimum of an array using minimum number of comparisons"/>
+    <hyperlink ref="B106" r:id="rId101" location=":~:text=We%20need%20to%20find%20a,set%20of%20points%20is%20minimum.&amp;text=In%20above%20figure%20optimum%20location,is%20minimum%20obtainable%20total%20distance." display="Optimum location of point to minimize total distance"/>
+    <hyperlink ref="B107" r:id="rId102" display="Find the repeating and the missing"/>
+    <hyperlink ref="B108" r:id="rId103" display="find majority element"/>
+    <hyperlink ref="B109" r:id="rId104" display="Searching in an array where adjacent differ by at most k"/>
+    <hyperlink ref="B110" r:id="rId105" display="find a pair with a given difference"/>
+    <hyperlink ref="B111" r:id="rId106" display="find four elements that sum to a given value"/>
+    <hyperlink ref="B112" r:id="rId107" display="maximum sum such that no 2 elements are adjacent"/>
+    <hyperlink ref="B113" r:id="rId108" display="Count triplet with sum smaller than a given value"/>
+    <hyperlink ref="B114" r:id="rId109" display="merge 2 sorted arrays"/>
+    <hyperlink ref="B115" r:id="rId110" display="print all subarrays with 0 sum"/>
+    <hyperlink ref="B116" r:id="rId111" display="Product array Puzzle"/>
+    <hyperlink ref="B117" r:id="rId112" display="Sort array according to count of set bits"/>
+    <hyperlink ref="B118" r:id="rId113" display="minimum no. of swaps required to sort the array"/>
+    <hyperlink ref="B119" r:id="rId114" display="Bishu and Soldiers"/>
+    <hyperlink ref="B120" r:id="rId115" display="Rasta and Kheshtak"/>
+    <hyperlink ref="B121" r:id="rId116" display="Kth smallest number again"/>
+    <hyperlink ref="B122" r:id="rId117" display="Find pivot element in a sorted array"/>
+    <hyperlink ref="B123" r:id="rId118" display="K-th Element of Two Sorted Arrays"/>
+    <hyperlink ref="B124" r:id="rId119" display="Aggressive cows"/>
+    <hyperlink ref="B125" r:id="rId120" display="Book Allocation Problem"/>
+    <hyperlink ref="B126" r:id="rId121" display="EKOSPOJ:"/>
+    <hyperlink ref="B127" r:id="rId122" display="Job Scheduling Algo"/>
+    <hyperlink ref="B128" r:id="rId123" display="Missing Number in AP"/>
+    <hyperlink ref="B129" r:id="rId124" display="Smallest number with atleastn trailing zeroes infactorial"/>
+    <hyperlink ref="B130" r:id="rId125" display="Painters Partition Problem:"/>
+    <hyperlink ref="B131" r:id="rId126" display="ROTI-Prata SPOJ"/>
+    <hyperlink ref="B132" r:id="rId127" display="DoubleHelix SPOJ"/>
+    <hyperlink ref="B133" r:id="rId128" display="Subset Sums"/>
+    <hyperlink ref="B134" r:id="rId129" display="Findthe inversion count"/>
+    <hyperlink ref="B135" r:id="rId130" display="Implement Merge-sort in-place"/>
+    <hyperlink ref="B136" r:id="rId131" display="Partitioning and Sorting Arrays with Many Repeated Entries"/>
+    <hyperlink ref="B139" r:id="rId132" display="Write a Program to reverse the Linked List. (Both Iterative and recursive)"/>
+    <hyperlink ref="B140" r:id="rId133" display="Reverse a Linked List in group of Given Size. [Very Imp]"/>
+    <hyperlink ref="B141" r:id="rId134" display="Write a program to Detect loop in a linked list."/>
+    <hyperlink ref="B142" r:id="rId135" display="Write a program to Delete loop in a linked list."/>
+    <hyperlink ref="B143" r:id="rId136" display="Find the starting point of the loop. "/>
+    <hyperlink ref="B144" r:id="rId137" display="Remove Duplicates in a sorted Linked List."/>
+    <hyperlink ref="B145" r:id="rId138" display="Remove Duplicates in a Un-sorted Linked List."/>
+    <hyperlink ref="B146" r:id="rId139" display="Write a Program to Move the last element to Front in a Linked List."/>
+    <hyperlink ref="B147" r:id="rId140" display="Add “1” to a number represented as a Linked List."/>
+    <hyperlink ref="B148" r:id="rId141" display="Add two numbers represented by linked lists."/>
+    <hyperlink ref="B149" r:id="rId142" display="Intersection of two Sorted Linked List."/>
+    <hyperlink ref="B150" r:id="rId143" display="Intersection Point of two Linked Lists."/>
+    <hyperlink ref="B151" r:id="rId144" display="Merge Sort For Linked lists.[Very Important]"/>
+    <hyperlink ref="B152" r:id="rId145" display="Quicksort for Linked Lists.[Very Important]"/>
+    <hyperlink ref="B153" r:id="rId146" display="Find the middle Element of a linked list."/>
+    <hyperlink ref="B154" r:id="rId147" display="Check if a linked list is a circular linked list."/>
+    <hyperlink ref="B155" r:id="rId148" display="Split a Circular linked list into two halves."/>
+    <hyperlink ref="B156" r:id="rId149" display="Write a Program to check whether the Singly Linked list is a palindrome or not."/>
+    <hyperlink ref="B157" r:id="rId150" display="Deletion from a Circular Linked List."/>
+    <hyperlink ref="B158" r:id="rId151" display="Reverse a Doubly Linked list."/>
+    <hyperlink ref="B159" r:id="rId152" display="Find pairs with a given sum in a DLL."/>
+    <hyperlink ref="B160" r:id="rId153" display="Count triplets in a sorted DLL whose sum is equal to given value “X”."/>
+    <hyperlink ref="B161" r:id="rId154" display="Sort a “k”sorted Doubly Linked list.[Very IMP]"/>
+    <hyperlink ref="B162" r:id="rId155" display="Rotate DoublyLinked list by N nodes."/>
+    <hyperlink ref="B163" r:id="rId156" display="Rotate a Doubly Linked list in group of Given Size.[Very IMP]"/>
+    <hyperlink ref="B166" r:id="rId157" display="Flatten a Linked List"/>
+    <hyperlink ref="B167" r:id="rId158" display="Sort a LL of 0's, 1's and 2's"/>
+    <hyperlink ref="B168" r:id="rId159" display="Clone a linked list with next and random pointer"/>
+    <hyperlink ref="B169" r:id="rId160" display="Merge K sorted Linked list"/>
+    <hyperlink ref="B170" r:id="rId161" display="Multiply 2 no. represented by LL"/>
+    <hyperlink ref="B171" r:id="rId162" display="Delete nodes which have a greater value on right side"/>
+    <hyperlink ref="B172" r:id="rId163" display="Segregate even and odd nodes in a Linked List"/>
+    <hyperlink ref="B173" r:id="rId164" display="Program for n’th node from the end of a Linked List"/>
+    <hyperlink ref="B174" r:id="rId165" display="Find the first non-repeating character from a stream of characters"/>
+    <hyperlink ref="B177" r:id="rId166" display="level order traversal"/>
+    <hyperlink ref="B178" r:id="rId167" display="Reverse Level Order traversal"/>
+    <hyperlink ref="B179" r:id="rId168" display="Height of a tree"/>
+    <hyperlink ref="B180" r:id="rId169" display="Diameter of a tree"/>
+    <hyperlink ref="B181" r:id="rId170" display="Mirror of a tree"/>
+    <hyperlink ref="B182" r:id="rId171" display="Inorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B183" r:id="rId172" display="Preorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B184" r:id="rId173" display="Postorder Traversal of a tree both using recursion and Iteration"/>
+    <hyperlink ref="B185" r:id="rId174" display="Left View of a tree"/>
+    <hyperlink ref="B186" r:id="rId175" display="Right View of Tree"/>
+    <hyperlink ref="B187" r:id="rId176" display="Top View of a tree"/>
+    <hyperlink ref="B188" r:id="rId177" display="Bottom View of a tree"/>
+    <hyperlink ref="B189" r:id="rId178" display="Zig-Zag traversal of a binary tree"/>
+    <hyperlink ref="B190" r:id="rId179" display="Check if a tree is balanced or not"/>
+    <hyperlink ref="B191" r:id="rId180" display="Diagnol Traversal of a Binary tree"/>
+    <hyperlink ref="B192" r:id="rId181" display="Boundary traversal of a Binary tree"/>
+    <hyperlink ref="B193" r:id="rId182" display="Construct Binary Tree from String with Bracket Representation"/>
+    <hyperlink ref="B194" r:id="rId183" display="Convert Binary tree into Doubly Linked List"/>
+    <hyperlink ref="B195" r:id="rId184" display="Convert Binary tree into Sum tree"/>
+    <hyperlink ref="B196" r:id="rId185" display="Construct Binary tree from Inorder and preorder traversal"/>
+    <hyperlink ref="B197" r:id="rId186" location=":~:text=Given%20the%20array%20representation%20of,it%20into%20Binary%20Search%20Tree.&amp;text=Swap%201%3A%20Swap%20node%208,node%209%20with%20node%2010." display="Find minimum swaps required to convert a Binary tree into BST"/>
+    <hyperlink ref="B198" r:id="rId187" display="Check if Binary tree is Sum tree or not"/>
+    <hyperlink ref="B199" r:id="rId188" display="Check if all leaf nodes are at same level or not"/>
+    <hyperlink ref="B200" r:id="rId189" display="Check if a Binary Tree contains duplicate subtrees of size 2 or more [ IMP ]"/>
+    <hyperlink ref="B201" r:id="rId190" display="Check if 2 trees are mirror or not"/>
+    <hyperlink ref="B202" r:id="rId191" display="Sum of Nodes on the Longest path from root to leaf node "/>
+    <hyperlink ref="B203" r:id="rId192" location=":~:text=Since%20the%20graph%20is%20undirected,graph%20is%20connected%2C%20otherwise%20not." display="Check if given graph is tree or not.  [ IMP ]"/>
+    <hyperlink ref="B204" r:id="rId193" display="Find Largest subtree sum in a tree"/>
+    <hyperlink ref="B205" r:id="rId194" display="Maximum Sum of nodes in Binary tree such that no two are adjacent "/>
+    <hyperlink ref="B206" r:id="rId195" display="Print all &quot;K&quot; Sum paths in a Binary tree"/>
+    <hyperlink ref="B207" r:id="rId196" display="Find LCA in a Binary tree"/>
+    <hyperlink ref="B208" r:id="rId197" display="Find distance between 2 nodes in a Binary tree"/>
+    <hyperlink ref="B209" r:id="rId198" display="Kth Ancestor of node in a Binary tree"/>
+    <hyperlink ref="B210" r:id="rId199" display="Find all Duplicate subtrees in a Binary tree [ IMP ]"/>
+    <hyperlink ref="B211" r:id="rId200" display="Tree Isomorphism Problem"/>
+    <hyperlink ref="B214" r:id="rId201" display="Fina a value in a BST"/>
+    <hyperlink ref="B215" r:id="rId202" display="Deletion of a node in a BST"/>
+    <hyperlink ref="B216" r:id="rId203" display="Find min and max value in a BST"/>
+    <hyperlink ref="B217" r:id="rId204" display="Find inorder successor and inorder predecessor in a BST"/>
+    <hyperlink ref="B218" r:id="rId205" display="Check if a tree is a BST or not "/>
+    <hyperlink ref="B219" r:id="rId206" display="Populate Inorder successor of all nodes"/>
+    <hyperlink ref="B220" r:id="rId207" display="Find LCA  of 2 nodes in a BST"/>
+    <hyperlink ref="B221" r:id="rId208" display="Construct BST from preorder traversal"/>
+    <hyperlink ref="B222" r:id="rId209" display="Convert Binary tree into BST"/>
+    <hyperlink ref="B223" r:id="rId210" display="Convert a normal BST into a Balanced BST"/>
+    <hyperlink ref="B224" r:id="rId211" display="Merge two BST [ V.V.V&gt;IMP ]"/>
+    <hyperlink ref="B225" r:id="rId212" display="Find Kth largest element in a BST"/>
+    <hyperlink ref="B226" r:id="rId213" display="Find Kth smallest element in a BST"/>
+    <hyperlink ref="B227" r:id="rId214" display="Count pairs from 2 BST whose sum is equal to given value &quot;X&quot;"/>
+    <hyperlink ref="B228" r:id="rId215" display="Find the median of BST in O(n) time and O(1) space"/>
+    <hyperlink ref="B229" r:id="rId216" display="Count BST ndoes that lie in a given range"/>
+    <hyperlink ref="B230" r:id="rId217" display="Replace every element with the least greater element on its right"/>
+    <hyperlink ref="B231" r:id="rId218" display="Given &quot;n&quot; appointments, find the conflicting appointments"/>
+    <hyperlink ref="B232" r:id="rId219" display="Check preorder is valid or not"/>
+    <hyperlink ref="B233" r:id="rId220" display="Check whether BST contains Dead end"/>
+    <hyperlink ref="B234" r:id="rId221" display="Largest BST in a Binary Tree [ V.V.V.V.V IMP ]"/>
+    <hyperlink ref="B235" r:id="rId222" display="Flatten BST to sorted list"/>
+    <hyperlink ref="B238" r:id="rId223" display="Activity Selection Problem"/>
+    <hyperlink ref="B239" r:id="rId224" display="Job SequencingProblem"/>
+    <hyperlink ref="B240" r:id="rId225" display="Huffman Coding"/>
+    <hyperlink ref="B241" r:id="rId226" display="Water Connection Problem"/>
+    <hyperlink ref="B242" r:id="rId227" display="Fractional Knapsack Problem"/>
+    <hyperlink ref="B243" r:id="rId228" display="Greedy Algorithm to find Minimum number of Coins"/>
+    <hyperlink ref="B244" r:id="rId229" display="Maximum trains for which stoppage can be provided"/>
+    <hyperlink ref="B245" r:id="rId230" display="Minimum Platforms Problem"/>
+    <hyperlink ref="B246" r:id="rId231" display="Buy Maximum Stocks if i stocks can be bought on i-th day"/>
+    <hyperlink ref="B247" r:id="rId232" display="Find the minimum and maximum amount to buy all N candies"/>
+    <hyperlink ref="B248" r:id="rId233" display="Minimize Cash Flow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B249" r:id="rId234" display="Minimum Cost to cut a board into squares"/>
+    <hyperlink ref="B250" r:id="rId235" display="Check if it is possible to survive on Island"/>
+    <hyperlink ref="B251" r:id="rId236" display="Find maximum meetings in one room"/>
+    <hyperlink ref="B252" r:id="rId237" display="Maximum product subset of an array"/>
+    <hyperlink ref="B253" r:id="rId238" display="Maximize array sum after K negations"/>
+    <hyperlink ref="B254" r:id="rId239" display="Maximize the sum of arr[i]*i"/>
+    <hyperlink ref="B255" r:id="rId240" display="Maximum sum of absolute difference of an array"/>
+    <hyperlink ref="B256" r:id="rId241" display="Maximize sum of consecutive differences in a circular array"/>
+    <hyperlink ref="B257" r:id="rId242" location=":~:text=It%20consists%20of%20two%20steps,result%20to%20the%20sum%20S." display="Minimum sum of absolute difference of pairs of two arrays"/>
+    <hyperlink ref="B258" r:id="rId243" display="Program for Shortest Job First (or SJF) CPU Scheduling"/>
+    <hyperlink ref="B259" r:id="rId244" display="Program for Least Recently Used (LRU) Page Replacement algorithm"/>
+    <hyperlink ref="B260" r:id="rId245" display="Smallest subset with sum greater than all other elements"/>
+    <hyperlink ref="B261" r:id="rId246" display="Chocolate Distribution Problem"/>
+    <hyperlink ref="B262" r:id="rId247" display="DEFKIN -Defense of a Kingdom"/>
+    <hyperlink ref="B263" r:id="rId248" display="DIEHARD -DIE HARD"/>
+    <hyperlink ref="B264" r:id="rId249" display="GERGOVIA -Wine trading in Gergovia"/>
+    <hyperlink ref="B265" r:id="rId250" display="Picking Up Chicks"/>
+    <hyperlink ref="B266" r:id="rId251" display="CHOCOLA –Chocolate"/>
+    <hyperlink ref="B267" r:id="rId252" display="ARRANGE -Arranging Amplifiers"/>
+    <hyperlink ref="B268" r:id="rId253" display="K Centers Problem"/>
+    <hyperlink ref="B269" r:id="rId254" display="Minimum Cost of ropes"/>
+    <hyperlink ref="B270" r:id="rId255" display="Find smallest number with given number of digits and sum of digits"/>
+    <hyperlink ref="B271" r:id="rId256" display="Rearrange characters in a string such that no two adjacent are same"/>
+    <hyperlink ref="B272" r:id="rId257" display="Find maximum sum possible equal sum of three stacks"/>
+    <hyperlink ref="B275" r:id="rId258" display="Rat in a maze Problem"/>
+    <hyperlink ref="B276" r:id="rId259" display="Printing all solutions in N-Queen Problem"/>
+    <hyperlink ref="B277" r:id="rId260" display="Word Break Problem using Backtracking"/>
+    <hyperlink ref="B278" r:id="rId261" display="Remove Invalid Parentheses"/>
+    <hyperlink ref="B279" r:id="rId262" display="Sudoku Solver"/>
+    <hyperlink ref="B280" r:id="rId263" display="m Coloring Problem"/>
+    <hyperlink ref="B281" r:id="rId264" display="Print all palindromic partitions of a string"/>
+    <hyperlink ref="B282" r:id="rId265" display="Subset Sum Problem"/>
+    <hyperlink ref="B283" r:id="rId266" display="The Knight’s tour problem"/>
+    <hyperlink ref="B284" r:id="rId267" display="Tug of War"/>
+    <hyperlink ref="B285" r:id="rId268" display="Find shortest safe route in a path with landmines"/>
+    <hyperlink ref="B286" r:id="rId269" display="Combinational Sum"/>
+    <hyperlink ref="B287" r:id="rId270" display="Find Maximum number possible by doing at-most K swaps"/>
+    <hyperlink ref="B288" r:id="rId271" display="Print all permutations of a string "/>
+    <hyperlink ref="B289" r:id="rId272" display="Find if there is a path of more than k length from a source"/>
+    <hyperlink ref="B290" r:id="rId273" display="Longest Possible Route in a Matrix with Hurdles"/>
+    <hyperlink ref="B291" r:id="rId274" display="Print all possible paths from top left to bottom right of a mXn matrix"/>
+    <hyperlink ref="B292" r:id="rId275" display="Partition of a set intoK subsets with equal sum"/>
+    <hyperlink ref="B293" r:id="rId276" display="Find the K-th Permutation Sequence of first N natural numbers"/>
+    <hyperlink ref="B296" r:id="rId277" display=" Implement Stack from Scratch"/>
+    <hyperlink ref="B297" r:id="rId278" display=" Implement Queue from Scratch"/>
+    <hyperlink ref="B298" r:id="rId279" display="Implement 2 stack in an array"/>
+    <hyperlink ref="B299" r:id="rId280" display="find the middle element of a stack"/>
+    <hyperlink ref="B300" r:id="rId281" display="Implement &quot;N&quot; stacks in an Array"/>
+    <hyperlink ref="B301" r:id="rId282" display="Check the expression has valid or Balanced parenthesis or not."/>
+    <hyperlink ref="B302" r:id="rId283" display="Reverse a String using Stack"/>
+    <hyperlink ref="B303" r:id="rId284" display="Design a Stack that supports getMin() in O(1) time and O(1) extra space."/>
+    <hyperlink ref="D303" r:id="rId285" display="https://github.com/rohitdutt/leetcode_solutions/blob/master/algorithm/c%2B%2B/minStack.cpp"/>
+    <hyperlink ref="B304" r:id="rId286" display="Find the next Greater element"/>
+    <hyperlink ref="B305" r:id="rId287" display="The celebrity Problem"/>
+    <hyperlink ref="B306" r:id="rId288" location=":~:text=The%20stack%20organization%20is%20very,i.e.%2C%20A%20%2B%20B)." display="Arithmetic Expression evaluation"/>
+    <hyperlink ref="B307" r:id="rId289" display="Evaluation of Postfix expression"/>
+    <hyperlink ref="B308" r:id="rId290" display="Implement a method to insert an element at its bottom without using any other data structure."/>
+    <hyperlink ref="B309" r:id="rId291" display="Reverse a stack using recursion"/>
+    <hyperlink ref="B310" r:id="rId292" display="Sort a Stack using recursion"/>
+    <hyperlink ref="B311" r:id="rId293" display="Merge Overlapping Intervals"/>
+    <hyperlink ref="B312" r:id="rId294" display="Largest rectangular Area in Histogram"/>
+    <hyperlink ref="B313" r:id="rId295" display="Length of the Longest Valid Substring"/>
+    <hyperlink ref="B314" r:id="rId296" display="Expression contains redundant bracket or not"/>
+    <hyperlink ref="B315" r:id="rId297" display="Implement Stack using Queue"/>
+    <hyperlink ref="B316" r:id="rId298" display="Implement Stack using Deque"/>
+    <hyperlink ref="B317" r:id="rId299" display="Stack Permutations (Check if an array is stack permutation of other)"/>
+    <hyperlink ref="B318" r:id="rId300" display="Implement Queue using Stack  "/>
+    <hyperlink ref="B319" r:id="rId301" display="Implement &quot;n&quot; queue in an array"/>
+    <hyperlink ref="B320" r:id="rId302" display="Implement a Circular queue"/>
+    <hyperlink ref="B321" r:id="rId303" display="LRU Cache Implementationa"/>
+    <hyperlink ref="B322" r:id="rId304" display="Reverse a Queue using recursion"/>
+    <hyperlink ref="B323" r:id="rId305" display="Reverse the first “K” elements of a queue"/>
+    <hyperlink ref="B324" r:id="rId306" display="Interleave the first half of the queue with second half"/>
+    <hyperlink ref="B325" r:id="rId307" display="Find the first circular tour that visits all Petrol Pumps"/>
+    <hyperlink ref="B326" r:id="rId308" display="Minimum time required to rot all oranges"/>
+    <hyperlink ref="B327" r:id="rId309" display="Distance of nearest cell having 1 in a binary matrix"/>
+    <hyperlink ref="B328" r:id="rId310" display="First negative integer in every window of size “k”"/>
+    <hyperlink ref="B329" r:id="rId311" display="Check if all levels of two trees are anagrams or not."/>
+    <hyperlink ref="B330" r:id="rId312" display="Sum of minimum and maximum elements of all subarrays of size “k”."/>
+    <hyperlink ref="B331" r:id="rId313" display="Minimum sum of squares of character counts in a given string after removing “k” characters."/>
+    <hyperlink ref="B332" r:id="rId314" display="Queue based approach or first non-repeating character in a stream."/>
+    <hyperlink ref="B333" r:id="rId315" display="Next Smaller Element"/>
+    <hyperlink ref="B336" r:id="rId316" display="Implement a Maxheap/MinHeap using arrays and recursion."/>
+    <hyperlink ref="B337" r:id="rId317" display="Sort an Array using heap. (HeapSort)"/>
+    <hyperlink ref="B338" r:id="rId318" display="Maximum of all subarrays of size k."/>
+    <hyperlink ref="B339" r:id="rId319" display="“k” largest element in an array"/>
+    <hyperlink ref="B340" r:id="rId320" display="Kth smallest and largest element in an unsorted array"/>
+    <hyperlink ref="B341" r:id="rId321" display="Merge “K” sorted arrays. [ IMP ]"/>
+    <hyperlink ref="B342" r:id="rId322" display="Merge 2 Binary Max Heaps"/>
+    <hyperlink ref="B343" r:id="rId323" display="Kth largest sum continuous subarrays"/>
+    <hyperlink ref="B344" r:id="rId324" display="Leetcode- reorganize strings"/>
+    <hyperlink ref="B345" r:id="rId325" display="Merge “K” Sorted Linked Lists [V.IMP]"/>
+    <hyperlink ref="B346" r:id="rId326" display="Smallest range in “K” Lists"/>
+    <hyperlink ref="B347" r:id="rId327" display="Median in a stream of Integers"/>
+    <hyperlink ref="B348" r:id="rId328" display="Check if a Binary Tree is Heap"/>
+    <hyperlink ref="B349" r:id="rId329" display="Connect “n” ropes with minimum cost"/>
+    <hyperlink ref="B350" r:id="rId330" display="Convert BST to Min Heap"/>
+    <hyperlink ref="B351" r:id="rId331" display="Convert min heap to max heap"/>
+    <hyperlink ref="B352" r:id="rId332" display="Rearrange characters in a string such that no two adjacent are same."/>
+    <hyperlink ref="B353" r:id="rId333" display="Minimum sum of two numbers formed from digits of an array"/>
+    <hyperlink ref="B356" r:id="rId334" display="Create a Graph, print it"/>
+    <hyperlink ref="B357" r:id="rId335" display="Implement BFS algorithm "/>
+    <hyperlink ref="B358" r:id="rId336" display="Implement DFS Algo "/>
+    <hyperlink ref="B359" r:id="rId337" display="Detect Cycle in Directed Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B360" r:id="rId338" display="Detect Cycle in UnDirected Graph using BFS/DFS Algo "/>
+    <hyperlink ref="B361" r:id="rId339" display="Search in a Maze"/>
+    <hyperlink ref="B362" r:id="rId340" display="Minimum Step by Knight"/>
+    <hyperlink ref="B363" r:id="rId341" display="flood fill algo"/>
+    <hyperlink ref="B364" r:id="rId342" display="Clone a graph"/>
+    <hyperlink ref="B365" r:id="rId343" display="Making wired Connections"/>
+    <hyperlink ref="B366" r:id="rId344" display="word Ladder "/>
+    <hyperlink ref="B367" r:id="rId345" display="Dijkstra algo"/>
+    <hyperlink ref="B368" r:id="rId346" display="Implement Topological Sort "/>
+    <hyperlink ref="B369" r:id="rId347" display="Minimum time taken by each job to be completed given by a Directed Acyclic Graph"/>
+    <hyperlink ref="B370" r:id="rId348" display="Find whether it is possible to finish all tasks or not from given dependencies"/>
+    <hyperlink ref="B371" r:id="rId349" display="Find the no. of Isalnds"/>
+    <hyperlink ref="B372" r:id="rId350" display="Given a sorted Dictionary of an Alien Language, find order of characters"/>
+    <hyperlink ref="B373" r:id="rId351" display="Implement Kruksal’sAlgorithm"/>
+    <hyperlink ref="B374" r:id="rId352" display="Implement Prim’s Algorithm"/>
+    <hyperlink ref="B375" r:id="rId353" display="Total no. of Spanning tree in a graph"/>
+    <hyperlink ref="B376" r:id="rId354" display="Implement Bellman Ford Algorithm"/>
+    <hyperlink ref="B377" r:id="rId355" display="Implement Floyd warshallAlgorithm"/>
+    <hyperlink ref="B378" r:id="rId356" display="Travelling Salesman Problem"/>
+    <hyperlink ref="B379" r:id="rId357" location=":~:text=Graph%20coloring%20problem%20is%20to,are%20colored%20using%20same%20color." display="Graph ColouringProblem"/>
+    <hyperlink ref="B380" r:id="rId358" display="Snake and Ladders Problem"/>
+    <hyperlink ref="B381" r:id="rId359" display="Find bridge in a graph"/>
+    <hyperlink ref="B382" r:id="rId360" display="Count Strongly connected Components(Kosaraju Algo)"/>
+    <hyperlink ref="B383" r:id="rId361" display="Check whether a graph is Bipartite or Not"/>
+    <hyperlink ref="B384" r:id="rId362" display="Detect Negative cycle in a graph"/>
+    <hyperlink ref="B385" r:id="rId363" display="Longest path in a Directed Acyclic Graph"/>
+    <hyperlink ref="B386" r:id="rId364" display="Journey to the Moon"/>
+    <hyperlink ref="B387" r:id="rId365" display="Cheapest Flights Within K Stops"/>
+    <hyperlink ref="B388" r:id="rId366" display="Oliver and the Game"/>
+    <hyperlink ref="B389" r:id="rId367" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B390" r:id="rId368" display="Water Jug problem using BFS"/>
+    <hyperlink ref="B391" r:id="rId369" display="Find if there is a path of more thank length from a source"/>
+    <hyperlink ref="B392" r:id="rId370" display="M-ColouringProblem"/>
+    <hyperlink ref="B393" r:id="rId371" display="Minimum edges to reverse o make path from source to destination"/>
+    <hyperlink ref="B394" r:id="rId372" display="Paths to travel each nodes using each edge(Seven Bridges)"/>
+    <hyperlink ref="B395" r:id="rId373" display="Vertex Cover Problem"/>
+    <hyperlink ref="B396" r:id="rId374" display="Chinese Postman or Route Inspection"/>
+    <hyperlink ref="B397" r:id="rId375" display="Number of Triangles in a Directed and Undirected Graph"/>
+    <hyperlink ref="B398" r:id="rId376" display="Minimise the cashflow among a given set of friends who have borrowed money from each other"/>
+    <hyperlink ref="B399" r:id="rId377" display="Two Clique Problem"/>
+    <hyperlink ref="B402" r:id="rId378" display="Construct a trie from scratch"/>
+    <hyperlink ref="B403" r:id="rId379" display="Find shortest unique prefix for every word in a given list"/>
+    <hyperlink ref="B404" r:id="rId380" display="Word Break Problem | (Trie solution)"/>
+    <hyperlink ref="B405" r:id="rId381" display="Given a sequence of words, print all anagrams together"/>
+    <hyperlink ref="B406" r:id="rId382" display="Implement a Phone Directory"/>
+    <hyperlink ref="B407" r:id="rId383" display="Print unique rows in a given boolean matrix"/>
+    <hyperlink ref="B410" r:id="rId384" display="Coin ChangeProblem"/>
+    <hyperlink ref="B411" r:id="rId385" display="Knapsack Problem"/>
+    <hyperlink ref="B412" r:id="rId386" display="Binomial CoefficientProblem"/>
+    <hyperlink ref="B413" r:id="rId387" display="Permutation CoefficientProblem"/>
+    <hyperlink ref="B414" r:id="rId388" display="Program for nth Catalan Number"/>
+    <hyperlink ref="B415" r:id="rId389" display="Matrix Chain Multiplication "/>
+    <hyperlink ref="B416" r:id="rId390" display="Edit Distance"/>
+    <hyperlink ref="B417" r:id="rId391" display="Subset Sum Problem"/>
+    <hyperlink ref="B418" r:id="rId392" display="Friends Pairing Problem"/>
+    <hyperlink ref="B419" r:id="rId393" display="Gold Mine Problem"/>
+    <hyperlink ref="B420" r:id="rId394" display="Assembly Line SchedulingProblem"/>
+    <hyperlink ref="B421" r:id="rId395" display="Painting the Fenceproblem"/>
+    <hyperlink ref="B422" r:id="rId396" display="Maximize The Cut Segments"/>
+    <hyperlink ref="B423" r:id="rId397" display="Longest Common Subsequence"/>
+    <hyperlink ref="B424" r:id="rId398" display="Longest Repeated Subsequence"/>
+    <hyperlink ref="B425" r:id="rId399" display="Longest Increasing Subsequence"/>
+    <hyperlink ref="B426" r:id="rId400" display="Space Optimized Solution of LCS"/>
+    <hyperlink ref="B427" r:id="rId401" display="LCS (Longest Common Subsequence) of three strings"/>
+    <hyperlink ref="B428" r:id="rId402" display="Maximum Sum Increasing Subsequence"/>
+    <hyperlink ref="B429" r:id="rId403" display="Count all subsequences having product less than K"/>
+    <hyperlink ref="B430" r:id="rId404" display="Longest subsequence such that difference between adjacent is one"/>
+    <hyperlink ref="B431" r:id="rId405" display="Maximum subsequence sum such that no three are consecutive"/>
+    <hyperlink ref="B432" r:id="rId406" display="Egg Dropping Problem"/>
+    <hyperlink ref="B433" r:id="rId407" display="Maximum Length Chain of Pairs"/>
+    <hyperlink ref="B434" r:id="rId408" display="Maximum size square sub-matrix with all 1s"/>
+    <hyperlink ref="B435" r:id="rId409" display="Maximum sum of pairs with specific difference"/>
+    <hyperlink ref="B436" r:id="rId410" display="Min Cost PathProblem"/>
+    <hyperlink ref="B437" r:id="rId411" display="Maximum difference of zeros and ones in binary string"/>
+    <hyperlink ref="B438" r:id="rId412" display="Minimum number of jumps to reach end"/>
+    <hyperlink ref="B439" r:id="rId413" display="Minimum cost to fill given weight in a bag"/>
+    <hyperlink ref="B440" r:id="rId414" display="Minimum removals from array to make max –min &lt;= K"/>
+    <hyperlink ref="B441" r:id="rId415" display="Longest Common Substring"/>
+    <hyperlink ref="B442" r:id="rId416" display="Count number of ways to reacha given score in a game"/>
+    <hyperlink ref="B443" r:id="rId417" display="Count Balanced Binary Trees of Height h"/>
+    <hyperlink ref="B444" r:id="rId418" display="LargestSum Contiguous Subarray [V&gt;V&gt;V&gt;V IMP ]"/>
+    <hyperlink ref="B445" r:id="rId419" display="Smallest sum contiguous subarray"/>
+    <hyperlink ref="B446" r:id="rId420" display="Unbounded Knapsack (Repetition of items allowed)"/>
+    <hyperlink ref="B447" r:id="rId421" display="Word Break Problem"/>
+    <hyperlink ref="B448" r:id="rId422" display="Largest Independent Set Problem"/>
+    <hyperlink ref="B449" r:id="rId423" display="Partition problem"/>
+    <hyperlink ref="B450" r:id="rId424" display="Longest Palindromic Subsequence"/>
+    <hyperlink ref="B451" r:id="rId425" display="Count All Palindromic Subsequence in a given String"/>
+    <hyperlink ref="B452" r:id="rId426" display="Longest Palindromic Substring"/>
+    <hyperlink ref="B453" r:id="rId427" display="Longest alternating subsequence"/>
+    <hyperlink ref="B454" r:id="rId428" display="Weighted Job Scheduling"/>
+    <hyperlink ref="B455" r:id="rId429" display="Coin game winner where every player has three choices"/>
+    <hyperlink ref="B456" r:id="rId430" display="Count Derangements (Permutation such that no element appears in its original position) [ IMPORTANT ]"/>
+    <hyperlink ref="B457" r:id="rId431" display="Maximum profit by buying and selling a share at most twice [ IMP ]"/>
+    <hyperlink ref="B458" r:id="rId432" display="Optimal Strategy for a Game"/>
+    <hyperlink ref="B459" r:id="rId433" display="Optimal Binary Search Tree"/>
+    <hyperlink ref="B460" r:id="rId434" display="Palindrome PartitioningProblem"/>
+    <hyperlink ref="B461" r:id="rId435" display="Word Wrap Problem"/>
+    <hyperlink ref="B462" r:id="rId436" display="Mobile Numeric Keypad Problem [ IMP ]"/>
+    <hyperlink ref="B463" r:id="rId437" display="Boolean Parenthesization Problem"/>
+    <hyperlink ref="B464" r:id="rId438" display="Largest rectangular sub-matrix whose sum is 0"/>
+    <hyperlink ref="B465" r:id="rId439" display="Largest area rectangular sub-matrix with equal number of 1’s and 0’s [ IMP ]"/>
+    <hyperlink ref="B466" r:id="rId440" display="Maximum sum rectangle in a 2D matrix"/>
+    <hyperlink ref="B467" r:id="rId441" display="Maximum profit by buying and selling a share at most k times"/>
+    <hyperlink ref="B468" r:id="rId442" display="Find if a string is interleaved of two other strings"/>
+    <hyperlink ref="B469" r:id="rId443" display="Maximum Length of Pair Chain"/>
+    <hyperlink ref="B472" r:id="rId444" display="Count set bits in an integer"/>
+    <hyperlink ref="B473" r:id="rId445" display="Find the two non-repeating elements in an array of repeating elements"/>
+    <hyperlink ref="B474" r:id="rId446" display="Count number of bits to be flipped to convert A to B"/>
+    <hyperlink ref="B475" r:id="rId447" display="Count total set bits in all numbers from 1 to n"/>
+    <hyperlink ref="B476" r:id="rId448" display="Program to find whether a no is power of two"/>
+    <hyperlink ref="B477" r:id="rId449" display="Find position of the only set bit"/>
+    <hyperlink ref="B478" r:id="rId450" display="Copy set bits in a range"/>
+    <hyperlink ref="B479" r:id="rId451" display="Divide two integers without using multiplication, division and mod operator"/>
+    <hyperlink ref="B480" r:id="rId452" location=":~:text=Given%20an%20integer%20n%2C%20calculate,*%2C%20%2F%20and%20pow().&amp;text=A%20Simple%20Solution%20is%20to%20repeatedly%20add%20n%20to%20result." display="Calculate square of a number without using *, / and pow()"/>
+    <hyperlink ref="B481" r:id="rId453" display="Power Set"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
